--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -38,7 +38,7 @@
     <t>num_max</t>
   </si>
   <si>
-    <t>belong_creature_model</t>
+    <t>creature_model_info_id</t>
   </si>
   <si>
     <t>icon_res</t>
@@ -71,7 +71,7 @@
     <t>道具上限</t>
   </si>
   <si>
-    <t>专属生物模组ID</t>
+    <t>生物模组信息ID</t>
   </si>
   <si>
     <t>图标</t>
@@ -84,6 +84,84 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>皇冠</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-皇冠</t>
+  </si>
+  <si>
+    <t>质朴肩甲</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-肩甲1</t>
+  </si>
+  <si>
+    <t>加长肩甲</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-肩甲2</t>
+  </si>
+  <si>
+    <t>破烂肩甲</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-破烂的肩甲</t>
+  </si>
+  <si>
+    <t>破烂腰带</t>
+  </si>
+  <si>
+    <t>骷髅-裤子-破烂的腰带</t>
+  </si>
+  <si>
+    <t>骨头</t>
+  </si>
+  <si>
+    <t>骷髅-武器-骨头</t>
+  </si>
+  <si>
+    <t>鸡腿</t>
+  </si>
+  <si>
+    <t>骷髅-武器-鸡腿</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>骷髅-武器-铁剑</t>
+  </si>
+  <si>
+    <t>火法杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-火法杖</t>
+  </si>
+  <si>
+    <t>法杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-冰法杖</t>
+  </si>
+  <si>
+    <t>破剑</t>
+  </si>
+  <si>
+    <t>骷髅-武器-残破剑</t>
+  </si>
+  <si>
+    <t>宝石法杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-绿宝石法杖</t>
+  </si>
+  <si>
+    <t>魔力法杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-魔力法杖</t>
   </si>
 </sst>
 </file>
@@ -1054,12 +1132,14 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="3" width="41.875" customWidth="1"/>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="41.875" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="7" width="8.375" customWidth="1"/>
@@ -1142,6 +1222,266 @@
       </c>
       <c r="H3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>20100001</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2500001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>20200001</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2510001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>20200002</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2510002</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>20200003</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2510003</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>20300001</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2520001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>21000001</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2900001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>21000002</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2900002</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>21010001</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2910001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>21010002</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2910002</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>21010003</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2910003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>21010004</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2910004</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>21010011</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2910011</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>21010012</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2910012</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="13545" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -86,18 +86,27 @@
     <t>备注</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
     <t>皇冠</t>
   </si>
   <si>
     <t>骷髅-帽子-皇冠</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
     <t>质朴肩甲</t>
   </si>
   <si>
     <t>骷髅-衣服-肩甲1</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
     <t>加长肩甲</t>
   </si>
   <si>
@@ -110,52 +119,79 @@
     <t>骷髅-衣服-破烂的肩甲</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
     <t>破烂腰带</t>
   </si>
   <si>
     <t>骷髅-裤子-破烂的腰带</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_1</t>
+  </si>
+  <si>
     <t>骨头</t>
   </si>
   <si>
     <t>骷髅-武器-骨头</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_2</t>
+  </si>
+  <si>
     <t>鸡腿</t>
   </si>
   <si>
     <t>骷髅-武器-鸡腿</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_1</t>
+  </si>
+  <si>
     <t>铁剑</t>
   </si>
   <si>
     <t>骷髅-武器-铁剑</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_2</t>
+  </si>
+  <si>
     <t>火法杖</t>
   </si>
   <si>
     <t>骷髅-武器-火法杖</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_3</t>
+  </si>
+  <si>
     <t>法杖</t>
   </si>
   <si>
     <t>骷髅-武器-冰法杖</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_4</t>
+  </si>
+  <si>
     <t>破剑</t>
   </si>
   <si>
     <t>骷髅-武器-残破剑</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_11</t>
+  </si>
+  <si>
     <t>宝石法杖</t>
   </si>
   <si>
     <t>骷髅-武器-绿宝石法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_12</t>
   </si>
   <si>
     <t>魔力法杖</t>
@@ -1131,17 +1167,17 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="2" width="41.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="8" width="42.875" customWidth="1"/>
   </cols>
@@ -1237,11 +1273,14 @@
       <c r="D4">
         <v>2500001</v>
       </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1257,11 +1296,14 @@
       <c r="D5">
         <v>2510001</v>
       </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1277,11 +1319,14 @@
       <c r="D6">
         <v>2510002</v>
       </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1298,10 +1343,10 @@
         <v>2510003</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1317,11 +1362,14 @@
       <c r="D8">
         <v>2520001</v>
       </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1337,11 +1385,14 @@
       <c r="D9">
         <v>2900001</v>
       </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1357,11 +1408,14 @@
       <c r="D10">
         <v>2900002</v>
       </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1377,11 +1431,14 @@
       <c r="D11">
         <v>2910001</v>
       </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1397,11 +1454,14 @@
       <c r="D12">
         <v>2910002</v>
       </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1417,11 +1477,14 @@
       <c r="D13">
         <v>2910003</v>
       </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1437,11 +1500,14 @@
       <c r="D14">
         <v>2910004</v>
       </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1457,11 +1523,14 @@
       <c r="D15">
         <v>2910011</v>
       </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1477,11 +1546,14 @@
       <c r="D16">
         <v>2910012</v>
       </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,9 @@
     <t>icon_res</t>
   </si>
   <si>
+    <t>icon_rotate_z</t>
+  </si>
+  <si>
     <t>name_cn</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -75,6 +81,9 @@
   </si>
   <si>
     <t>图标</t>
+  </si>
+  <si>
+    <t>图标旋转</t>
   </si>
   <si>
     <t>名字中文</t>
@@ -1165,24 +1174,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="8" width="42.875" customWidth="1"/>
+    <col min="5" max="6" width="36" customWidth="1"/>
+    <col min="7" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1207,60 +1216,69 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>20100001</v>
       </c>
@@ -1274,16 +1292,16 @@
         <v>2500001</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>20200001</v>
       </c>
@@ -1297,16 +1315,16 @@
         <v>2510001</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>20200002</v>
       </c>
@@ -1320,16 +1338,16 @@
         <v>2510002</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>20200003</v>
       </c>
@@ -1342,14 +1360,14 @@
       <c r="D7">
         <v>2510003</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>20300001</v>
       </c>
@@ -1363,16 +1381,16 @@
         <v>2520001</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>21000001</v>
       </c>
@@ -1386,16 +1404,19 @@
         <v>2900001</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>21000002</v>
       </c>
@@ -1409,16 +1430,19 @@
         <v>2900002</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>21010001</v>
       </c>
@@ -1432,16 +1456,19 @@
         <v>2910001</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>-45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>21010002</v>
       </c>
@@ -1455,16 +1482,19 @@
         <v>2910002</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>-45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>21010003</v>
       </c>
@@ -1478,16 +1508,19 @@
         <v>2910003</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>-45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>21010004</v>
       </c>
@@ -1501,16 +1534,19 @@
         <v>2910004</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>-45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>21010011</v>
       </c>
@@ -1524,16 +1560,19 @@
         <v>2910011</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <v>-45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>21010012</v>
       </c>
@@ -1547,13 +1586,16 @@
         <v>2910012</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>-45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1577,7 +1619,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:H88">
+  <sortState ref="A4:I88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
     <t>icon_rotate_z</t>
   </si>
   <si>
+    <t>attack_mode_data</t>
+  </si>
+  <si>
     <t>name_cn</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>图标旋转</t>
   </si>
   <si>
+    <t>攻击模式相关数据(VertexRotateAxis,VertexRotateSpeed,UVRotateSpeed)</t>
+  </si>
+  <si>
     <t>名字中文</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
     <t>Skeleton_Atlas_Weapon_Weapon_L_1</t>
   </si>
   <si>
+    <t>VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1</t>
+  </si>
+  <si>
     <t>骨头</t>
   </si>
   <si>
@@ -176,7 +185,7 @@
     <t>Skeleton_Atlas_Weapon_Weapon_R_3</t>
   </si>
   <si>
-    <t>法杖</t>
+    <t>冰法杖</t>
   </si>
   <si>
     <t>骷髅-武器-冰法杖</t>
@@ -1174,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1186,12 +1195,14 @@
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="6" width="36" customWidth="1"/>
-    <col min="7" max="8" width="8.375" customWidth="1"/>
-    <col min="9" max="9" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="63.375" customWidth="1"/>
+    <col min="8" max="9" width="8.375" customWidth="1"/>
+    <col min="10" max="10" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1219,66 +1230,75 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>20100001</v>
       </c>
@@ -1292,16 +1312,16 @@
         <v>2500001</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
         <v>24</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>20200001</v>
       </c>
@@ -1315,16 +1335,16 @@
         <v>2510001</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>20200002</v>
       </c>
@@ -1338,16 +1358,16 @@
         <v>2510002</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
         <v>30</v>
       </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>20200003</v>
       </c>
@@ -1360,14 +1380,14 @@
       <c r="D7">
         <v>2510003</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>20300001</v>
       </c>
@@ -1381,16 +1401,16 @@
         <v>2520001</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
         <v>35</v>
       </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>21000001</v>
       </c>
@@ -1404,19 +1424,22 @@
         <v>2900001</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>21000002</v>
       </c>
@@ -1430,19 +1453,22 @@
         <v>2900002</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>21010001</v>
       </c>
@@ -1456,19 +1482,19 @@
         <v>2910001</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>-45</v>
       </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>21010002</v>
       </c>
@@ -1482,19 +1508,19 @@
         <v>2910002</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>-45</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>21010003</v>
       </c>
@@ -1508,19 +1534,19 @@
         <v>2910003</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>-45</v>
       </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>21010004</v>
       </c>
@@ -1534,19 +1560,19 @@
         <v>2910004</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>-45</v>
       </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>21010011</v>
       </c>
@@ -1560,19 +1586,19 @@
         <v>2910011</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>-45</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>21010012</v>
       </c>
@@ -1586,16 +1612,16 @@
         <v>2910012</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <v>-45</v>
       </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" t="s">
-        <v>59</v>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1619,7 +1645,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:I88">
+  <sortState ref="A4:J88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -89,7 +89,7 @@
     <t>图标旋转</t>
   </si>
   <si>
-    <t>攻击模式相关数据(VertexRotateAxis,VertexRotateSpeed,UVRotateSpeed)</t>
+    <t>攻击模式相关数据(ShowSprite,VertexRotateAxis,VertexRotateSpeed,UVRotateSpeed,StartPosition)</t>
   </si>
   <si>
     <t>名字中文</t>
@@ -146,7 +146,7 @@
     <t>Skeleton_Atlas_Weapon_Weapon_L_1</t>
   </si>
   <si>
-    <t>VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1</t>
+    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_1&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1&amp;StartPosition:0,0.7,0</t>
   </si>
   <si>
     <t>骨头</t>
@@ -158,12 +158,42 @@
     <t>Skeleton_Atlas_Weapon_Weapon_L_2</t>
   </si>
   <si>
+    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_2&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1&amp;StartPosition:0,0.7,0</t>
+  </si>
+  <si>
     <t>鸡腿</t>
   </si>
   <si>
     <t>骷髅-武器-鸡腿</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_3</t>
+  </si>
+  <si>
+    <t>知识之书</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_4</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_5</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_6</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_7</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_8</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_9</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_10</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_1</t>
   </si>
   <si>
@@ -174,6 +204,9 @@
   </si>
   <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_2</t>
+  </si>
+  <si>
+    <t>StartPosition:0,0.7,0</t>
   </si>
   <si>
     <t>火法杖</t>
@@ -1183,21 +1216,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D10" sqref="D10:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.625" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="63.375" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="9" width="8.375" customWidth="1"/>
     <col min="10" max="10" width="42.875" customWidth="1"/>
   </cols>
@@ -1459,18 +1492,18 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>21010001</v>
+        <v>21000003</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1479,24 +1512,18 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2910001</v>
+        <v>2900003</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <v>-45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>21010002</v>
+        <v>21000004</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1505,24 +1532,15 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2910002</v>
+        <v>2900004</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12">
-        <v>-45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>21010003</v>
+        <v>21000005</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1531,24 +1549,15 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2910003</v>
+        <v>2900005</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13">
-        <v>-45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>21010004</v>
+        <v>21000006</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1557,24 +1566,15 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2910004</v>
+        <v>2900006</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14">
-        <v>-45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>21010011</v>
+        <v>21000007</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1583,24 +1583,15 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2910011</v>
+        <v>2900007</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15">
-        <v>-45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>21010012</v>
+        <v>21000008</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1609,41 +1600,234 @@
         <v>1</v>
       </c>
       <c r="D16">
+        <v>2900008</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>21000009</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2900009</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>21000010</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2900010</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>21010001</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2910001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>-45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>21010002</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2910002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20">
+        <v>-45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>21010003</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2910003</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <v>-45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21010004</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2910004</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22">
+        <v>-45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>21010011</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2910011</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23">
+        <v>-45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>21010012</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>2910012</v>
       </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16">
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24">
         <v>-45</v>
       </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1"/>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1"/>
-    <row r="37" ht="15" customHeight="1"/>
-    <row r="38" ht="15" customHeight="1"/>
-    <row r="39" ht="15" customHeight="1"/>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="40" ht="15" customHeight="1"/>
     <row r="41" ht="15" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1"/>
+    <row r="48" ht="15" customHeight="1"/>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
+    <row r="83" ht="12" customHeight="1"/>
+    <row r="84" ht="12" customHeight="1"/>
+    <row r="85" ht="12" customHeight="1"/>
+    <row r="86" ht="12" customHeight="1"/>
+    <row r="87" ht="12" customHeight="1"/>
+    <row r="88" ht="12" customHeight="1"/>
+    <row r="89" ht="12" customHeight="1"/>
+    <row r="90" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:J88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -110,6 +110,42 @@
     <t>骷髅-帽子-皇冠</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Hat_Hat_2</t>
+  </si>
+  <si>
+    <t>铁制头盔</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>异域头巾</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_4</t>
+  </si>
+  <si>
+    <t>魔力帽</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_5</t>
+  </si>
+  <si>
+    <t>草帽</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_6</t>
+  </si>
+  <si>
+    <t>恶魔头颅</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_7</t>
+  </si>
+  <si>
+    <t>魔王之角</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Clothes_Clothes_1</t>
   </si>
   <si>
@@ -128,12 +164,63 @@
     <t>骷髅-衣服-肩甲2</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_3</t>
+  </si>
+  <si>
     <t>破烂肩甲</t>
   </si>
   <si>
     <t>骷髅-衣服-破烂的肩甲</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_4</t>
+  </si>
+  <si>
+    <t>丝绸披肩</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_5</t>
+  </si>
+  <si>
+    <t>魔法披肩</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_6</t>
+  </si>
+  <si>
+    <t>麻布衣</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_7</t>
+  </si>
+  <si>
+    <t>蔚蓝铠甲</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_8</t>
+  </si>
+  <si>
+    <t>破烂法衣</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_9</t>
+  </si>
+  <si>
+    <t>琥珀铠甲</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_10</t>
+  </si>
+  <si>
+    <t>远古铠甲</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_11</t>
+  </si>
+  <si>
+    <t>深红战衣</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Pants_Pants_1</t>
   </si>
   <si>
@@ -143,6 +230,30 @@
     <t>骷髅-裤子-破烂的腰带</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>蔚蓝腰带</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Pants_Pants_3</t>
+  </si>
+  <si>
+    <t>破烂法裤</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Pants_Pants_4</t>
+  </si>
+  <si>
+    <t>琥珀腰带</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Pants_Pants_5</t>
+  </si>
+  <si>
+    <t>深红腰带</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_L_1</t>
   </si>
   <si>
@@ -170,30 +281,75 @@
     <t>Skeleton_Atlas_Weapon_Weapon_L_3</t>
   </si>
   <si>
-    <t>知识之书</t>
+    <t>无用之书</t>
+  </si>
+  <si>
+    <t>骷髅-武器-无用之书</t>
   </si>
   <si>
     <t>Skeleton_Atlas_Weapon_Weapon_L_4</t>
   </si>
   <si>
+    <t>木制圆盾</t>
+  </si>
+  <si>
+    <t>骷髅-武器-木制圆盾</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_L_5</t>
   </si>
   <si>
+    <t>飞镖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-飞镖</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_L_6</t>
   </si>
   <si>
+    <t>骷髅头</t>
+  </si>
+  <si>
+    <t>骷髅-武器-骷髅头</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_L_7</t>
   </si>
   <si>
+    <t>欧里给</t>
+  </si>
+  <si>
+    <t>骷髅-武器-欧里给</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_L_8</t>
   </si>
   <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>骷髅-武器-苹果</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_L_9</t>
   </si>
   <si>
+    <t>28年拉菲</t>
+  </si>
+  <si>
+    <t>骷髅-武器-28年拉菲</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_L_10</t>
   </si>
   <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>骷髅-武器-金币</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_1</t>
   </si>
   <si>
@@ -227,16 +383,70 @@
     <t>Skeleton_Atlas_Weapon_Weapon_R_4</t>
   </si>
   <si>
-    <t>破剑</t>
+    <t>残破剑</t>
   </si>
   <si>
     <t>骷髅-武器-残破剑</t>
   </si>
   <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_5</t>
+  </si>
+  <si>
+    <t>波斯短刀</t>
+  </si>
+  <si>
+    <t>骷髅-武器-波斯短刀</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_6</t>
+  </si>
+  <si>
+    <t>骷髅剑</t>
+  </si>
+  <si>
+    <t>骷髅-武器-骷髅剑</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_7</t>
+  </si>
+  <si>
+    <t>金色刺剑</t>
+  </si>
+  <si>
+    <t>骷髅-武器-金色刺剑</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_8</t>
+  </si>
+  <si>
+    <t>铲子</t>
+  </si>
+  <si>
+    <t>骷髅-武器-铲子</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_9</t>
+  </si>
+  <si>
+    <t>冰之哀伤</t>
+  </si>
+  <si>
+    <t>骷髅-武器-冰之哀伤</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_10</t>
+  </si>
+  <si>
+    <t>火之高兴</t>
+  </si>
+  <si>
+    <t>骷髅-武器-火之高兴</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_11</t>
   </si>
   <si>
-    <t>宝石法杖</t>
+    <t>绿宝石法杖</t>
   </si>
   <si>
     <t>骷髅-武器-绿宝石法杖</t>
@@ -249,6 +459,78 @@
   </si>
   <si>
     <t>骷髅-武器-魔力法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_13</t>
+  </si>
+  <si>
+    <t>扫帚</t>
+  </si>
+  <si>
+    <t>骷髅-武器-扫帚</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_14</t>
+  </si>
+  <si>
+    <t>星之法杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-星之法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_15</t>
+  </si>
+  <si>
+    <t>百变法杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-百变法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_16</t>
+  </si>
+  <si>
+    <t>琥珀法杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-琥珀法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_17</t>
+  </si>
+  <si>
+    <t>爱之天使</t>
+  </si>
+  <si>
+    <t>骷髅-武器-爱之天使</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_18</t>
+  </si>
+  <si>
+    <t>星域之杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-星域之杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_19</t>
+  </si>
+  <si>
+    <t>结晶法杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-结晶法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_20</t>
+  </si>
+  <si>
+    <t>黑暗法杖</t>
+  </si>
+  <si>
+    <t>骷髅-武器-黑暗法杖</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1498,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1230,8 +1512,9 @@
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="9" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="48.375" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
     <col min="10" max="10" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1354,18 +1637,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>20200001</v>
+        <v>20100002</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2510001</v>
+        <v>2500002</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1373,461 +1656,1155 @@
       <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>20100003</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2500003</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>20100004</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2500004</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>20100005</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2500005</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>20100006</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2500006</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>20100007</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2500007</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>20200001</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2510001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
         <v>20200002</v>
       </c>
-      <c r="B6">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>2510002</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:10">
+      <c r="A13">
         <v>20200003</v>
       </c>
-      <c r="B7">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>2510003</v>
       </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>20300001</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2520001</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>21000001</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2900001</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>21000002</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2900002</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>21000003</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2900003</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>21000004</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2900004</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2510004</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>21000005</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2900005</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="H14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>21000006</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2900006</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2510005</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>21000007</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2900007</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>21000008</v>
-      </c>
+    <row r="16" spans="2:8">
       <c r="B16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>2900008</v>
+        <v>2510006</v>
       </c>
       <c r="E16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>21000009</v>
-      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>2900009</v>
+        <v>2510007</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>21000010</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2900010</v>
+        <v>2510008</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>21010001</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2910001</v>
+        <v>2510009</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>-45</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>21010002</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2910002</v>
+        <v>2510010</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20">
-        <v>-45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>21010003</v>
-      </c>
+    <row r="21" spans="2:8">
       <c r="B21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2910003</v>
+        <v>2510011</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="F21">
-        <v>-45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
       <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="J21" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
+        <v>20300001</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2520001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2520002</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2520003</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2520004</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2520005</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>21000001</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2900001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>21000002</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2900002</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>21000003</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2900003</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>21000004</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2900004</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>21000005</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2900005</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>21000006</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2900006</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>21000007</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2900007</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>21000008</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2900008</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>21000009</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2900009</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>21000010</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2900010</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>21010001</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2910001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37">
+        <v>-45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>21010002</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2910002</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38">
+        <v>-45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>21010003</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2910003</v>
+      </c>
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39">
+        <v>-45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
         <v>21010004</v>
       </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>2910004</v>
       </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22">
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40">
         <v>-45</v>
       </c>
-      <c r="H22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
+      <c r="H40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>21010005</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2910005</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>21010006</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2910006</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>21010007</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>2910007</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>21010008</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>2910008</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>21010009</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2910009</v>
+      </c>
+      <c r="E45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>21010010</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2910010</v>
+      </c>
+      <c r="E46" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" t="s">
+        <v>136</v>
+      </c>
+      <c r="J46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
         <v>21010011</v>
       </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
         <v>2910011</v>
       </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23">
+      <c r="E47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47">
         <v>-45</v>
       </c>
-      <c r="G23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
+      <c r="G47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
         <v>21010012</v>
       </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
         <v>2910012</v>
       </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24">
+      <c r="E48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48">
         <v>-45</v>
       </c>
-      <c r="G24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="41" ht="15" customHeight="1"/>
-    <row r="42" ht="15" customHeight="1"/>
-    <row r="43" ht="15" customHeight="1"/>
-    <row r="44" ht="15" customHeight="1"/>
-    <row r="45" ht="15" customHeight="1"/>
-    <row r="46" ht="15" customHeight="1"/>
-    <row r="47" ht="15" customHeight="1"/>
-    <row r="48" ht="15" customHeight="1"/>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="82" ht="12" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
-    <row r="84" ht="12" customHeight="1"/>
-    <row r="85" ht="12" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="12" customHeight="1"/>
-    <row r="88" ht="12" customHeight="1"/>
-    <row r="89" ht="12" customHeight="1"/>
-    <row r="90" ht="12" customHeight="1"/>
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>142</v>
+      </c>
+      <c r="J48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>21010013</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2910013</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
+      <c r="J49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>21010014</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>2910014</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" t="s">
+        <v>148</v>
+      </c>
+      <c r="J50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>21010015</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2910015</v>
+      </c>
+      <c r="E51" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>21010016</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2910016</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>21010017</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2910017</v>
+      </c>
+      <c r="E53" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>21010018</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2910018</v>
+      </c>
+      <c r="E54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" t="s">
+        <v>160</v>
+      </c>
+      <c r="J54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>21010019</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>2910019</v>
+      </c>
+      <c r="E55" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" t="s">
+        <v>163</v>
+      </c>
+      <c r="J55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>21010020</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2910020</v>
+      </c>
+      <c r="E56" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" t="s">
+        <v>166</v>
+      </c>
+      <c r="J56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="71" ht="15" customHeight="1"/>
+    <row r="72" ht="15" customHeight="1"/>
+    <row r="73" ht="15" customHeight="1"/>
+    <row r="74" ht="15" customHeight="1"/>
+    <row r="106" ht="12" customHeight="1"/>
+    <row r="107" ht="12" customHeight="1"/>
+    <row r="108" ht="12" customHeight="1"/>
+    <row r="109" ht="12" customHeight="1"/>
+    <row r="110" ht="12" customHeight="1"/>
+    <row r="111" ht="12" customHeight="1"/>
+    <row r="112" ht="12" customHeight="1"/>
+    <row r="113" ht="12" customHeight="1"/>
+    <row r="114" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:J88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -1500,8 +1500,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1826,7 +1826,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>20200004</v>
+      </c>
       <c r="B14">
         <v>2</v>
       </c>
@@ -1843,7 +1846,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>20200005</v>
+      </c>
       <c r="B15">
         <v>2</v>
       </c>
@@ -1860,7 +1866,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>20200006</v>
+      </c>
       <c r="B16">
         <v>2</v>
       </c>
@@ -1877,7 +1886,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>20200007</v>
+      </c>
       <c r="B17">
         <v>2</v>
       </c>
@@ -1894,7 +1906,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>20200008</v>
+      </c>
       <c r="B18">
         <v>2</v>
       </c>
@@ -1911,7 +1926,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>20200009</v>
+      </c>
       <c r="B19">
         <v>2</v>
       </c>
@@ -1928,7 +1946,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>20200010</v>
+      </c>
       <c r="B20">
         <v>2</v>
       </c>
@@ -1945,7 +1966,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20200011</v>
+      </c>
       <c r="B21">
         <v>2</v>
       </c>
@@ -1985,7 +2009,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>20300002</v>
+      </c>
       <c r="B23">
         <v>3</v>
       </c>
@@ -2002,7 +2029,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>20300003</v>
+      </c>
       <c r="B24">
         <v>3</v>
       </c>
@@ -2019,7 +2049,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>20300004</v>
+      </c>
       <c r="B25">
         <v>3</v>
       </c>
@@ -2036,7 +2069,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>20300005</v>
+      </c>
       <c r="B26">
         <v>3</v>
       </c>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="244">
   <si>
     <t>id</t>
   </si>
@@ -116,36 +116,54 @@
     <t>铁制头盔</t>
   </si>
   <si>
+    <t>骷髅-帽子-铁制头盔</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Hat_Hat_3</t>
   </si>
   <si>
     <t>异域头巾</t>
   </si>
   <si>
+    <t>骷髅-帽子-异域头巾</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Hat_Hat_4</t>
   </si>
   <si>
     <t>魔力帽</t>
   </si>
   <si>
+    <t>骷髅-帽子-魔力帽</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Hat_Hat_5</t>
   </si>
   <si>
     <t>草帽</t>
   </si>
   <si>
+    <t>骷髅-帽子-草帽</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Hat_Hat_6</t>
   </si>
   <si>
     <t>恶魔头颅</t>
   </si>
   <si>
+    <t>骷髅-帽子-恶魔头颅</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Hat_Hat_7</t>
   </si>
   <si>
     <t>魔王之角</t>
   </si>
   <si>
+    <t>骷髅-帽子-魔王之角</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Clothes_Clothes_1</t>
   </si>
   <si>
@@ -179,55 +197,79 @@
     <t>丝绸披肩</t>
   </si>
   <si>
+    <t>骷髅-衣服-丝绸披肩</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Clothes_Clothes_5</t>
   </si>
   <si>
     <t>魔法披肩</t>
   </si>
   <si>
+    <t>骷髅-衣服-魔法披肩</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Clothes_Clothes_6</t>
   </si>
   <si>
     <t>麻布衣</t>
   </si>
   <si>
+    <t>骷髅-衣服-麻布衣</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Clothes_Clothes_7</t>
   </si>
   <si>
     <t>蔚蓝铠甲</t>
   </si>
   <si>
+    <t>骷髅-衣服-蔚蓝铠甲</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Clothes_Clothes_8</t>
   </si>
   <si>
     <t>破烂法衣</t>
   </si>
   <si>
+    <t>骷髅-衣服-破烂法衣</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Clothes_Clothes_9</t>
   </si>
   <si>
     <t>琥珀铠甲</t>
   </si>
   <si>
+    <t>骷髅-衣服-琥珀铠甲</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Clothes_Clothes_10</t>
   </si>
   <si>
     <t>远古铠甲</t>
   </si>
   <si>
+    <t>骷髅-衣服-远古铠甲</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Clothes_Clothes_11</t>
   </si>
   <si>
     <t>深红战衣</t>
   </si>
   <si>
+    <t>骷髅-衣服-深红战衣</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Pants_Pants_1</t>
   </si>
   <si>
     <t>破烂腰带</t>
   </si>
   <si>
-    <t>骷髅-裤子-破烂的腰带</t>
+    <t>骷髅-衣服-破烂腰带</t>
   </si>
   <si>
     <t>Skeleton_Atlas_Pants_Pants_2</t>
@@ -236,24 +278,36 @@
     <t>蔚蓝腰带</t>
   </si>
   <si>
+    <t>骷髅-衣服-蔚蓝腰带</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Pants_Pants_3</t>
   </si>
   <si>
     <t>破烂法裤</t>
   </si>
   <si>
+    <t>骷髅-衣服-破烂法裤</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Pants_Pants_4</t>
   </si>
   <si>
     <t>琥珀腰带</t>
   </si>
   <si>
+    <t>骷髅-衣服-琥珀腰带</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Pants_Pants_5</t>
   </si>
   <si>
     <t>深红腰带</t>
   </si>
   <si>
+    <t>骷髅-衣服-深红腰带</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Weapon_Weapon_L_1</t>
   </si>
   <si>
@@ -531,6 +585,180 @@
   </si>
   <si>
     <t>骷髅-武器-黑暗法杖</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
+    <t>魔法帽</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-1</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_2</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-2</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>毛茸茸</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-3</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_4</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-4</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_5</t>
+  </si>
+  <si>
+    <t>海盗帽</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-5</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_6</t>
+  </si>
+  <si>
+    <t>蘑菇帽</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-6</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_7</t>
+  </si>
+  <si>
+    <t>残破的剑</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-7</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_8</t>
+  </si>
+  <si>
+    <t>幽灵帽</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-8</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_9</t>
+  </si>
+  <si>
+    <t>黄毛</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-9</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_10</t>
+  </si>
+  <si>
+    <t>飞翔头盔</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-10</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_11</t>
+  </si>
+  <si>
+    <t>墨镜</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-11</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_12</t>
+  </si>
+  <si>
+    <t>杀人面具</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-12</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_13</t>
+  </si>
+  <si>
+    <t>厨师帽</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-13</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_14</t>
+  </si>
+  <si>
+    <t>小花</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-14</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_15</t>
+  </si>
+  <si>
+    <t>兔耳朵</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-15</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_16</t>
+  </si>
+  <si>
+    <t>药罐</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-16</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_17</t>
+  </si>
+  <si>
+    <t>魔眼</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-17</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_18</t>
+  </si>
+  <si>
+    <t>心脏</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-18</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_19</t>
+  </si>
+  <si>
+    <t>大脑</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-19</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_20</t>
+  </si>
+  <si>
+    <t>头骨</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-20</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1728,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:H56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1511,8 +1739,8 @@
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="31.75" customWidth="1"/>
+    <col min="7" max="7" width="41.75" customWidth="1"/>
     <col min="8" max="8" width="48.375" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
     <col min="10" max="10" width="42.875" customWidth="1"/>
@@ -1637,7 +1865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>20100002</v>
       </c>
@@ -1656,8 +1884,11 @@
       <c r="H5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>20100003</v>
       </c>
@@ -1671,13 +1902,16 @@
         <v>2500003</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>20100004</v>
       </c>
@@ -1691,13 +1925,16 @@
         <v>2500004</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>20100005</v>
       </c>
@@ -1711,13 +1948,16 @@
         <v>2500005</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>20100006</v>
       </c>
@@ -1731,13 +1971,16 @@
         <v>2500006</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>20100007</v>
       </c>
@@ -1751,10 +1994,13 @@
         <v>2500007</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1771,13 +2017,13 @@
         <v>2510001</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1794,13 +2040,13 @@
         <v>2510002</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:10">
@@ -1817,16 +2063,16 @@
         <v>2510003</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>20200004</v>
       </c>
@@ -1840,13 +2086,16 @@
         <v>2510004</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>20200005</v>
       </c>
@@ -1860,13 +2109,16 @@
         <v>2510005</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>20200006</v>
       </c>
@@ -1880,13 +2132,16 @@
         <v>2510006</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>20200007</v>
       </c>
@@ -1900,13 +2155,16 @@
         <v>2510007</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>20200008</v>
       </c>
@@ -1920,13 +2178,16 @@
         <v>2510008</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>20200009</v>
       </c>
@@ -1940,13 +2201,16 @@
         <v>2510009</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>20200010</v>
       </c>
@@ -1960,13 +2224,16 @@
         <v>2510010</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20200011</v>
       </c>
@@ -1980,10 +2247,13 @@
         <v>2510011</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2000,16 +2270,16 @@
         <v>2520001</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>20300002</v>
       </c>
@@ -2023,13 +2293,16 @@
         <v>2520002</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="J23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>20300003</v>
       </c>
@@ -2043,13 +2316,16 @@
         <v>2520003</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>20300004</v>
       </c>
@@ -2063,13 +2339,16 @@
         <v>2520004</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="J25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>20300005</v>
       </c>
@@ -2083,13 +2362,16 @@
         <v>2520005</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" ht="12" customHeight="1" spans="1:10">
       <c r="A27">
         <v>21000001</v>
       </c>
@@ -2103,19 +2385,19 @@
         <v>2900001</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F27">
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2132,19 +2414,19 @@
         <v>2900002</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F28">
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2161,13 +2443,13 @@
         <v>2900003</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2184,13 +2466,13 @@
         <v>2900004</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2207,13 +2489,13 @@
         <v>2900005</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2230,13 +2512,13 @@
         <v>2900006</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2253,13 +2535,13 @@
         <v>2900007</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2276,13 +2558,13 @@
         <v>2900008</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2299,13 +2581,13 @@
         <v>2900009</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2322,13 +2604,13 @@
         <v>2900010</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="J36" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2345,16 +2627,16 @@
         <v>2910001</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F37">
         <v>-45</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="J37" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2371,19 +2653,19 @@
         <v>2910002</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F38">
         <v>-45</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2400,19 +2682,19 @@
         <v>2910003</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F39">
         <v>-45</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="H39" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2429,16 +2711,16 @@
         <v>2910004</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F40">
         <v>-45</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J40" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2455,13 +2737,13 @@
         <v>2910005</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2478,13 +2760,13 @@
         <v>2910006</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="J42" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2501,13 +2783,13 @@
         <v>2910007</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="H43" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="J43" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2524,13 +2806,13 @@
         <v>2910008</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="H44" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="J44" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2547,13 +2829,13 @@
         <v>2910009</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="J45" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2570,13 +2852,13 @@
         <v>2910010</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H46" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="J46" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2593,19 +2875,19 @@
         <v>2910011</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F47">
         <v>-45</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="H47" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="J47" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2622,19 +2904,19 @@
         <v>2910012</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F48">
         <v>-45</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="H48" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="J48" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2651,13 +2933,13 @@
         <v>2910013</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H49" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2674,13 +2956,13 @@
         <v>2910014</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J50" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2697,13 +2979,13 @@
         <v>2910015</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="H51" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2720,13 +3002,13 @@
         <v>2910016</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J52" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2743,13 +3025,13 @@
         <v>2910017</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="H53" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J53" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2766,13 +3048,13 @@
         <v>2910018</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="H54" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J54" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2789,13 +3071,13 @@
         <v>2910019</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J55" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2812,26 +3094,475 @@
         <v>2910020</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="H56" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
-    <row r="69" ht="15" customHeight="1"/>
-    <row r="70" ht="15" customHeight="1"/>
-    <row r="71" ht="15" customHeight="1"/>
-    <row r="72" ht="15" customHeight="1"/>
-    <row r="73" ht="15" customHeight="1"/>
-    <row r="74" ht="15" customHeight="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>30100001</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>3020001</v>
+      </c>
+      <c r="E57" t="s">
+        <v>186</v>
+      </c>
+      <c r="H57" t="s">
+        <v>187</v>
+      </c>
+      <c r="J57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>30100002</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3020002</v>
+      </c>
+      <c r="E58" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>30100003</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3020003</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+      <c r="H59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>30100004</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>3020004</v>
+      </c>
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>30100005</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>3020005</v>
+      </c>
+      <c r="E61" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" t="s">
+        <v>197</v>
+      </c>
+      <c r="J61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>30100006</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>3020006</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" t="s">
+        <v>200</v>
+      </c>
+      <c r="J62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>30100007</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>3020007</v>
+      </c>
+      <c r="E63" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" t="s">
+        <v>203</v>
+      </c>
+      <c r="J63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1" spans="1:10">
+      <c r="A64">
+        <v>30100008</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>3020008</v>
+      </c>
+      <c r="E64" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" t="s">
+        <v>206</v>
+      </c>
+      <c r="J64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1" spans="1:10">
+      <c r="A65">
+        <v>30100009</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>3020009</v>
+      </c>
+      <c r="E65" t="s">
+        <v>208</v>
+      </c>
+      <c r="H65" t="s">
+        <v>209</v>
+      </c>
+      <c r="J65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="1:10">
+      <c r="A66">
+        <v>30100010</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>3020010</v>
+      </c>
+      <c r="E66" t="s">
+        <v>211</v>
+      </c>
+      <c r="H66" t="s">
+        <v>212</v>
+      </c>
+      <c r="J66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" spans="1:10">
+      <c r="A67">
+        <v>30100011</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3020011</v>
+      </c>
+      <c r="E67" t="s">
+        <v>214</v>
+      </c>
+      <c r="H67" t="s">
+        <v>215</v>
+      </c>
+      <c r="J67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1" spans="1:10">
+      <c r="A68">
+        <v>30100012</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3020012</v>
+      </c>
+      <c r="E68" t="s">
+        <v>217</v>
+      </c>
+      <c r="H68" t="s">
+        <v>218</v>
+      </c>
+      <c r="J68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1" spans="1:10">
+      <c r="A69">
+        <v>30100013</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3020013</v>
+      </c>
+      <c r="E69" t="s">
+        <v>220</v>
+      </c>
+      <c r="H69" t="s">
+        <v>221</v>
+      </c>
+      <c r="J69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1" spans="1:10">
+      <c r="A70">
+        <v>30100014</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3020014</v>
+      </c>
+      <c r="E70" t="s">
+        <v>223</v>
+      </c>
+      <c r="H70" t="s">
+        <v>224</v>
+      </c>
+      <c r="J70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" spans="1:10">
+      <c r="A71">
+        <v>30100015</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>3020015</v>
+      </c>
+      <c r="E71" t="s">
+        <v>226</v>
+      </c>
+      <c r="H71" t="s">
+        <v>227</v>
+      </c>
+      <c r="J71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" spans="1:10">
+      <c r="A72">
+        <v>30100016</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>3020016</v>
+      </c>
+      <c r="E72" t="s">
+        <v>229</v>
+      </c>
+      <c r="H72" t="s">
+        <v>230</v>
+      </c>
+      <c r="J72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1" spans="1:10">
+      <c r="A73">
+        <v>30100017</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3020017</v>
+      </c>
+      <c r="E73" t="s">
+        <v>232</v>
+      </c>
+      <c r="H73" t="s">
+        <v>233</v>
+      </c>
+      <c r="J73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" spans="1:10">
+      <c r="A74">
+        <v>30100018</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>3020018</v>
+      </c>
+      <c r="E74" t="s">
+        <v>235</v>
+      </c>
+      <c r="H74" t="s">
+        <v>236</v>
+      </c>
+      <c r="J74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>30100019</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>3020019</v>
+      </c>
+      <c r="E75" t="s">
+        <v>238</v>
+      </c>
+      <c r="H75" t="s">
+        <v>239</v>
+      </c>
+      <c r="J75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>30100020</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>3020020</v>
+      </c>
+      <c r="E76" t="s">
+        <v>241</v>
+      </c>
+      <c r="H76" t="s">
+        <v>242</v>
+      </c>
+      <c r="J76" t="s">
+        <v>243</v>
+      </c>
+    </row>
     <row r="106" ht="12" customHeight="1"/>
     <row r="107" ht="12" customHeight="1"/>
     <row r="108" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="21300" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="277">
   <si>
     <t>id</t>
   </si>
@@ -759,6 +759,105 @@
   </si>
   <si>
     <t>史莱姆-帽子-20</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>修女帽</t>
+  </si>
+  <si>
+    <t>魅魔-帽子-3</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
+    <t>粉色胸罩</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
+    <t>红色胸罩</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_3</t>
+  </si>
+  <si>
+    <t>修女服</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_4</t>
+  </si>
+  <si>
+    <t>魔女连体衣</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_5</t>
+  </si>
+  <si>
+    <t>丝带</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_6</t>
+  </si>
+  <si>
+    <t>白色丝带</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
+    <t>粉色丝袜裤</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>红色内裤</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Pants_Pants_3</t>
+  </si>
+  <si>
+    <t>修女裤</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Pants_Pants_4</t>
+  </si>
+  <si>
+    <t>魔女连体裤</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_1</t>
+  </si>
+  <si>
+    <t>魔力镰刀</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_2</t>
+  </si>
+  <si>
+    <t>木制镰刀</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_3</t>
+  </si>
+  <si>
+    <t>鹦鹉镰刀</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_4</t>
+  </si>
+  <si>
+    <t>金制镰刀</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_5</t>
+  </si>
+  <si>
+    <t>剧毒镰刀</t>
   </si>
 </sst>
 </file>
@@ -1728,8 +1827,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="E64" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3563,6 +3662,329 @@
         <v>243</v>
       </c>
     </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>40100001</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>4500003</v>
+      </c>
+      <c r="E77" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" t="s">
+        <v>245</v>
+      </c>
+      <c r="J77" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>40200001</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>4510001</v>
+      </c>
+      <c r="E78" t="s">
+        <v>247</v>
+      </c>
+      <c r="H78" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>40200002</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>4510002</v>
+      </c>
+      <c r="E79" t="s">
+        <v>249</v>
+      </c>
+      <c r="H79" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>40200003</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>4510003</v>
+      </c>
+      <c r="E80" t="s">
+        <v>251</v>
+      </c>
+      <c r="H80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>40200004</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4510004</v>
+      </c>
+      <c r="E81" t="s">
+        <v>253</v>
+      </c>
+      <c r="H81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>40200005</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>4510005</v>
+      </c>
+      <c r="E82" t="s">
+        <v>255</v>
+      </c>
+      <c r="H82" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>40200006</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>4510006</v>
+      </c>
+      <c r="E83" t="s">
+        <v>257</v>
+      </c>
+      <c r="H83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>40300001</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>4520001</v>
+      </c>
+      <c r="E84" t="s">
+        <v>259</v>
+      </c>
+      <c r="H84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>40300002</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>4520002</v>
+      </c>
+      <c r="E85" t="s">
+        <v>261</v>
+      </c>
+      <c r="H85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>40300003</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>4520003</v>
+      </c>
+      <c r="E86" t="s">
+        <v>263</v>
+      </c>
+      <c r="H86" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>40300004</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>4520004</v>
+      </c>
+      <c r="E87" t="s">
+        <v>265</v>
+      </c>
+      <c r="H87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>41000001</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>4900001</v>
+      </c>
+      <c r="E88" t="s">
+        <v>267</v>
+      </c>
+      <c r="H88" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>41000002</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>4900002</v>
+      </c>
+      <c r="E89" t="s">
+        <v>269</v>
+      </c>
+      <c r="H89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>41000003</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>4900003</v>
+      </c>
+      <c r="E90" t="s">
+        <v>271</v>
+      </c>
+      <c r="H90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>41000004</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>4900004</v>
+      </c>
+      <c r="E91" t="s">
+        <v>273</v>
+      </c>
+      <c r="H91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>41000005</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>4900005</v>
+      </c>
+      <c r="E92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H92" t="s">
+        <v>276</v>
+      </c>
+    </row>
     <row r="106" ht="12" customHeight="1"/>
     <row r="107" ht="12" customHeight="1"/>
     <row r="108" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21300" windowHeight="8175"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="276">
   <si>
     <t>id</t>
   </si>
@@ -311,7 +311,7 @@
     <t>Skeleton_Atlas_Weapon_Weapon_L_1</t>
   </si>
   <si>
-    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_1&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1&amp;StartPosition:0,0.7,0</t>
+    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_1&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1</t>
   </si>
   <si>
     <t>骨头</t>
@@ -323,7 +323,7 @@
     <t>Skeleton_Atlas_Weapon_Weapon_L_2</t>
   </si>
   <si>
-    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_2&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1&amp;StartPosition:0,0.7,0</t>
+    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_2&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1</t>
   </si>
   <si>
     <t>鸡腿</t>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_2</t>
-  </si>
-  <si>
-    <t>StartPosition:0,0.7,0</t>
   </si>
   <si>
     <t>火法杖</t>
@@ -1827,8 +1824,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E64" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1839,7 +1836,7 @@
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="31.75" customWidth="1"/>
-    <col min="7" max="7" width="41.75" customWidth="1"/>
+    <col min="7" max="7" width="121.25" customWidth="1"/>
     <col min="8" max="8" width="48.375" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
     <col min="10" max="10" width="42.875" customWidth="1"/>
@@ -2757,14 +2754,12 @@
       <c r="F38">
         <v>-45</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38"/>
+      <c r="H38" t="s">
         <v>129</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>130</v>
-      </c>
-      <c r="J38" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2781,19 +2776,17 @@
         <v>2910003</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39">
         <v>-45</v>
       </c>
-      <c r="G39" t="s">
-        <v>129</v>
-      </c>
+      <c r="G39"/>
       <c r="H39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" t="s">
         <v>133</v>
-      </c>
-      <c r="J39" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2810,16 +2803,16 @@
         <v>2910004</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F40">
         <v>-45</v>
       </c>
       <c r="H40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" t="s">
         <v>136</v>
-      </c>
-      <c r="J40" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2836,13 +2829,13 @@
         <v>2910005</v>
       </c>
       <c r="E41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" t="s">
         <v>138</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>139</v>
-      </c>
-      <c r="J41" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2859,13 +2852,13 @@
         <v>2910006</v>
       </c>
       <c r="E42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" t="s">
         <v>141</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>142</v>
-      </c>
-      <c r="J42" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2882,13 +2875,13 @@
         <v>2910007</v>
       </c>
       <c r="E43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" t="s">
         <v>144</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>145</v>
-      </c>
-      <c r="J43" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2905,13 +2898,13 @@
         <v>2910008</v>
       </c>
       <c r="E44" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" t="s">
         <v>147</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>148</v>
-      </c>
-      <c r="J44" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2928,13 +2921,13 @@
         <v>2910009</v>
       </c>
       <c r="E45" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" t="s">
         <v>150</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>151</v>
-      </c>
-      <c r="J45" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2951,13 +2944,13 @@
         <v>2910010</v>
       </c>
       <c r="E46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" t="s">
         <v>153</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>154</v>
-      </c>
-      <c r="J46" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2974,19 +2967,17 @@
         <v>2910011</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F47">
         <v>-45</v>
       </c>
-      <c r="G47" t="s">
-        <v>129</v>
-      </c>
+      <c r="G47"/>
       <c r="H47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J47" t="s">
         <v>157</v>
-      </c>
-      <c r="J47" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3003,19 +2994,17 @@
         <v>2910012</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F48">
         <v>-45</v>
       </c>
-      <c r="G48" t="s">
-        <v>129</v>
-      </c>
+      <c r="G48"/>
       <c r="H48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J48" t="s">
         <v>160</v>
-      </c>
-      <c r="J48" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3032,13 +3021,13 @@
         <v>2910013</v>
       </c>
       <c r="E49" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" t="s">
         <v>162</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>163</v>
-      </c>
-      <c r="J49" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3055,13 +3044,13 @@
         <v>2910014</v>
       </c>
       <c r="E50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H50" t="s">
         <v>165</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>166</v>
-      </c>
-      <c r="J50" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3078,13 +3067,13 @@
         <v>2910015</v>
       </c>
       <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" t="s">
         <v>168</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>169</v>
-      </c>
-      <c r="J51" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3101,13 +3090,13 @@
         <v>2910016</v>
       </c>
       <c r="E52" t="s">
+        <v>170</v>
+      </c>
+      <c r="H52" t="s">
         <v>171</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>172</v>
-      </c>
-      <c r="J52" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3124,13 +3113,13 @@
         <v>2910017</v>
       </c>
       <c r="E53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" t="s">
         <v>174</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>175</v>
-      </c>
-      <c r="J53" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3147,13 +3136,13 @@
         <v>2910018</v>
       </c>
       <c r="E54" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" t="s">
         <v>177</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>178</v>
-      </c>
-      <c r="J54" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3170,13 +3159,13 @@
         <v>2910019</v>
       </c>
       <c r="E55" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" t="s">
         <v>180</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
         <v>181</v>
-      </c>
-      <c r="J55" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3193,13 +3182,13 @@
         <v>2910020</v>
       </c>
       <c r="E56" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" t="s">
         <v>183</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>184</v>
-      </c>
-      <c r="J56" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3216,13 +3205,13 @@
         <v>3020001</v>
       </c>
       <c r="E57" t="s">
+        <v>185</v>
+      </c>
+      <c r="H57" t="s">
         <v>186</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>187</v>
-      </c>
-      <c r="J57" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3239,13 +3228,13 @@
         <v>3020002</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H58" t="s">
         <v>28</v>
       </c>
       <c r="J58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3262,13 +3251,13 @@
         <v>3020003</v>
       </c>
       <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" t="s">
         <v>191</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>192</v>
-      </c>
-      <c r="J59" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3285,13 +3274,13 @@
         <v>3020004</v>
       </c>
       <c r="E60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H60" t="s">
         <v>25</v>
       </c>
       <c r="J60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3308,13 +3297,13 @@
         <v>3020005</v>
       </c>
       <c r="E61" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" t="s">
         <v>196</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>197</v>
-      </c>
-      <c r="J61" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3331,13 +3320,13 @@
         <v>3020006</v>
       </c>
       <c r="E62" t="s">
+        <v>198</v>
+      </c>
+      <c r="H62" t="s">
         <v>199</v>
       </c>
-      <c r="H62" t="s">
+      <c r="J62" t="s">
         <v>200</v>
-      </c>
-      <c r="J62" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3354,13 +3343,13 @@
         <v>3020007</v>
       </c>
       <c r="E63" t="s">
+        <v>201</v>
+      </c>
+      <c r="H63" t="s">
         <v>202</v>
       </c>
-      <c r="H63" t="s">
+      <c r="J63" t="s">
         <v>203</v>
-      </c>
-      <c r="J63" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:10">
@@ -3377,13 +3366,13 @@
         <v>3020008</v>
       </c>
       <c r="E64" t="s">
+        <v>204</v>
+      </c>
+      <c r="H64" t="s">
         <v>205</v>
       </c>
-      <c r="H64" t="s">
+      <c r="J64" t="s">
         <v>206</v>
-      </c>
-      <c r="J64" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:10">
@@ -3400,13 +3389,13 @@
         <v>3020009</v>
       </c>
       <c r="E65" t="s">
+        <v>207</v>
+      </c>
+      <c r="H65" t="s">
         <v>208</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>209</v>
-      </c>
-      <c r="J65" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="1:10">
@@ -3423,13 +3412,13 @@
         <v>3020010</v>
       </c>
       <c r="E66" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" t="s">
         <v>211</v>
       </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>212</v>
-      </c>
-      <c r="J66" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:10">
@@ -3446,13 +3435,13 @@
         <v>3020011</v>
       </c>
       <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67" t="s">
         <v>214</v>
       </c>
-      <c r="H67" t="s">
+      <c r="J67" t="s">
         <v>215</v>
-      </c>
-      <c r="J67" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:10">
@@ -3469,13 +3458,13 @@
         <v>3020012</v>
       </c>
       <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="H68" t="s">
         <v>217</v>
       </c>
-      <c r="H68" t="s">
+      <c r="J68" t="s">
         <v>218</v>
-      </c>
-      <c r="J68" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="1:10">
@@ -3492,13 +3481,13 @@
         <v>3020013</v>
       </c>
       <c r="E69" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69" t="s">
         <v>220</v>
       </c>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>221</v>
-      </c>
-      <c r="J69" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:10">
@@ -3515,13 +3504,13 @@
         <v>3020014</v>
       </c>
       <c r="E70" t="s">
+        <v>222</v>
+      </c>
+      <c r="H70" t="s">
         <v>223</v>
       </c>
-      <c r="H70" t="s">
+      <c r="J70" t="s">
         <v>224</v>
-      </c>
-      <c r="J70" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:10">
@@ -3538,13 +3527,13 @@
         <v>3020015</v>
       </c>
       <c r="E71" t="s">
+        <v>225</v>
+      </c>
+      <c r="H71" t="s">
         <v>226</v>
       </c>
-      <c r="H71" t="s">
+      <c r="J71" t="s">
         <v>227</v>
-      </c>
-      <c r="J71" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="1:10">
@@ -3561,13 +3550,13 @@
         <v>3020016</v>
       </c>
       <c r="E72" t="s">
+        <v>228</v>
+      </c>
+      <c r="H72" t="s">
         <v>229</v>
       </c>
-      <c r="H72" t="s">
+      <c r="J72" t="s">
         <v>230</v>
-      </c>
-      <c r="J72" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:10">
@@ -3584,13 +3573,13 @@
         <v>3020017</v>
       </c>
       <c r="E73" t="s">
+        <v>231</v>
+      </c>
+      <c r="H73" t="s">
         <v>232</v>
       </c>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
         <v>233</v>
-      </c>
-      <c r="J73" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:10">
@@ -3607,13 +3596,13 @@
         <v>3020018</v>
       </c>
       <c r="E74" t="s">
+        <v>234</v>
+      </c>
+      <c r="H74" t="s">
         <v>235</v>
       </c>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
         <v>236</v>
-      </c>
-      <c r="J74" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3630,13 +3619,13 @@
         <v>3020019</v>
       </c>
       <c r="E75" t="s">
+        <v>237</v>
+      </c>
+      <c r="H75" t="s">
         <v>238</v>
       </c>
-      <c r="H75" t="s">
+      <c r="J75" t="s">
         <v>239</v>
-      </c>
-      <c r="J75" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3653,13 +3642,13 @@
         <v>3020020</v>
       </c>
       <c r="E76" t="s">
+        <v>240</v>
+      </c>
+      <c r="H76" t="s">
         <v>241</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J76" t="s">
         <v>242</v>
-      </c>
-      <c r="J76" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3676,13 +3665,13 @@
         <v>4500003</v>
       </c>
       <c r="E77" t="s">
+        <v>243</v>
+      </c>
+      <c r="H77" t="s">
         <v>244</v>
       </c>
-      <c r="H77" t="s">
+      <c r="J77" t="s">
         <v>245</v>
-      </c>
-      <c r="J77" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3699,10 +3688,10 @@
         <v>4510001</v>
       </c>
       <c r="E78" t="s">
+        <v>246</v>
+      </c>
+      <c r="H78" t="s">
         <v>247</v>
-      </c>
-      <c r="H78" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3719,10 +3708,10 @@
         <v>4510002</v>
       </c>
       <c r="E79" t="s">
+        <v>248</v>
+      </c>
+      <c r="H79" t="s">
         <v>249</v>
-      </c>
-      <c r="H79" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3739,10 +3728,10 @@
         <v>4510003</v>
       </c>
       <c r="E80" t="s">
+        <v>250</v>
+      </c>
+      <c r="H80" t="s">
         <v>251</v>
-      </c>
-      <c r="H80" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3759,10 +3748,10 @@
         <v>4510004</v>
       </c>
       <c r="E81" t="s">
+        <v>252</v>
+      </c>
+      <c r="H81" t="s">
         <v>253</v>
-      </c>
-      <c r="H81" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3779,10 +3768,10 @@
         <v>4510005</v>
       </c>
       <c r="E82" t="s">
+        <v>254</v>
+      </c>
+      <c r="H82" t="s">
         <v>255</v>
-      </c>
-      <c r="H82" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3799,10 +3788,10 @@
         <v>4510006</v>
       </c>
       <c r="E83" t="s">
+        <v>256</v>
+      </c>
+      <c r="H83" t="s">
         <v>257</v>
-      </c>
-      <c r="H83" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3819,10 +3808,10 @@
         <v>4520001</v>
       </c>
       <c r="E84" t="s">
+        <v>258</v>
+      </c>
+      <c r="H84" t="s">
         <v>259</v>
-      </c>
-      <c r="H84" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3839,10 +3828,10 @@
         <v>4520002</v>
       </c>
       <c r="E85" t="s">
+        <v>260</v>
+      </c>
+      <c r="H85" t="s">
         <v>261</v>
-      </c>
-      <c r="H85" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3859,10 +3848,10 @@
         <v>4520003</v>
       </c>
       <c r="E86" t="s">
+        <v>262</v>
+      </c>
+      <c r="H86" t="s">
         <v>263</v>
-      </c>
-      <c r="H86" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3879,10 +3868,10 @@
         <v>4520004</v>
       </c>
       <c r="E87" t="s">
+        <v>264</v>
+      </c>
+      <c r="H87" t="s">
         <v>265</v>
-      </c>
-      <c r="H87" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3899,10 +3888,10 @@
         <v>4900001</v>
       </c>
       <c r="E88" t="s">
+        <v>266</v>
+      </c>
+      <c r="H88" t="s">
         <v>267</v>
-      </c>
-      <c r="H88" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3919,10 +3908,10 @@
         <v>4900002</v>
       </c>
       <c r="E89" t="s">
+        <v>268</v>
+      </c>
+      <c r="H89" t="s">
         <v>269</v>
-      </c>
-      <c r="H89" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3939,10 +3928,10 @@
         <v>4900003</v>
       </c>
       <c r="E90" t="s">
+        <v>270</v>
+      </c>
+      <c r="H90" t="s">
         <v>271</v>
-      </c>
-      <c r="H90" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3959,10 +3948,10 @@
         <v>4900004</v>
       </c>
       <c r="E91" t="s">
+        <v>272</v>
+      </c>
+      <c r="H91" t="s">
         <v>273</v>
-      </c>
-      <c r="H91" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3979,10 +3968,10 @@
         <v>4900005</v>
       </c>
       <c r="E92" t="s">
+        <v>274</v>
+      </c>
+      <c r="H92" t="s">
         <v>275</v>
-      </c>
-      <c r="H92" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="106" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="371">
   <si>
     <t>id</t>
   </si>
@@ -74,7 +74,7 @@
     <t>序号</t>
   </si>
   <si>
-    <t>道具类型1:帽子 2衣服 3裤子 4鞋子 10武器</t>
+    <t>道具类型1:帽子 2衣服 3裤子 4鞋子 5鼻环 10武器</t>
   </si>
   <si>
     <t>道具上限</t>
@@ -764,9 +764,6 @@
     <t>修女帽</t>
   </si>
   <si>
-    <t>魅魔-帽子-3</t>
-  </si>
-  <si>
     <t>Succubus_Atlas_Clothes_Clothes_1</t>
   </si>
   <si>
@@ -855,6 +852,294 @@
   </si>
   <si>
     <t>剧毒镰刀</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
+    <t>红色头巾</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Hat_Hat_2</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
+    <t>银制盔甲</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
+    <t>皮甲</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Clothes_Clothes_3</t>
+  </si>
+  <si>
+    <t>皮带胸甲</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
+    <t>骷髅腰带</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>红色铁制</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_1</t>
+  </si>
+  <si>
+    <t>铁制鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_2</t>
+  </si>
+  <si>
+    <t>反向铁制鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_3</t>
+  </si>
+  <si>
+    <t>小号铁制鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_4</t>
+  </si>
+  <si>
+    <t>金制鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_5</t>
+  </si>
+  <si>
+    <t>连环鼻环</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
+    <t>木制面具</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_2</t>
+  </si>
+  <si>
+    <t>头巾</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>金耳环</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_4</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_5</t>
+  </si>
+  <si>
+    <t>蓝色头巾</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_6</t>
+  </si>
+  <si>
+    <t>布头罩</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_7</t>
+  </si>
+  <si>
+    <t>红色羽毛帽</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_8</t>
+  </si>
+  <si>
+    <t>熊头帽</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_9</t>
+  </si>
+  <si>
+    <t>独眼罩</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_10</t>
+  </si>
+  <si>
+    <t>皮头罩</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
+    <t>皮裤</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>腰盔甲</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_3</t>
+  </si>
+  <si>
+    <t>布裤子</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_4</t>
+  </si>
+  <si>
+    <t>熊裤子</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_5</t>
+  </si>
+  <si>
+    <t>蓝裤子</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_1</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_2</t>
+  </si>
+  <si>
+    <t>金刀</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_3</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_4</t>
+  </si>
+  <si>
+    <t>木法杖</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_5</t>
+  </si>
+  <si>
+    <t>骷髅法杖</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_6</t>
+  </si>
+  <si>
+    <t>十字法杖</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_7</t>
+  </si>
+  <si>
+    <t>蔚蓝法棍</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_8</t>
+  </si>
+  <si>
+    <t>死亡之书</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_9</t>
+  </si>
+  <si>
+    <t>猩红之酒</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_10</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_11</t>
+  </si>
+  <si>
+    <t>三叉戟</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_12</t>
+  </si>
+  <si>
+    <t>华丽刺剑</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_13</t>
+  </si>
+  <si>
+    <t>拐杖剑</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_14</t>
+  </si>
+  <si>
+    <t>木铁弓</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_15</t>
+  </si>
+  <si>
+    <t>直弓</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_16</t>
+  </si>
+  <si>
+    <t>魔力弓</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_17</t>
+  </si>
+  <si>
+    <t>金闪闪弓</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_18</t>
+  </si>
+  <si>
+    <t>哥炸弹</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_19</t>
+  </si>
+  <si>
+    <t>火药</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_20</t>
+  </si>
+  <si>
+    <t>危险药剂</t>
+  </si>
+  <si>
+    <t>奥里给</t>
   </si>
 </sst>
 </file>
@@ -1822,10 +2107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1836,8 +2121,8 @@
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="31.75" customWidth="1"/>
-    <col min="7" max="7" width="121.25" customWidth="1"/>
-    <col min="8" max="8" width="48.375" customWidth="1"/>
+    <col min="7" max="7" width="100.375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
     <col min="10" max="10" width="42.875" customWidth="1"/>
   </cols>
@@ -2754,7 +3039,6 @@
       <c r="F38">
         <v>-45</v>
       </c>
-      <c r="G38"/>
       <c r="H38" t="s">
         <v>129</v>
       </c>
@@ -2781,7 +3065,6 @@
       <c r="F39">
         <v>-45</v>
       </c>
-      <c r="G39"/>
       <c r="H39" t="s">
         <v>132</v>
       </c>
@@ -2972,7 +3255,6 @@
       <c r="F47">
         <v>-45</v>
       </c>
-      <c r="G47"/>
       <c r="H47" t="s">
         <v>156</v>
       </c>
@@ -2999,7 +3281,6 @@
       <c r="F48">
         <v>-45</v>
       </c>
-      <c r="G48"/>
       <c r="H48" t="s">
         <v>159</v>
       </c>
@@ -3671,10 +3952,10 @@
         <v>244</v>
       </c>
       <c r="J77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" ht="12" customHeight="1" spans="1:10">
       <c r="A78">
         <v>40200001</v>
       </c>
@@ -3688,13 +3969,16 @@
         <v>4510001</v>
       </c>
       <c r="E78" t="s">
+        <v>245</v>
+      </c>
+      <c r="H78" t="s">
         <v>246</v>
       </c>
-      <c r="H78" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="J78" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>40200002</v>
       </c>
@@ -3708,13 +3992,16 @@
         <v>4510002</v>
       </c>
       <c r="E79" t="s">
+        <v>247</v>
+      </c>
+      <c r="H79" t="s">
         <v>248</v>
       </c>
-      <c r="H79" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="J79" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>40200003</v>
       </c>
@@ -3728,13 +4015,16 @@
         <v>4510003</v>
       </c>
       <c r="E80" t="s">
+        <v>249</v>
+      </c>
+      <c r="H80" t="s">
         <v>250</v>
       </c>
-      <c r="H80" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="J80" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>40200004</v>
       </c>
@@ -3748,13 +4038,16 @@
         <v>4510004</v>
       </c>
       <c r="E81" t="s">
+        <v>251</v>
+      </c>
+      <c r="H81" t="s">
         <v>252</v>
       </c>
-      <c r="H81" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="J81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>40200005</v>
       </c>
@@ -3768,13 +4061,16 @@
         <v>4510005</v>
       </c>
       <c r="E82" t="s">
+        <v>253</v>
+      </c>
+      <c r="H82" t="s">
         <v>254</v>
       </c>
-      <c r="H82" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="J82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>40200006</v>
       </c>
@@ -3788,13 +4084,16 @@
         <v>4510006</v>
       </c>
       <c r="E83" t="s">
+        <v>255</v>
+      </c>
+      <c r="H83" t="s">
         <v>256</v>
       </c>
-      <c r="H83" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="J83" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>40300001</v>
       </c>
@@ -3808,13 +4107,16 @@
         <v>4520001</v>
       </c>
       <c r="E84" t="s">
+        <v>257</v>
+      </c>
+      <c r="H84" t="s">
         <v>258</v>
       </c>
-      <c r="H84" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="J84" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>40300002</v>
       </c>
@@ -3828,13 +4130,16 @@
         <v>4520002</v>
       </c>
       <c r="E85" t="s">
+        <v>259</v>
+      </c>
+      <c r="H85" t="s">
         <v>260</v>
       </c>
-      <c r="H85" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="J85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>40300003</v>
       </c>
@@ -3848,13 +4153,16 @@
         <v>4520003</v>
       </c>
       <c r="E86" t="s">
+        <v>261</v>
+      </c>
+      <c r="H86" t="s">
         <v>262</v>
       </c>
-      <c r="H86" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="J86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>40300004</v>
       </c>
@@ -3868,13 +4176,16 @@
         <v>4520004</v>
       </c>
       <c r="E87" t="s">
+        <v>263</v>
+      </c>
+      <c r="H87" t="s">
         <v>264</v>
       </c>
-      <c r="H87" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="J87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>41000001</v>
       </c>
@@ -3888,13 +4199,16 @@
         <v>4900001</v>
       </c>
       <c r="E88" t="s">
+        <v>265</v>
+      </c>
+      <c r="H88" t="s">
         <v>266</v>
       </c>
-      <c r="H88" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="J88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>41000002</v>
       </c>
@@ -3908,13 +4222,16 @@
         <v>4900002</v>
       </c>
       <c r="E89" t="s">
+        <v>267</v>
+      </c>
+      <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="H89" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="J89" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>41000003</v>
       </c>
@@ -3928,13 +4245,16 @@
         <v>4900003</v>
       </c>
       <c r="E90" t="s">
+        <v>269</v>
+      </c>
+      <c r="H90" t="s">
         <v>270</v>
       </c>
-      <c r="H90" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="J90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>41000004</v>
       </c>
@@ -3948,13 +4268,16 @@
         <v>4900004</v>
       </c>
       <c r="E91" t="s">
+        <v>271</v>
+      </c>
+      <c r="H91" t="s">
         <v>272</v>
       </c>
-      <c r="H91" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="J91" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>41000005</v>
       </c>
@@ -3968,21 +4291,1183 @@
         <v>4900005</v>
       </c>
       <c r="E92" t="s">
+        <v>273</v>
+      </c>
+      <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:10">
+      <c r="A93">
+        <v>50100001</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>5500001</v>
+      </c>
+      <c r="E93" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="106" ht="12" customHeight="1"/>
-    <row r="107" ht="12" customHeight="1"/>
-    <row r="108" ht="12" customHeight="1"/>
-    <row r="109" ht="12" customHeight="1"/>
-    <row r="110" ht="12" customHeight="1"/>
-    <row r="111" ht="12" customHeight="1"/>
-    <row r="112" ht="12" customHeight="1"/>
-    <row r="113" ht="12" customHeight="1"/>
-    <row r="114" ht="12" customHeight="1"/>
+      <c r="H93" t="s">
+        <v>276</v>
+      </c>
+      <c r="J93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>50100002</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>5500002</v>
+      </c>
+      <c r="E94" t="s">
+        <v>277</v>
+      </c>
+      <c r="H94" t="s">
+        <v>223</v>
+      </c>
+      <c r="J94" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>50100003</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>5500003</v>
+      </c>
+      <c r="E95" t="s">
+        <v>278</v>
+      </c>
+      <c r="H95" t="s">
+        <v>279</v>
+      </c>
+      <c r="J95" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:10">
+      <c r="A96">
+        <v>50200001</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>5510001</v>
+      </c>
+      <c r="E96" t="s">
+        <v>280</v>
+      </c>
+      <c r="H96" t="s">
+        <v>281</v>
+      </c>
+      <c r="J96" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>50200002</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>5510002</v>
+      </c>
+      <c r="E97" t="s">
+        <v>282</v>
+      </c>
+      <c r="H97" t="s">
+        <v>283</v>
+      </c>
+      <c r="J97" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>50200003</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>5510003</v>
+      </c>
+      <c r="E98" t="s">
+        <v>284</v>
+      </c>
+      <c r="H98" t="s">
+        <v>285</v>
+      </c>
+      <c r="J98" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" ht="12" customHeight="1" spans="1:10">
+      <c r="A99">
+        <v>50300001</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>5520001</v>
+      </c>
+      <c r="E99" t="s">
+        <v>286</v>
+      </c>
+      <c r="H99" t="s">
+        <v>287</v>
+      </c>
+      <c r="J99" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>50300002</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>5520002</v>
+      </c>
+      <c r="E100" t="s">
+        <v>288</v>
+      </c>
+      <c r="H100" t="s">
+        <v>289</v>
+      </c>
+      <c r="J100" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>50500001</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>5090001</v>
+      </c>
+      <c r="E101" t="s">
+        <v>290</v>
+      </c>
+      <c r="H101" t="s">
+        <v>291</v>
+      </c>
+      <c r="J101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>50500002</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>5090002</v>
+      </c>
+      <c r="E102" t="s">
+        <v>292</v>
+      </c>
+      <c r="H102" t="s">
+        <v>293</v>
+      </c>
+      <c r="J102" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <v>50500003</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>5090003</v>
+      </c>
+      <c r="E103" t="s">
+        <v>294</v>
+      </c>
+      <c r="H103" t="s">
+        <v>295</v>
+      </c>
+      <c r="J103" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>50500004</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>5090004</v>
+      </c>
+      <c r="E104" t="s">
+        <v>296</v>
+      </c>
+      <c r="H104" t="s">
+        <v>297</v>
+      </c>
+      <c r="J104" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <v>50500005</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>5090005</v>
+      </c>
+      <c r="E105" t="s">
+        <v>298</v>
+      </c>
+      <c r="H105" t="s">
+        <v>299</v>
+      </c>
+      <c r="J105" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="1:10">
+      <c r="A106">
+        <v>60100001</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>6500001</v>
+      </c>
+      <c r="E106" t="s">
+        <v>300</v>
+      </c>
+      <c r="H106" t="s">
+        <v>301</v>
+      </c>
+      <c r="J106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <v>60100002</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>6500002</v>
+      </c>
+      <c r="E107" t="s">
+        <v>302</v>
+      </c>
+      <c r="H107" t="s">
+        <v>303</v>
+      </c>
+      <c r="J107" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>60100003</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>6500003</v>
+      </c>
+      <c r="E108" t="s">
+        <v>304</v>
+      </c>
+      <c r="H108" t="s">
+        <v>305</v>
+      </c>
+      <c r="J108" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>60100004</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>6500004</v>
+      </c>
+      <c r="E109" t="s">
+        <v>306</v>
+      </c>
+      <c r="H109" t="s">
+        <v>276</v>
+      </c>
+      <c r="J109" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <v>60100005</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>6500005</v>
+      </c>
+      <c r="E110" t="s">
+        <v>307</v>
+      </c>
+      <c r="H110" t="s">
+        <v>308</v>
+      </c>
+      <c r="J110" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" ht="12" customHeight="1" spans="1:10">
+      <c r="A111">
+        <v>60100006</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>6500006</v>
+      </c>
+      <c r="E111" t="s">
+        <v>309</v>
+      </c>
+      <c r="H111" t="s">
+        <v>310</v>
+      </c>
+      <c r="J111" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" ht="12" customHeight="1" spans="1:10">
+      <c r="A112">
+        <v>60100007</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>6500007</v>
+      </c>
+      <c r="E112" t="s">
+        <v>311</v>
+      </c>
+      <c r="H112" t="s">
+        <v>312</v>
+      </c>
+      <c r="J112" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" ht="12" customHeight="1" spans="1:10">
+      <c r="A113">
+        <v>60100008</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>6500008</v>
+      </c>
+      <c r="E113" t="s">
+        <v>313</v>
+      </c>
+      <c r="H113" t="s">
+        <v>314</v>
+      </c>
+      <c r="J113" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="114" ht="12" customHeight="1" spans="1:10">
+      <c r="A114">
+        <v>60100009</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>6500009</v>
+      </c>
+      <c r="E114" t="s">
+        <v>315</v>
+      </c>
+      <c r="H114" t="s">
+        <v>316</v>
+      </c>
+      <c r="J114" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" ht="12" customHeight="1" spans="1:10">
+      <c r="A115">
+        <v>60100010</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>6500010</v>
+      </c>
+      <c r="E115" t="s">
+        <v>317</v>
+      </c>
+      <c r="H115" t="s">
+        <v>318</v>
+      </c>
+      <c r="J115" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" ht="12" customHeight="1" spans="1:10">
+      <c r="A116">
+        <v>60200001</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>6510001</v>
+      </c>
+      <c r="E116" t="s">
+        <v>319</v>
+      </c>
+      <c r="H116" t="s">
+        <v>246</v>
+      </c>
+      <c r="J116" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117" ht="12" customHeight="1" spans="1:10">
+      <c r="A117">
+        <v>60200002</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>6510002</v>
+      </c>
+      <c r="E117" t="s">
+        <v>320</v>
+      </c>
+      <c r="H117" t="s">
+        <v>321</v>
+      </c>
+      <c r="J117" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:10">
+      <c r="A118">
+        <v>60300001</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>6520001</v>
+      </c>
+      <c r="E118" t="s">
+        <v>322</v>
+      </c>
+      <c r="H118" t="s">
+        <v>323</v>
+      </c>
+      <c r="J118" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119">
+        <v>60300002</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>6520002</v>
+      </c>
+      <c r="E119" t="s">
+        <v>324</v>
+      </c>
+      <c r="H119" t="s">
+        <v>325</v>
+      </c>
+      <c r="J119" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120">
+        <v>60300003</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>6520003</v>
+      </c>
+      <c r="E120" t="s">
+        <v>326</v>
+      </c>
+      <c r="H120" t="s">
+        <v>327</v>
+      </c>
+      <c r="J120" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121">
+        <v>60300004</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>6520004</v>
+      </c>
+      <c r="E121" t="s">
+        <v>328</v>
+      </c>
+      <c r="H121" t="s">
+        <v>329</v>
+      </c>
+      <c r="J121" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122">
+        <v>60300005</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>6520005</v>
+      </c>
+      <c r="E122" t="s">
+        <v>330</v>
+      </c>
+      <c r="H122" t="s">
+        <v>331</v>
+      </c>
+      <c r="J122" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:10">
+      <c r="A123">
+        <v>61010001</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>6910001</v>
+      </c>
+      <c r="E123" t="s">
+        <v>332</v>
+      </c>
+      <c r="F123"/>
+      <c r="H123" t="s">
+        <v>126</v>
+      </c>
+      <c r="J123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124">
+        <v>61010002</v>
+      </c>
+      <c r="B124">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>6910002</v>
+      </c>
+      <c r="E124" t="s">
+        <v>333</v>
+      </c>
+      <c r="H124" t="s">
+        <v>334</v>
+      </c>
+      <c r="J124" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125">
+        <v>61010003</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>6910003</v>
+      </c>
+      <c r="E125" t="s">
+        <v>335</v>
+      </c>
+      <c r="H125" t="s">
+        <v>336</v>
+      </c>
+      <c r="J125" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
+        <v>61010004</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>6910004</v>
+      </c>
+      <c r="E126" t="s">
+        <v>337</v>
+      </c>
+      <c r="F126">
+        <v>-45</v>
+      </c>
+      <c r="H126" t="s">
+        <v>338</v>
+      </c>
+      <c r="J126" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
+        <v>61010005</v>
+      </c>
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>6910005</v>
+      </c>
+      <c r="E127" t="s">
+        <v>339</v>
+      </c>
+      <c r="F127">
+        <v>-45</v>
+      </c>
+      <c r="H127" t="s">
+        <v>340</v>
+      </c>
+      <c r="J127" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128">
+        <v>61010006</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>6910006</v>
+      </c>
+      <c r="E128" t="s">
+        <v>341</v>
+      </c>
+      <c r="F128">
+        <v>-45</v>
+      </c>
+      <c r="H128" t="s">
+        <v>342</v>
+      </c>
+      <c r="J128" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>61010007</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>6910007</v>
+      </c>
+      <c r="E129" t="s">
+        <v>343</v>
+      </c>
+      <c r="H129" t="s">
+        <v>344</v>
+      </c>
+      <c r="J129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>61010008</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>6910008</v>
+      </c>
+      <c r="E130" t="s">
+        <v>345</v>
+      </c>
+      <c r="H130" t="s">
+        <v>346</v>
+      </c>
+      <c r="J130" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>61010009</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>6910009</v>
+      </c>
+      <c r="E131" t="s">
+        <v>347</v>
+      </c>
+      <c r="H131" t="s">
+        <v>348</v>
+      </c>
+      <c r="J131" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>61010010</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>6910010</v>
+      </c>
+      <c r="E132" t="s">
+        <v>349</v>
+      </c>
+      <c r="H132" t="s">
+        <v>126</v>
+      </c>
+      <c r="J132" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>61010011</v>
+      </c>
+      <c r="B133">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>6910011</v>
+      </c>
+      <c r="E133" t="s">
+        <v>350</v>
+      </c>
+      <c r="H133" t="s">
+        <v>351</v>
+      </c>
+      <c r="J133" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>61010012</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>6910012</v>
+      </c>
+      <c r="E134" t="s">
+        <v>352</v>
+      </c>
+      <c r="H134" t="s">
+        <v>353</v>
+      </c>
+      <c r="J134" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
+        <v>61010013</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>6910013</v>
+      </c>
+      <c r="E135" t="s">
+        <v>354</v>
+      </c>
+      <c r="H135" t="s">
+        <v>355</v>
+      </c>
+      <c r="J135" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>61010014</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>6910014</v>
+      </c>
+      <c r="E136" t="s">
+        <v>356</v>
+      </c>
+      <c r="H136" t="s">
+        <v>357</v>
+      </c>
+      <c r="J136" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
+        <v>61010015</v>
+      </c>
+      <c r="B137">
+        <v>10</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>6910015</v>
+      </c>
+      <c r="E137" t="s">
+        <v>358</v>
+      </c>
+      <c r="H137" t="s">
+        <v>359</v>
+      </c>
+      <c r="J137" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>61010016</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>6910016</v>
+      </c>
+      <c r="E138" t="s">
+        <v>360</v>
+      </c>
+      <c r="H138" t="s">
+        <v>361</v>
+      </c>
+      <c r="J138" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139">
+        <v>61010017</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>6910017</v>
+      </c>
+      <c r="E139" t="s">
+        <v>362</v>
+      </c>
+      <c r="H139" t="s">
+        <v>363</v>
+      </c>
+      <c r="J139" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140">
+        <v>61010018</v>
+      </c>
+      <c r="B140">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>6910018</v>
+      </c>
+      <c r="E140" t="s">
+        <v>364</v>
+      </c>
+      <c r="H140" t="s">
+        <v>365</v>
+      </c>
+      <c r="J140" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141">
+        <v>61010019</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>6910019</v>
+      </c>
+      <c r="E141" t="s">
+        <v>366</v>
+      </c>
+      <c r="H141" t="s">
+        <v>367</v>
+      </c>
+      <c r="J141" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142">
+        <v>61010020</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>6910020</v>
+      </c>
+      <c r="E142" t="s">
+        <v>368</v>
+      </c>
+      <c r="H142" t="s">
+        <v>369</v>
+      </c>
+      <c r="J142" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="8:10">
+      <c r="H143" t="s">
+        <v>370</v>
+      </c>
+      <c r="J143" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A4:J88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="402">
   <si>
     <t>id</t>
   </si>
@@ -1028,118 +1028,211 @@
     <t>Goblin_Atlas_Weapon_Weapon_R_1</t>
   </si>
   <si>
+    <t>金刀</t>
+  </si>
+  <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_2</t>
   </si>
   <si>
-    <t>金刀</t>
+    <t>木弓</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_3</t>
   </si>
   <si>
-    <t>木弓</t>
+    <t>木法杖</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_4</t>
   </si>
   <si>
-    <t>木法杖</t>
+    <t>骷髅法杖</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_5</t>
   </si>
   <si>
-    <t>骷髅法杖</t>
+    <t>十字法杖</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_6</t>
   </si>
   <si>
-    <t>十字法杖</t>
+    <t>蔚蓝法棍</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_7</t>
   </si>
   <si>
-    <t>蔚蓝法棍</t>
+    <t>死亡之书</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_8</t>
   </si>
   <si>
-    <t>死亡之书</t>
+    <t>猩红之酒</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_9</t>
   </si>
   <si>
-    <t>猩红之酒</t>
-  </si>
-  <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_10</t>
   </si>
   <si>
+    <t>三叉戟</t>
+  </si>
+  <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_11</t>
   </si>
   <si>
-    <t>三叉戟</t>
+    <t>华丽刺剑</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_12</t>
   </si>
   <si>
-    <t>华丽刺剑</t>
+    <t>拐杖剑</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_13</t>
   </si>
   <si>
-    <t>拐杖剑</t>
+    <t>木铁弓</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_14</t>
   </si>
   <si>
-    <t>木铁弓</t>
+    <t>直弓</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_15</t>
   </si>
   <si>
-    <t>直弓</t>
+    <t>魔力弓</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_16</t>
   </si>
   <si>
-    <t>魔力弓</t>
+    <t>金闪闪弓</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_17</t>
   </si>
   <si>
-    <t>金闪闪弓</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_18</t>
   </si>
   <si>
-    <t>哥炸弹</t>
+    <t>火药</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_19</t>
   </si>
   <si>
-    <t>火药</t>
+    <t>危险药剂</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_20</t>
   </si>
   <si>
-    <t>危险药剂</t>
-  </si>
-  <si>
     <t>奥里给</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
+    <t>皮套帽</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
+    <t>带刺肩甲</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
+    <t>华丽皮带</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>布腰带</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Pants_Pants_3</t>
+  </si>
+  <si>
+    <t>金属裤带</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Pants_Pants_4</t>
+  </si>
+  <si>
+    <t>皮腰带</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Weapon_Weapon_L_1</t>
+  </si>
+  <si>
+    <t>木制标枪</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Weapon_Weapon_L_2</t>
+  </si>
+  <si>
+    <t>骨制标枪</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Weapon_Weapon_L_3</t>
+  </si>
+  <si>
+    <t>铁制三叉戟</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Weapon_Weapon_R_1</t>
+  </si>
+  <si>
+    <t>血腥骨锤</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Weapon_Weapon_R_2</t>
+  </si>
+  <si>
+    <t>石斧</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Weapon_Weapon_R_3</t>
+  </si>
+  <si>
+    <t>水晶劈刀</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Weapon_Weapon_R_4</t>
+  </si>
+  <si>
+    <t>黑色法杖</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Weapon_Weapon_R_5</t>
+  </si>
+  <si>
+    <t>诡异魔法书</t>
+  </si>
+  <si>
+    <t>Orc_Atlas_Weapon_Weapon_R_6</t>
+  </si>
+  <si>
+    <t>木制法杖</t>
   </si>
 </sst>
 </file>
@@ -2107,10 +2200,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5008,10 +5105,10 @@
       </c>
       <c r="F123"/>
       <c r="H123" t="s">
-        <v>126</v>
+        <v>333</v>
       </c>
       <c r="J123" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5028,13 +5125,13 @@
         <v>6910002</v>
       </c>
       <c r="E124" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H124" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J124" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5051,13 +5148,13 @@
         <v>6910003</v>
       </c>
       <c r="E125" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H125" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J125" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5074,16 +5171,16 @@
         <v>6910004</v>
       </c>
       <c r="E126" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F126">
         <v>-45</v>
       </c>
       <c r="H126" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J126" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5100,16 +5197,16 @@
         <v>6910005</v>
       </c>
       <c r="E127" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F127">
         <v>-45</v>
       </c>
       <c r="H127" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J127" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5126,16 +5223,16 @@
         <v>6910006</v>
       </c>
       <c r="E128" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F128">
         <v>-45</v>
       </c>
       <c r="H128" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J128" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5152,13 +5249,13 @@
         <v>6910007</v>
       </c>
       <c r="E129" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H129" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J129" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5175,13 +5272,13 @@
         <v>6910008</v>
       </c>
       <c r="E130" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H130" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J130" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5198,13 +5295,13 @@
         <v>6910009</v>
       </c>
       <c r="E131" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H131" t="s">
-        <v>348</v>
+        <v>126</v>
       </c>
       <c r="J131" t="s">
-        <v>348</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5224,10 +5321,10 @@
         <v>349</v>
       </c>
       <c r="H132" t="s">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="J132" t="s">
-        <v>126</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5244,13 +5341,13 @@
         <v>6910011</v>
       </c>
       <c r="E133" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H133" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J133" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5267,13 +5364,13 @@
         <v>6910012</v>
       </c>
       <c r="E134" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H134" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J134" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5290,13 +5387,13 @@
         <v>6910013</v>
       </c>
       <c r="E135" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H135" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J135" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5313,13 +5410,13 @@
         <v>6910014</v>
       </c>
       <c r="E136" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H136" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J136" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5336,13 +5433,13 @@
         <v>6910015</v>
       </c>
       <c r="E137" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H137" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J137" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5359,13 +5456,13 @@
         <v>6910016</v>
       </c>
       <c r="E138" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H138" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J138" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5382,13 +5479,13 @@
         <v>6910017</v>
       </c>
       <c r="E139" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H139" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J139" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5405,13 +5502,13 @@
         <v>6910018</v>
       </c>
       <c r="E140" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H140" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J140" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5428,13 +5525,13 @@
         <v>6910019</v>
       </c>
       <c r="E141" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H141" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J141" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5451,21 +5548,381 @@
         <v>6910020</v>
       </c>
       <c r="E142" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H142" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J142" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="143" spans="8:10">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143">
+        <v>70100001</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>7500001</v>
+      </c>
+      <c r="E143" t="s">
+        <v>371</v>
+      </c>
       <c r="H143" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J143" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144">
+        <v>70200001</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>7510001</v>
+      </c>
+      <c r="E144" t="s">
+        <v>373</v>
+      </c>
+      <c r="H144" t="s">
+        <v>374</v>
+      </c>
+      <c r="J144" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145">
+        <v>70200002</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>7510002</v>
+      </c>
+      <c r="E145" t="s">
+        <v>375</v>
+      </c>
+      <c r="H145" t="s">
+        <v>283</v>
+      </c>
+      <c r="J145" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146">
+        <v>70300001</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>7520001</v>
+      </c>
+      <c r="E146" t="s">
+        <v>376</v>
+      </c>
+      <c r="H146" t="s">
+        <v>377</v>
+      </c>
+      <c r="J146" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147">
+        <v>70300002</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>7520002</v>
+      </c>
+      <c r="E147" t="s">
+        <v>378</v>
+      </c>
+      <c r="H147" t="s">
+        <v>379</v>
+      </c>
+      <c r="J147" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148">
+        <v>70300003</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>7520003</v>
+      </c>
+      <c r="E148" t="s">
+        <v>380</v>
+      </c>
+      <c r="H148" t="s">
+        <v>381</v>
+      </c>
+      <c r="J148" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149">
+        <v>70300004</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>7520004</v>
+      </c>
+      <c r="E149" t="s">
+        <v>382</v>
+      </c>
+      <c r="H149" t="s">
+        <v>383</v>
+      </c>
+      <c r="J149" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150">
+        <v>71000001</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>7900001</v>
+      </c>
+      <c r="E150" t="s">
+        <v>384</v>
+      </c>
+      <c r="H150" t="s">
+        <v>385</v>
+      </c>
+      <c r="J150" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151">
+        <v>71000002</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>7900002</v>
+      </c>
+      <c r="E151" t="s">
+        <v>386</v>
+      </c>
+      <c r="H151" t="s">
+        <v>387</v>
+      </c>
+      <c r="J151" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152">
+        <v>71000003</v>
+      </c>
+      <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>7900003</v>
+      </c>
+      <c r="E152" t="s">
+        <v>388</v>
+      </c>
+      <c r="H152" t="s">
+        <v>389</v>
+      </c>
+      <c r="J152" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153">
+        <v>71010001</v>
+      </c>
+      <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>7910001</v>
+      </c>
+      <c r="E153" t="s">
+        <v>390</v>
+      </c>
+      <c r="H153" t="s">
+        <v>391</v>
+      </c>
+      <c r="J153" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154">
+        <v>71010002</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>7910002</v>
+      </c>
+      <c r="E154" t="s">
+        <v>392</v>
+      </c>
+      <c r="H154" t="s">
+        <v>393</v>
+      </c>
+      <c r="J154" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155">
+        <v>71010003</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>7910003</v>
+      </c>
+      <c r="E155" t="s">
+        <v>394</v>
+      </c>
+      <c r="H155" t="s">
+        <v>395</v>
+      </c>
+      <c r="J155" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156">
+        <v>71010004</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>7910004</v>
+      </c>
+      <c r="E156" t="s">
+        <v>396</v>
+      </c>
+      <c r="H156" t="s">
+        <v>397</v>
+      </c>
+      <c r="J156" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157">
+        <v>71010005</v>
+      </c>
+      <c r="B157">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>7910005</v>
+      </c>
+      <c r="E157" t="s">
+        <v>398</v>
+      </c>
+      <c r="H157" t="s">
+        <v>399</v>
+      </c>
+      <c r="J157" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158">
+        <v>71010006</v>
+      </c>
+      <c r="B158">
+        <v>10</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>7910006</v>
+      </c>
+      <c r="E158" t="s">
+        <v>400</v>
+      </c>
+      <c r="H158" t="s">
+        <v>401</v>
+      </c>
+      <c r="J158" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="426">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,105 @@
     <t>备注</t>
   </si>
   <si>
+    <t>Human_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
+    <t>铁头盔</t>
+  </si>
+  <si>
+    <t>人类-帽子-铁头盔</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_1</t>
+  </si>
+  <si>
+    <t>钢剑</t>
+  </si>
+  <si>
+    <t>人类-武器-钢剑</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_2</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>人类-武器-铁剑</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_3</t>
+  </si>
+  <si>
+    <t>火法杖</t>
+  </si>
+  <si>
+    <t>人类-武器-火法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_4</t>
+  </si>
+  <si>
+    <t>冰法杖</t>
+  </si>
+  <si>
+    <t>人类-武器-冰法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_5</t>
+  </si>
+  <si>
+    <t>残破剑</t>
+  </si>
+  <si>
+    <t>人类-武器-残破剑</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_6</t>
+  </si>
+  <si>
+    <t>短刀</t>
+  </si>
+  <si>
+    <t>人类-武器-短刀</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_7</t>
+  </si>
+  <si>
+    <t>绿宝石法杖</t>
+  </si>
+  <si>
+    <t>人类-武器-绿宝石法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_8</t>
+  </si>
+  <si>
+    <t>魔力法杖</t>
+  </si>
+  <si>
+    <t>人类-武器-魔力法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_9</t>
+  </si>
+  <si>
+    <t>星之法杖</t>
+  </si>
+  <si>
+    <t>人类-武器-星之法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_R_1</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>人类-武器-木弓</t>
+  </si>
+  <si>
     <t>Skeleton_Atlas_Hat_Hat_1</t>
   </si>
   <si>
@@ -407,46 +506,31 @@
     <t>Skeleton_Atlas_Weapon_Weapon_R_1</t>
   </si>
   <si>
-    <t>铁剑</t>
-  </si>
-  <si>
     <t>骷髅-武器-铁剑</t>
   </si>
   <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_2</t>
   </si>
   <si>
-    <t>火法杖</t>
-  </si>
-  <si>
     <t>骷髅-武器-火法杖</t>
   </si>
   <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_3</t>
   </si>
   <si>
-    <t>冰法杖</t>
-  </si>
-  <si>
     <t>骷髅-武器-冰法杖</t>
   </si>
   <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_4</t>
   </si>
   <si>
-    <t>残破剑</t>
-  </si>
-  <si>
     <t>骷髅-武器-残破剑</t>
   </si>
   <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_5</t>
   </si>
   <si>
-    <t>波斯短刀</t>
-  </si>
-  <si>
-    <t>骷髅-武器-波斯短刀</t>
+    <t>骷髅-武器-短刀</t>
   </si>
   <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_6</t>
@@ -497,18 +581,12 @@
     <t>Skeleton_Atlas_Weapon_Weapon_R_11</t>
   </si>
   <si>
-    <t>绿宝石法杖</t>
-  </si>
-  <si>
     <t>骷髅-武器-绿宝石法杖</t>
   </si>
   <si>
     <t>Skeleton_Atlas_Weapon_Weapon_R_12</t>
   </si>
   <si>
-    <t>魔力法杖</t>
-  </si>
-  <si>
     <t>骷髅-武器-魔力法杖</t>
   </si>
   <si>
@@ -524,9 +602,6 @@
     <t>Skeleton_Atlas_Weapon_Weapon_R_14</t>
   </si>
   <si>
-    <t>星之法杖</t>
-  </si>
-  <si>
     <t>骷髅-武器-星之法杖</t>
   </si>
   <si>
@@ -1032,9 +1107,6 @@
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_2</t>
-  </si>
-  <si>
-    <t>木弓</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_3</t>
@@ -2200,14 +2272,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F146" sqref="F146"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2320,9 +2392,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" customFormat="1" spans="1:10">
       <c r="A4">
-        <v>20100001</v>
+        <v>10100001</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2331,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2500001</v>
+        <v>1020001</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -2343,18 +2415,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" customFormat="1" spans="1:10">
       <c r="A5">
-        <v>20100002</v>
+        <v>11000001</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2500002</v>
+        <v>1900001</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2366,18 +2438,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" customFormat="1" spans="1:10">
       <c r="A6">
-        <v>20100003</v>
+        <v>11000002</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2500003</v>
+        <v>1900002</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -2389,18 +2461,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" customFormat="1" spans="1:10">
       <c r="A7">
-        <v>20100004</v>
+        <v>11000003</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2500004</v>
+        <v>1900003</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -2412,18 +2484,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" customFormat="1" spans="1:10">
       <c r="A8">
-        <v>20100005</v>
+        <v>11000004</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2500005</v>
+        <v>1900004</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2435,18 +2507,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" customFormat="1" spans="1:10">
       <c r="A9">
-        <v>20100006</v>
+        <v>11000005</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2500006</v>
+        <v>1900005</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -2458,18 +2530,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" customFormat="1" spans="1:10">
       <c r="A10">
-        <v>20100007</v>
+        <v>11000006</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2500007</v>
+        <v>1900006</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
@@ -2481,18 +2553,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" customFormat="1" spans="1:10">
       <c r="A11">
-        <v>20200001</v>
+        <v>11000007</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2510001</v>
+        <v>1900007</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -2504,18 +2576,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" customFormat="1" spans="1:10">
       <c r="A12">
-        <v>20200002</v>
+        <v>11000008</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2510002</v>
+        <v>1900008</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -2529,16 +2601,16 @@
     </row>
     <row r="13" customFormat="1" spans="1:10">
       <c r="A13">
-        <v>20200003</v>
+        <v>11000009</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2510003</v>
+        <v>1900009</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -2550,18 +2622,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" customFormat="1" spans="1:10">
       <c r="A14">
-        <v>20200004</v>
+        <v>11010001</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2510004</v>
+        <v>1910001</v>
       </c>
       <c r="E14" t="s">
         <v>54</v>
@@ -2575,16 +2647,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>20200005</v>
+        <v>20100001</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2510005</v>
+        <v>2500001</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>
@@ -2598,16 +2670,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>20200006</v>
+        <v>20100002</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>2510006</v>
+        <v>2500002</v>
       </c>
       <c r="E16" t="s">
         <v>60</v>
@@ -2621,16 +2693,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>20200007</v>
+        <v>20100003</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>2510007</v>
+        <v>2500003</v>
       </c>
       <c r="E17" t="s">
         <v>63</v>
@@ -2644,16 +2716,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>20200008</v>
+        <v>20100004</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2510008</v>
+        <v>2500004</v>
       </c>
       <c r="E18" t="s">
         <v>66</v>
@@ -2667,16 +2739,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>20200009</v>
+        <v>20100005</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2510009</v>
+        <v>2500005</v>
       </c>
       <c r="E19" t="s">
         <v>69</v>
@@ -2690,16 +2762,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>20200010</v>
+        <v>20100006</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2510010</v>
+        <v>2500006</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
@@ -2713,16 +2785,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>20200011</v>
+        <v>20100007</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2510011</v>
+        <v>2500007</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
@@ -2736,16 +2808,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>20300001</v>
+        <v>20200001</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>2520001</v>
+        <v>2510001</v>
       </c>
       <c r="E22" t="s">
         <v>78</v>
@@ -2759,16 +2831,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>20300002</v>
+        <v>20200002</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2520002</v>
+        <v>2510002</v>
       </c>
       <c r="E23" t="s">
         <v>81</v>
@@ -2780,18 +2852,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" customFormat="1" spans="1:10">
       <c r="A24">
-        <v>20300003</v>
+        <v>20200003</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2520003</v>
+        <v>2510003</v>
       </c>
       <c r="E24" t="s">
         <v>84</v>
@@ -2805,16 +2877,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>20300004</v>
+        <v>20200004</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2520004</v>
+        <v>2510004</v>
       </c>
       <c r="E25" t="s">
         <v>87</v>
@@ -2828,16 +2900,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>20300005</v>
+        <v>20200005</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>2520005</v>
+        <v>2510005</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
@@ -2849,303 +2921,291 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" ht="12" customHeight="1" spans="1:10">
+    <row r="27" spans="1:10">
       <c r="A27">
-        <v>21000001</v>
+        <v>20200006</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>2900001</v>
+        <v>2510006</v>
       </c>
       <c r="E27" t="s">
         <v>93</v>
       </c>
-      <c r="F27">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>94</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>95</v>
-      </c>
-      <c r="J27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>21000002</v>
+        <v>20200007</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>2900002</v>
+        <v>2510007</v>
       </c>
       <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
         <v>97</v>
       </c>
-      <c r="F28">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>98</v>
-      </c>
-      <c r="H28" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>21000003</v>
+        <v>20200008</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>2900003</v>
+        <v>2510008</v>
       </c>
       <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" t="s">
         <v>101</v>
-      </c>
-      <c r="H29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>21000004</v>
+        <v>20200009</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2900004</v>
+        <v>2510009</v>
       </c>
       <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" t="s">
         <v>104</v>
-      </c>
-      <c r="H30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>21000005</v>
+        <v>20200010</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>2900005</v>
+        <v>2510010</v>
       </c>
       <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" t="s">
         <v>107</v>
-      </c>
-      <c r="H31" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>21000006</v>
+        <v>20200011</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>2900006</v>
+        <v>2510011</v>
       </c>
       <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" t="s">
         <v>110</v>
-      </c>
-      <c r="H32" t="s">
-        <v>111</v>
-      </c>
-      <c r="J32" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>21000007</v>
+        <v>20300001</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2900007</v>
+        <v>2520001</v>
       </c>
       <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" t="s">
         <v>113</v>
-      </c>
-      <c r="H33" t="s">
-        <v>114</v>
-      </c>
-      <c r="J33" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>21000008</v>
+        <v>20300002</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>2900008</v>
+        <v>2520002</v>
       </c>
       <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" t="s">
         <v>116</v>
-      </c>
-      <c r="H34" t="s">
-        <v>117</v>
-      </c>
-      <c r="J34" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>21000009</v>
+        <v>20300003</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>2900009</v>
+        <v>2520003</v>
       </c>
       <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" t="s">
         <v>119</v>
-      </c>
-      <c r="H35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>21000010</v>
+        <v>20300004</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>2900010</v>
+        <v>2520004</v>
       </c>
       <c r="E36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" t="s">
         <v>122</v>
-      </c>
-      <c r="H36" t="s">
-        <v>123</v>
-      </c>
-      <c r="J36" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>21010001</v>
+        <v>20300005</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>2910001</v>
+        <v>2520005</v>
       </c>
       <c r="E37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" t="s">
         <v>125</v>
       </c>
-      <c r="F37">
-        <v>-45</v>
-      </c>
-      <c r="H37" t="s">
+    </row>
+    <row r="38" ht="12" customHeight="1" spans="1:10">
+      <c r="A38">
+        <v>21000001</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2900001</v>
+      </c>
+      <c r="E38" t="s">
         <v>126</v>
       </c>
-      <c r="J37" t="s">
+      <c r="F38">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>21010002</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>2910002</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>128</v>
       </c>
-      <c r="F38">
-        <v>-45</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>129</v>
-      </c>
-      <c r="J38" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>21010003</v>
+        <v>21000002</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -3154,13 +3214,16 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>2910003</v>
+        <v>2900002</v>
       </c>
       <c r="E39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
         <v>131</v>
-      </c>
-      <c r="F39">
-        <v>-45</v>
       </c>
       <c r="H39" t="s">
         <v>132</v>
@@ -3171,7 +3234,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>21010004</v>
+        <v>21000003</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -3180,14 +3243,11 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>2910004</v>
+        <v>2900003</v>
       </c>
       <c r="E40" t="s">
         <v>134</v>
       </c>
-      <c r="F40">
-        <v>-45</v>
-      </c>
       <c r="H40" t="s">
         <v>135</v>
       </c>
@@ -3197,7 +3257,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>21010005</v>
+        <v>21000004</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -3206,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>2910005</v>
+        <v>2900004</v>
       </c>
       <c r="E41" t="s">
         <v>137</v>
@@ -3220,7 +3280,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>21010006</v>
+        <v>21000005</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -3229,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>2910006</v>
+        <v>2900005</v>
       </c>
       <c r="E42" t="s">
         <v>140</v>
@@ -3243,7 +3303,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>21010007</v>
+        <v>21000006</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -3252,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>2910007</v>
+        <v>2900006</v>
       </c>
       <c r="E43" t="s">
         <v>143</v>
@@ -3266,7 +3326,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>21010008</v>
+        <v>21000007</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -3275,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>2910008</v>
+        <v>2900007</v>
       </c>
       <c r="E44" t="s">
         <v>146</v>
@@ -3289,7 +3349,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>21010009</v>
+        <v>21000008</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -3298,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>2910009</v>
+        <v>2900008</v>
       </c>
       <c r="E45" t="s">
         <v>149</v>
@@ -3312,7 +3372,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>21010010</v>
+        <v>21000009</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -3321,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>2910010</v>
+        <v>2900009</v>
       </c>
       <c r="E46" t="s">
         <v>152</v>
@@ -3335,7 +3395,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>21010011</v>
+        <v>21000010</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -3344,14 +3404,11 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>2910011</v>
+        <v>2900010</v>
       </c>
       <c r="E47" t="s">
         <v>155</v>
       </c>
-      <c r="F47">
-        <v>-45</v>
-      </c>
       <c r="H47" t="s">
         <v>156</v>
       </c>
@@ -3361,7 +3418,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>21010012</v>
+        <v>21010001</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -3370,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>2910012</v>
+        <v>2910001</v>
       </c>
       <c r="E48" t="s">
         <v>158</v>
@@ -3379,15 +3436,15 @@
         <v>-45</v>
       </c>
       <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" t="s">
         <v>159</v>
-      </c>
-      <c r="J48" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>21010013</v>
+        <v>21010002</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -3396,21 +3453,24 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>2910013</v>
+        <v>2910002</v>
       </c>
       <c r="E49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49">
+        <v>-45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" t="s">
         <v>161</v>
-      </c>
-      <c r="H49" t="s">
-        <v>162</v>
-      </c>
-      <c r="J49" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>21010014</v>
+        <v>21010003</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -3419,21 +3479,24 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>2910014</v>
+        <v>2910003</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="F50">
+        <v>-45</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>21010015</v>
+        <v>21010004</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -3442,21 +3505,24 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>2910015</v>
+        <v>2910004</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="F51">
+        <v>-45</v>
       </c>
       <c r="H51" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>21010016</v>
+        <v>21010005</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -3465,21 +3531,21 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>2910016</v>
+        <v>2910005</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H52" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>21010017</v>
+        <v>21010006</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -3488,21 +3554,21 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>2910017</v>
+        <v>2910006</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H53" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>21010018</v>
+        <v>21010007</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -3511,21 +3577,21 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>2910018</v>
+        <v>2910007</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H54" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J54" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>21010019</v>
+        <v>21010008</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -3534,21 +3600,21 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>2910019</v>
+        <v>2910008</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H55" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J55" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>21010020</v>
+        <v>21010009</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -3557,674 +3623,680 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>2910020</v>
+        <v>2910009</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H56" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J56" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>30100001</v>
+        <v>21010010</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>3020001</v>
+        <v>2910010</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H57" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J57" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>30100002</v>
+        <v>21010011</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>3020002</v>
+        <v>2910011</v>
       </c>
       <c r="E58" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="F58">
+        <v>-45</v>
       </c>
       <c r="H58" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J58" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>30100003</v>
+        <v>21010012</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>3020003</v>
+        <v>2910012</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="F59">
+        <v>-45</v>
       </c>
       <c r="H59" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="J59" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>30100004</v>
+        <v>21010013</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>3020004</v>
+        <v>2910013</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="J60" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>30100005</v>
+        <v>21010014</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>3020005</v>
+        <v>2910014</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H61" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>30100006</v>
+        <v>21010015</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>3020006</v>
+        <v>2910015</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H62" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J62" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
+        <v>21010016</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2910016</v>
+      </c>
+      <c r="E63" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>21010017</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>2910017</v>
+      </c>
+      <c r="E64" t="s">
+        <v>198</v>
+      </c>
+      <c r="H64" t="s">
+        <v>199</v>
+      </c>
+      <c r="J64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>21010018</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>2910018</v>
+      </c>
+      <c r="E65" t="s">
+        <v>201</v>
+      </c>
+      <c r="H65" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>21010019</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>2910019</v>
+      </c>
+      <c r="E66" t="s">
+        <v>204</v>
+      </c>
+      <c r="H66" t="s">
+        <v>205</v>
+      </c>
+      <c r="J66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>21010020</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>2910020</v>
+      </c>
+      <c r="E67" t="s">
+        <v>207</v>
+      </c>
+      <c r="H67" t="s">
+        <v>208</v>
+      </c>
+      <c r="J67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>30100001</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3020001</v>
+      </c>
+      <c r="E68" t="s">
+        <v>210</v>
+      </c>
+      <c r="H68" t="s">
+        <v>211</v>
+      </c>
+      <c r="J68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>30100002</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3020002</v>
+      </c>
+      <c r="E69" t="s">
+        <v>213</v>
+      </c>
+      <c r="H69" t="s">
+        <v>61</v>
+      </c>
+      <c r="J69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>30100003</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3020003</v>
+      </c>
+      <c r="E70" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" t="s">
+        <v>216</v>
+      </c>
+      <c r="J70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>30100004</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>3020004</v>
+      </c>
+      <c r="E71" t="s">
+        <v>218</v>
+      </c>
+      <c r="H71" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>30100005</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>3020005</v>
+      </c>
+      <c r="E72" t="s">
+        <v>220</v>
+      </c>
+      <c r="H72" t="s">
+        <v>221</v>
+      </c>
+      <c r="J72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>30100006</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3020006</v>
+      </c>
+      <c r="E73" t="s">
+        <v>223</v>
+      </c>
+      <c r="H73" t="s">
+        <v>224</v>
+      </c>
+      <c r="J73" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
         <v>30100007</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
         <v>3020007</v>
       </c>
-      <c r="E63" t="s">
-        <v>201</v>
-      </c>
-      <c r="H63" t="s">
-        <v>202</v>
-      </c>
-      <c r="J63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" ht="15" customHeight="1" spans="1:10">
-      <c r="A64">
+      <c r="E74" t="s">
+        <v>226</v>
+      </c>
+      <c r="H74" t="s">
+        <v>227</v>
+      </c>
+      <c r="J74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="1:10">
+      <c r="A75">
         <v>30100008</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
         <v>3020008</v>
       </c>
-      <c r="E64" t="s">
-        <v>204</v>
-      </c>
-      <c r="H64" t="s">
-        <v>205</v>
-      </c>
-      <c r="J64" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" ht="15" customHeight="1" spans="1:10">
-      <c r="A65">
+      <c r="E75" t="s">
+        <v>229</v>
+      </c>
+      <c r="H75" t="s">
+        <v>230</v>
+      </c>
+      <c r="J75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" ht="15" customHeight="1" spans="1:10">
+      <c r="A76">
         <v>30100009</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
         <v>3020009</v>
       </c>
-      <c r="E65" t="s">
-        <v>207</v>
-      </c>
-      <c r="H65" t="s">
-        <v>208</v>
-      </c>
-      <c r="J65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1" spans="1:10">
-      <c r="A66">
+      <c r="E76" t="s">
+        <v>232</v>
+      </c>
+      <c r="H76" t="s">
+        <v>233</v>
+      </c>
+      <c r="J76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1" spans="1:10">
+      <c r="A77">
         <v>30100010</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
         <v>3020010</v>
       </c>
-      <c r="E66" t="s">
-        <v>210</v>
-      </c>
-      <c r="H66" t="s">
-        <v>211</v>
-      </c>
-      <c r="J66" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="67" ht="15" customHeight="1" spans="1:10">
-      <c r="A67">
+      <c r="E77" t="s">
+        <v>235</v>
+      </c>
+      <c r="H77" t="s">
+        <v>236</v>
+      </c>
+      <c r="J77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1" spans="1:10">
+      <c r="A78">
         <v>30100011</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
         <v>3020011</v>
       </c>
-      <c r="E67" t="s">
-        <v>213</v>
-      </c>
-      <c r="H67" t="s">
-        <v>214</v>
-      </c>
-      <c r="J67" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="68" ht="15" customHeight="1" spans="1:10">
-      <c r="A68">
+      <c r="E78" t="s">
+        <v>238</v>
+      </c>
+      <c r="H78" t="s">
+        <v>239</v>
+      </c>
+      <c r="J78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1" spans="1:10">
+      <c r="A79">
         <v>30100012</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
         <v>3020012</v>
       </c>
-      <c r="E68" t="s">
-        <v>216</v>
-      </c>
-      <c r="H68" t="s">
-        <v>217</v>
-      </c>
-      <c r="J68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" ht="15" customHeight="1" spans="1:10">
-      <c r="A69">
+      <c r="E79" t="s">
+        <v>241</v>
+      </c>
+      <c r="H79" t="s">
+        <v>242</v>
+      </c>
+      <c r="J79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" ht="15" customHeight="1" spans="1:10">
+      <c r="A80">
         <v>30100013</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
         <v>3020013</v>
       </c>
-      <c r="E69" t="s">
-        <v>219</v>
-      </c>
-      <c r="H69" t="s">
-        <v>220</v>
-      </c>
-      <c r="J69" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" ht="15" customHeight="1" spans="1:10">
-      <c r="A70">
+      <c r="E80" t="s">
+        <v>244</v>
+      </c>
+      <c r="H80" t="s">
+        <v>245</v>
+      </c>
+      <c r="J80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" ht="15" customHeight="1" spans="1:10">
+      <c r="A81">
         <v>30100014</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
         <v>3020014</v>
       </c>
-      <c r="E70" t="s">
-        <v>222</v>
-      </c>
-      <c r="H70" t="s">
-        <v>223</v>
-      </c>
-      <c r="J70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" ht="15" customHeight="1" spans="1:10">
-      <c r="A71">
+      <c r="E81" t="s">
+        <v>247</v>
+      </c>
+      <c r="H81" t="s">
+        <v>248</v>
+      </c>
+      <c r="J81" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" ht="15" customHeight="1" spans="1:10">
+      <c r="A82">
         <v>30100015</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
         <v>3020015</v>
       </c>
-      <c r="E71" t="s">
-        <v>225</v>
-      </c>
-      <c r="H71" t="s">
-        <v>226</v>
-      </c>
-      <c r="J71" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1" spans="1:10">
-      <c r="A72">
+      <c r="E82" t="s">
+        <v>250</v>
+      </c>
+      <c r="H82" t="s">
+        <v>251</v>
+      </c>
+      <c r="J82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1" spans="1:10">
+      <c r="A83">
         <v>30100016</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
         <v>3020016</v>
       </c>
-      <c r="E72" t="s">
-        <v>228</v>
-      </c>
-      <c r="H72" t="s">
-        <v>229</v>
-      </c>
-      <c r="J72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" ht="15" customHeight="1" spans="1:10">
-      <c r="A73">
+      <c r="E83" t="s">
+        <v>253</v>
+      </c>
+      <c r="H83" t="s">
+        <v>254</v>
+      </c>
+      <c r="J83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" ht="15" customHeight="1" spans="1:10">
+      <c r="A84">
         <v>30100017</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
         <v>3020017</v>
       </c>
-      <c r="E73" t="s">
-        <v>231</v>
-      </c>
-      <c r="H73" t="s">
-        <v>232</v>
-      </c>
-      <c r="J73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1" spans="1:10">
-      <c r="A74">
-        <v>30100018</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>3020018</v>
-      </c>
-      <c r="E74" t="s">
-        <v>234</v>
-      </c>
-      <c r="H74" t="s">
-        <v>235</v>
-      </c>
-      <c r="J74" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75">
-        <v>30100019</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>3020019</v>
-      </c>
-      <c r="E75" t="s">
-        <v>237</v>
-      </c>
-      <c r="H75" t="s">
-        <v>238</v>
-      </c>
-      <c r="J75" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76">
-        <v>30100020</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>3020020</v>
-      </c>
-      <c r="E76" t="s">
-        <v>240</v>
-      </c>
-      <c r="H76" t="s">
-        <v>241</v>
-      </c>
-      <c r="J76" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77">
-        <v>40100001</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>4500003</v>
-      </c>
-      <c r="E77" t="s">
-        <v>243</v>
-      </c>
-      <c r="H77" t="s">
-        <v>244</v>
-      </c>
-      <c r="J77" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="78" ht="12" customHeight="1" spans="1:10">
-      <c r="A78">
-        <v>40200001</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>4510001</v>
-      </c>
-      <c r="E78" t="s">
-        <v>245</v>
-      </c>
-      <c r="H78" t="s">
-        <v>246</v>
-      </c>
-      <c r="J78" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79">
-        <v>40200002</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>4510002</v>
-      </c>
-      <c r="E79" t="s">
-        <v>247</v>
-      </c>
-      <c r="H79" t="s">
-        <v>248</v>
-      </c>
-      <c r="J79" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80">
-        <v>40200003</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>4510003</v>
-      </c>
-      <c r="E80" t="s">
-        <v>249</v>
-      </c>
-      <c r="H80" t="s">
-        <v>250</v>
-      </c>
-      <c r="J80" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81">
-        <v>40200004</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>4510004</v>
-      </c>
-      <c r="E81" t="s">
-        <v>251</v>
-      </c>
-      <c r="H81" t="s">
-        <v>252</v>
-      </c>
-      <c r="J81" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82">
-        <v>40200005</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>4510005</v>
-      </c>
-      <c r="E82" t="s">
-        <v>253</v>
-      </c>
-      <c r="H82" t="s">
-        <v>254</v>
-      </c>
-      <c r="J82" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83">
-        <v>40200006</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>4510006</v>
-      </c>
-      <c r="E83" t="s">
-        <v>255</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="E84" t="s">
         <v>256</v>
       </c>
-      <c r="J83" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84">
-        <v>40300001</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>4520001</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>257</v>
-      </c>
-      <c r="H84" t="s">
-        <v>258</v>
       </c>
       <c r="J84" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" ht="15" customHeight="1" spans="1:10">
       <c r="A85">
-        <v>40300002</v>
+        <v>30100018</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>4520002</v>
+        <v>3020018</v>
       </c>
       <c r="E85" t="s">
         <v>259</v>
@@ -4233,472 +4305,472 @@
         <v>260</v>
       </c>
       <c r="J85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>40300003</v>
+        <v>30100019</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>4520003</v>
+        <v>3020019</v>
       </c>
       <c r="E86" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J86" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>40300004</v>
+        <v>30100020</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>4520004</v>
+        <v>3020020</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H87" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J87" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>41000001</v>
+        <v>40100001</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>4900001</v>
+        <v>4500003</v>
       </c>
       <c r="E88" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H88" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J88" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" ht="12" customHeight="1" spans="1:10">
       <c r="A89">
-        <v>41000002</v>
+        <v>40200001</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>4900002</v>
+        <v>4510001</v>
       </c>
       <c r="E89" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H89" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J89" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>41000003</v>
+        <v>40200002</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>4900003</v>
+        <v>4510002</v>
       </c>
       <c r="E90" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H90" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J90" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>41000004</v>
+        <v>40200003</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>4900004</v>
+        <v>4510003</v>
       </c>
       <c r="E91" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H91" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J91" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>41000005</v>
+        <v>40200004</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>4900005</v>
+        <v>4510004</v>
       </c>
       <c r="E92" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H92" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:10">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
-        <v>50100001</v>
+        <v>40200005</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>5500001</v>
+        <v>4510005</v>
       </c>
       <c r="E93" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H93" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J93" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>50100002</v>
+        <v>40200006</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>5500002</v>
+        <v>4510006</v>
       </c>
       <c r="E94" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H94" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="J94" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>50100003</v>
+        <v>40300001</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>5500003</v>
+        <v>4520001</v>
       </c>
       <c r="E95" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H95" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J95" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:10">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
-        <v>50200001</v>
+        <v>40300002</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>5510001</v>
+        <v>4520002</v>
       </c>
       <c r="E96" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H96" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="J96" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>50200002</v>
+        <v>40300003</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>5510002</v>
+        <v>4520003</v>
       </c>
       <c r="E97" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H97" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J97" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>50200003</v>
+        <v>40300004</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>5510003</v>
+        <v>4520004</v>
       </c>
       <c r="E98" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H98" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="J98" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" ht="12" customHeight="1" spans="1:10">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
-        <v>50300001</v>
+        <v>41000001</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>5520001</v>
+        <v>4900001</v>
       </c>
       <c r="E99" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H99" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J99" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>50300002</v>
+        <v>41000002</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>5520002</v>
+        <v>4900002</v>
       </c>
       <c r="E100" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H100" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J100" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>50500001</v>
+        <v>41000003</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>5090001</v>
+        <v>4900003</v>
       </c>
       <c r="E101" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H101" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="J101" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>50500002</v>
+        <v>41000004</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>5090002</v>
+        <v>4900004</v>
       </c>
       <c r="E102" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H102" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="J102" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>50500003</v>
+        <v>41000005</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>5090003</v>
+        <v>4900005</v>
       </c>
       <c r="E103" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H103" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="J103" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:10">
       <c r="A104">
-        <v>50500004</v>
+        <v>50100001</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>5090004</v>
+        <v>5500001</v>
       </c>
       <c r="E104" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H104" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="J104" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>50500005</v>
+        <v>50100002</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>5090005</v>
+        <v>5500002</v>
       </c>
       <c r="E105" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H105" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="J105" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="1:10">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106">
-        <v>60100001</v>
+        <v>50100003</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -4707,652 +4779,642 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>6500001</v>
+        <v>5500003</v>
       </c>
       <c r="E106" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H106" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J106" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:10">
       <c r="A107">
-        <v>60100002</v>
+        <v>50200001</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>6500002</v>
+        <v>5510001</v>
       </c>
       <c r="E107" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H107" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J107" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>60100003</v>
+        <v>50200002</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>6500003</v>
+        <v>5510002</v>
       </c>
       <c r="E108" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H108" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J108" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>60100004</v>
+        <v>50200003</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>6500004</v>
+        <v>5510003</v>
       </c>
       <c r="E109" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H109" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="J109" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A110">
-        <v>60100005</v>
+        <v>50300001</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>6500005</v>
+        <v>5520001</v>
       </c>
       <c r="E110" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H110" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J110" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="111" ht="12" customHeight="1" spans="1:10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111">
-        <v>60100006</v>
+        <v>50300002</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>6500006</v>
+        <v>5520002</v>
       </c>
       <c r="E111" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H111" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J111" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="112" ht="12" customHeight="1" spans="1:10">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112">
-        <v>60100007</v>
+        <v>50500001</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>6500007</v>
+        <v>5090001</v>
       </c>
       <c r="E112" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H112" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="J112" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="113" ht="12" customHeight="1" spans="1:10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
-        <v>60100008</v>
+        <v>50500002</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>6500008</v>
+        <v>5090002</v>
       </c>
       <c r="E113" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H113" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J113" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="114" ht="12" customHeight="1" spans="1:10">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
-        <v>60100009</v>
+        <v>50500003</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>6500009</v>
+        <v>5090003</v>
       </c>
       <c r="E114" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H114" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="J114" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="115" ht="12" customHeight="1" spans="1:10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
-        <v>60100010</v>
+        <v>50500004</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>6500010</v>
+        <v>5090004</v>
       </c>
       <c r="E115" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H115" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J115" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="116" customFormat="1" ht="12" customHeight="1" spans="1:10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116">
-        <v>60200001</v>
+        <v>50500005</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>6510001</v>
+        <v>5090005</v>
       </c>
       <c r="E116" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H116" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="J116" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="117" ht="12" customHeight="1" spans="1:10">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" spans="1:10">
       <c r="A117">
-        <v>60200002</v>
+        <v>60100001</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>6510002</v>
+        <v>6500001</v>
       </c>
       <c r="E117" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H117" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J117" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:10">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118">
-        <v>60300001</v>
+        <v>60100002</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>6520001</v>
+        <v>6500002</v>
       </c>
       <c r="E118" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H118" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J118" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>60300002</v>
+        <v>60100003</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>6520002</v>
+        <v>6500003</v>
       </c>
       <c r="E119" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H119" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="J119" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>60300003</v>
+        <v>60100004</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>6520003</v>
+        <v>6500004</v>
       </c>
       <c r="E120" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H120" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="J120" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>60300004</v>
+        <v>60100005</v>
       </c>
       <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>6500005</v>
+      </c>
+      <c r="E121" t="s">
+        <v>332</v>
+      </c>
+      <c r="H121" t="s">
+        <v>333</v>
+      </c>
+      <c r="J121" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="122" ht="12" customHeight="1" spans="1:10">
+      <c r="A122">
+        <v>60100006</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>6500006</v>
+      </c>
+      <c r="E122" t="s">
+        <v>334</v>
+      </c>
+      <c r="H122" t="s">
+        <v>335</v>
+      </c>
+      <c r="J122" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" ht="12" customHeight="1" spans="1:10">
+      <c r="A123">
+        <v>60100007</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>6500007</v>
+      </c>
+      <c r="E123" t="s">
+        <v>336</v>
+      </c>
+      <c r="H123" t="s">
+        <v>337</v>
+      </c>
+      <c r="J123" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="124" ht="12" customHeight="1" spans="1:10">
+      <c r="A124">
+        <v>60100008</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>6500008</v>
+      </c>
+      <c r="E124" t="s">
+        <v>338</v>
+      </c>
+      <c r="H124" t="s">
+        <v>339</v>
+      </c>
+      <c r="J124" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" ht="12" customHeight="1" spans="1:10">
+      <c r="A125">
+        <v>60100009</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>6500009</v>
+      </c>
+      <c r="E125" t="s">
+        <v>340</v>
+      </c>
+      <c r="H125" t="s">
+        <v>341</v>
+      </c>
+      <c r="J125" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" ht="12" customHeight="1" spans="1:10">
+      <c r="A126">
+        <v>60100010</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>6500010</v>
+      </c>
+      <c r="E126" t="s">
+        <v>342</v>
+      </c>
+      <c r="H126" t="s">
+        <v>343</v>
+      </c>
+      <c r="J126" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" customFormat="1" ht="12" customHeight="1" spans="1:10">
+      <c r="A127">
+        <v>60200001</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>6510001</v>
+      </c>
+      <c r="E127" t="s">
+        <v>344</v>
+      </c>
+      <c r="H127" t="s">
+        <v>271</v>
+      </c>
+      <c r="J127" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" ht="12" customHeight="1" spans="1:10">
+      <c r="A128">
+        <v>60200002</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>6510002</v>
+      </c>
+      <c r="E128" t="s">
+        <v>345</v>
+      </c>
+      <c r="H128" t="s">
+        <v>346</v>
+      </c>
+      <c r="J128" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" customFormat="1" spans="1:10">
+      <c r="A129">
+        <v>60300001</v>
+      </c>
+      <c r="B129">
         <v>3</v>
       </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>6520004</v>
-      </c>
-      <c r="E121" t="s">
-        <v>328</v>
-      </c>
-      <c r="H121" t="s">
-        <v>329</v>
-      </c>
-      <c r="J121" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122">
-        <v>60300005</v>
-      </c>
-      <c r="B122">
-        <v>3</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>6520005</v>
-      </c>
-      <c r="E122" t="s">
-        <v>330</v>
-      </c>
-      <c r="H122" t="s">
-        <v>331</v>
-      </c>
-      <c r="J122" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="123" customFormat="1" spans="1:10">
-      <c r="A123">
-        <v>61010001</v>
-      </c>
-      <c r="B123">
-        <v>10</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>6910001</v>
-      </c>
-      <c r="E123" t="s">
-        <v>332</v>
-      </c>
-      <c r="F123"/>
-      <c r="H123" t="s">
-        <v>333</v>
-      </c>
-      <c r="J123" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124">
-        <v>61010002</v>
-      </c>
-      <c r="B124">
-        <v>10</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>6910002</v>
-      </c>
-      <c r="E124" t="s">
-        <v>334</v>
-      </c>
-      <c r="H124" t="s">
-        <v>335</v>
-      </c>
-      <c r="J124" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125">
-        <v>61010003</v>
-      </c>
-      <c r="B125">
-        <v>10</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>6910003</v>
-      </c>
-      <c r="E125" t="s">
-        <v>336</v>
-      </c>
-      <c r="H125" t="s">
-        <v>337</v>
-      </c>
-      <c r="J125" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126">
-        <v>61010004</v>
-      </c>
-      <c r="B126">
-        <v>10</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>6910004</v>
-      </c>
-      <c r="E126" t="s">
-        <v>338</v>
-      </c>
-      <c r="F126">
-        <v>-45</v>
-      </c>
-      <c r="H126" t="s">
-        <v>339</v>
-      </c>
-      <c r="J126" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127">
-        <v>61010005</v>
-      </c>
-      <c r="B127">
-        <v>10</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>6910005</v>
-      </c>
-      <c r="E127" t="s">
-        <v>340</v>
-      </c>
-      <c r="F127">
-        <v>-45</v>
-      </c>
-      <c r="H127" t="s">
-        <v>341</v>
-      </c>
-      <c r="J127" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128">
-        <v>61010006</v>
-      </c>
-      <c r="B128">
-        <v>10</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>6910006</v>
-      </c>
-      <c r="E128" t="s">
-        <v>342</v>
-      </c>
-      <c r="F128">
-        <v>-45</v>
-      </c>
-      <c r="H128" t="s">
-        <v>343</v>
-      </c>
-      <c r="J128" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129">
-        <v>61010007</v>
-      </c>
-      <c r="B129">
-        <v>10</v>
-      </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>6910007</v>
+        <v>6520001</v>
       </c>
       <c r="E129" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H129" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="J129" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>61010008</v>
+        <v>60300002</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>6910008</v>
+        <v>6520002</v>
       </c>
       <c r="E130" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H130" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J130" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>61010009</v>
+        <v>60300003</v>
       </c>
       <c r="B131">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>6910009</v>
+        <v>6520003</v>
       </c>
       <c r="E131" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H131" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="J131" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>61010010</v>
+        <v>60300004</v>
       </c>
       <c r="B132">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>6910010</v>
+        <v>6520004</v>
       </c>
       <c r="E132" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H132" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="J132" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>61010011</v>
+        <v>60300005</v>
       </c>
       <c r="B133">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>6910011</v>
+        <v>6520005</v>
       </c>
       <c r="E133" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H133" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J133" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="1:10">
       <c r="A134">
-        <v>61010012</v>
+        <v>61010001</v>
       </c>
       <c r="B134">
         <v>10</v>
@@ -5361,21 +5423,22 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>6910012</v>
+        <v>6910001</v>
       </c>
       <c r="E134" t="s">
-        <v>353</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="F134"/>
       <c r="H134" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J134" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>61010013</v>
+        <v>61010002</v>
       </c>
       <c r="B135">
         <v>10</v>
@@ -5384,21 +5447,21 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>6910013</v>
+        <v>6910002</v>
       </c>
       <c r="E135" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H135" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="J135" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>61010014</v>
+        <v>61010003</v>
       </c>
       <c r="B136">
         <v>10</v>
@@ -5407,21 +5470,21 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>6910014</v>
+        <v>6910003</v>
       </c>
       <c r="E136" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H136" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J136" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>61010015</v>
+        <v>61010004</v>
       </c>
       <c r="B137">
         <v>10</v>
@@ -5430,21 +5493,24 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>6910015</v>
+        <v>6910004</v>
       </c>
       <c r="E137" t="s">
-        <v>359</v>
+        <v>362</v>
+      </c>
+      <c r="F137">
+        <v>-45</v>
       </c>
       <c r="H137" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J137" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>61010016</v>
+        <v>61010005</v>
       </c>
       <c r="B138">
         <v>10</v>
@@ -5453,21 +5519,24 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>6910016</v>
+        <v>6910005</v>
       </c>
       <c r="E138" t="s">
-        <v>361</v>
+        <v>364</v>
+      </c>
+      <c r="F138">
+        <v>-45</v>
       </c>
       <c r="H138" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J138" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>61010017</v>
+        <v>61010006</v>
       </c>
       <c r="B139">
         <v>10</v>
@@ -5476,21 +5545,24 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>6910017</v>
+        <v>6910006</v>
       </c>
       <c r="E139" t="s">
-        <v>363</v>
+        <v>366</v>
+      </c>
+      <c r="F139">
+        <v>-45</v>
       </c>
       <c r="H139" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J139" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>61010018</v>
+        <v>61010007</v>
       </c>
       <c r="B140">
         <v>10</v>
@@ -5499,21 +5571,21 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>6910018</v>
+        <v>6910007</v>
       </c>
       <c r="E140" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H140" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J140" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>61010019</v>
+        <v>61010008</v>
       </c>
       <c r="B141">
         <v>10</v>
@@ -5522,21 +5594,21 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>6910019</v>
+        <v>6910008</v>
       </c>
       <c r="E141" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H141" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J141" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>61010020</v>
+        <v>61010009</v>
       </c>
       <c r="B142">
         <v>10</v>
@@ -5545,182 +5617,182 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>6910020</v>
+        <v>6910009</v>
       </c>
       <c r="E142" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H142" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="J142" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>70100001</v>
+        <v>61010010</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>7500001</v>
+        <v>6910010</v>
       </c>
       <c r="E143" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H143" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J143" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>70200001</v>
+        <v>61010011</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>7510001</v>
+        <v>6910011</v>
       </c>
       <c r="E144" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H144" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J144" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>70200002</v>
+        <v>61010012</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>7510002</v>
+        <v>6910012</v>
       </c>
       <c r="E145" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H145" t="s">
-        <v>283</v>
+        <v>378</v>
       </c>
       <c r="J145" t="s">
-        <v>283</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>70300001</v>
+        <v>61010013</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>7520001</v>
+        <v>6910013</v>
       </c>
       <c r="E146" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H146" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J146" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>70300002</v>
+        <v>61010014</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>7520002</v>
+        <v>6910014</v>
       </c>
       <c r="E147" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H147" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J147" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>70300003</v>
+        <v>61010015</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>7520003</v>
+        <v>6910015</v>
       </c>
       <c r="E148" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H148" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J148" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>70300004</v>
+        <v>61010016</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>7520004</v>
+        <v>6910016</v>
       </c>
       <c r="E149" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H149" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J149" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>71000001</v>
+        <v>61010017</v>
       </c>
       <c r="B150">
         <v>10</v>
@@ -5729,21 +5801,21 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>7900001</v>
+        <v>6910017</v>
       </c>
       <c r="E150" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H150" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J150" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>71000002</v>
+        <v>61010018</v>
       </c>
       <c r="B151">
         <v>10</v>
@@ -5752,21 +5824,21 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>7900002</v>
+        <v>6910018</v>
       </c>
       <c r="E151" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H151" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J151" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>71000003</v>
+        <v>61010019</v>
       </c>
       <c r="B152">
         <v>10</v>
@@ -5775,21 +5847,21 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>7900003</v>
+        <v>6910019</v>
       </c>
       <c r="E152" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H152" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J152" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>71010001</v>
+        <v>61010020</v>
       </c>
       <c r="B153">
         <v>10</v>
@@ -5798,131 +5870,384 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>7910001</v>
+        <v>6910020</v>
       </c>
       <c r="E153" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H153" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J153" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>71010002</v>
+        <v>70100001</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>7910002</v>
+        <v>7500001</v>
       </c>
       <c r="E154" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H154" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J154" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>71010003</v>
+        <v>70200001</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>7910003</v>
+        <v>7510001</v>
       </c>
       <c r="E155" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H155" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J155" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>71010004</v>
+        <v>70200002</v>
       </c>
       <c r="B156">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>7910004</v>
+        <v>7510002</v>
       </c>
       <c r="E156" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H156" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="J156" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>71010005</v>
+        <v>70300001</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>7910005</v>
+        <v>7520001</v>
       </c>
       <c r="E157" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H157" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J157" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
+        <v>70300002</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>7520002</v>
+      </c>
+      <c r="E158" t="s">
+        <v>402</v>
+      </c>
+      <c r="H158" t="s">
+        <v>403</v>
+      </c>
+      <c r="J158" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159">
+        <v>70300003</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>7520003</v>
+      </c>
+      <c r="E159" t="s">
+        <v>404</v>
+      </c>
+      <c r="H159" t="s">
+        <v>405</v>
+      </c>
+      <c r="J159" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160">
+        <v>70300004</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>7520004</v>
+      </c>
+      <c r="E160" t="s">
+        <v>406</v>
+      </c>
+      <c r="H160" t="s">
+        <v>407</v>
+      </c>
+      <c r="J160" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161">
+        <v>71000001</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>7900001</v>
+      </c>
+      <c r="E161" t="s">
+        <v>408</v>
+      </c>
+      <c r="H161" t="s">
+        <v>409</v>
+      </c>
+      <c r="J161" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162">
+        <v>71000002</v>
+      </c>
+      <c r="B162">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>7900002</v>
+      </c>
+      <c r="E162" t="s">
+        <v>410</v>
+      </c>
+      <c r="H162" t="s">
+        <v>411</v>
+      </c>
+      <c r="J162" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163">
+        <v>71000003</v>
+      </c>
+      <c r="B163">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>7900003</v>
+      </c>
+      <c r="E163" t="s">
+        <v>412</v>
+      </c>
+      <c r="H163" t="s">
+        <v>413</v>
+      </c>
+      <c r="J163" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164">
+        <v>71010001</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>7910001</v>
+      </c>
+      <c r="E164" t="s">
+        <v>414</v>
+      </c>
+      <c r="H164" t="s">
+        <v>415</v>
+      </c>
+      <c r="J164" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165">
+        <v>71010002</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>7910002</v>
+      </c>
+      <c r="E165" t="s">
+        <v>416</v>
+      </c>
+      <c r="H165" t="s">
+        <v>417</v>
+      </c>
+      <c r="J165" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166">
+        <v>71010003</v>
+      </c>
+      <c r="B166">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>7910003</v>
+      </c>
+      <c r="E166" t="s">
+        <v>418</v>
+      </c>
+      <c r="H166" t="s">
+        <v>419</v>
+      </c>
+      <c r="J166" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167">
+        <v>71010004</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>7910004</v>
+      </c>
+      <c r="E167" t="s">
+        <v>420</v>
+      </c>
+      <c r="H167" t="s">
+        <v>421</v>
+      </c>
+      <c r="J167" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168">
+        <v>71010005</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>7910005</v>
+      </c>
+      <c r="E168" t="s">
+        <v>422</v>
+      </c>
+      <c r="H168" t="s">
+        <v>423</v>
+      </c>
+      <c r="J168" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169">
         <v>71010006</v>
       </c>
-      <c r="B158">
-        <v>10</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
         <v>7910006</v>
       </c>
-      <c r="E158" t="s">
-        <v>400</v>
-      </c>
-      <c r="H158" t="s">
-        <v>401</v>
-      </c>
-      <c r="J158" t="s">
-        <v>401</v>
+      <c r="E169" t="s">
+        <v>424</v>
+      </c>
+      <c r="H169" t="s">
+        <v>425</v>
+      </c>
+      <c r="J169" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="435">
   <si>
     <t>id</t>
   </si>
@@ -1002,6 +1002,33 @@
   </si>
   <si>
     <t>连环鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Weapon_Weapon_R_1</t>
+  </si>
+  <si>
+    <t>ShowSprite:Minotaur_Atlas_Weapon_Weapon_R_1&amp;VertexRotateSpeed:5&amp;VertexRotateAxis:0,0,-1&amp;StartSize:2</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Weapon_Weapon_R_2</t>
+  </si>
+  <si>
+    <t>ShowSprite:Minotaur_Atlas_Weapon_Weapon_R_2&amp;VertexRotateSpeed:5&amp;VertexRotateAxis:0,0,-1&amp;StartSize:2</t>
+  </si>
+  <si>
+    <t>魔晶</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Weapon_Weapon_R_3</t>
+  </si>
+  <si>
+    <t>ShowSprite:Minotaur_Atlas_Weapon_Weapon_R_3&amp;VertexRotateSpeed:5&amp;VertexRotateAxis:0,0,-1&amp;StartSize:2</t>
+  </si>
+  <si>
+    <t>宝箱</t>
   </si>
   <si>
     <t>Goblin_Atlas_Hat_Hat_1</t>
@@ -2272,14 +2299,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5023,76 +5050,85 @@
     </row>
     <row r="117" customFormat="1" spans="1:10">
       <c r="A117">
-        <v>60100001</v>
+        <v>51010001</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>6500001</v>
+        <v>5910001</v>
       </c>
       <c r="E117" t="s">
         <v>325</v>
       </c>
+      <c r="G117" t="s">
+        <v>326</v>
+      </c>
       <c r="H117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J117" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:10">
       <c r="A118">
-        <v>60100002</v>
+        <v>51010002</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>6500002</v>
+        <v>5910002</v>
       </c>
       <c r="E118" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="G118" t="s">
+        <v>329</v>
       </c>
       <c r="H118" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J118" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:10">
       <c r="A119">
-        <v>60100003</v>
+        <v>51010003</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>6500003</v>
+        <v>5910003</v>
       </c>
       <c r="E119" t="s">
-        <v>329</v>
+        <v>331</v>
+      </c>
+      <c r="G119" t="s">
+        <v>332</v>
       </c>
       <c r="H119" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="J119" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:10">
       <c r="A120">
-        <v>60100004</v>
+        <v>60100001</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -5101,113 +5137,113 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>6500004</v>
+        <v>6500001</v>
       </c>
       <c r="E120" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H120" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="J120" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
+        <v>60100002</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>6500002</v>
+      </c>
+      <c r="E121" t="s">
+        <v>336</v>
+      </c>
+      <c r="H121" t="s">
+        <v>337</v>
+      </c>
+      <c r="J121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122">
+        <v>60100003</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>6500003</v>
+      </c>
+      <c r="E122" t="s">
+        <v>338</v>
+      </c>
+      <c r="H122" t="s">
+        <v>339</v>
+      </c>
+      <c r="J122" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123">
+        <v>60100004</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>6500004</v>
+      </c>
+      <c r="E123" t="s">
+        <v>340</v>
+      </c>
+      <c r="H123" t="s">
+        <v>301</v>
+      </c>
+      <c r="J123" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124">
         <v>60100005</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
         <v>6500005</v>
       </c>
-      <c r="E121" t="s">
-        <v>332</v>
-      </c>
-      <c r="H121" t="s">
-        <v>333</v>
-      </c>
-      <c r="J121" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="122" ht="12" customHeight="1" spans="1:10">
-      <c r="A122">
-        <v>60100006</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>6500006</v>
-      </c>
-      <c r="E122" t="s">
-        <v>334</v>
-      </c>
-      <c r="H122" t="s">
-        <v>335</v>
-      </c>
-      <c r="J122" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="123" ht="12" customHeight="1" spans="1:10">
-      <c r="A123">
-        <v>60100007</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>6500007</v>
-      </c>
-      <c r="E123" t="s">
-        <v>336</v>
-      </c>
-      <c r="H123" t="s">
-        <v>337</v>
-      </c>
-      <c r="J123" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="124" ht="12" customHeight="1" spans="1:10">
-      <c r="A124">
-        <v>60100008</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>6500008</v>
-      </c>
       <c r="E124" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H124" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J124" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" ht="12" customHeight="1" spans="1:10">
       <c r="A125">
-        <v>60100009</v>
+        <v>60100006</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -5216,21 +5252,21 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>6500009</v>
+        <v>6500006</v>
       </c>
       <c r="E125" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H125" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J125" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" ht="12" customHeight="1" spans="1:10">
       <c r="A126">
-        <v>60100010</v>
+        <v>60100007</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -5239,136 +5275,136 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>6500010</v>
+        <v>6500007</v>
       </c>
       <c r="E126" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H126" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J126" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="127" customFormat="1" ht="12" customHeight="1" spans="1:10">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" ht="12" customHeight="1" spans="1:10">
       <c r="A127">
-        <v>60200001</v>
+        <v>60100008</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>6510001</v>
+        <v>6500008</v>
       </c>
       <c r="E127" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H127" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="J127" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" ht="12" customHeight="1" spans="1:10">
       <c r="A128">
+        <v>60100009</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>6500009</v>
+      </c>
+      <c r="E128" t="s">
+        <v>349</v>
+      </c>
+      <c r="H128" t="s">
+        <v>350</v>
+      </c>
+      <c r="J128" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" ht="12" customHeight="1" spans="1:10">
+      <c r="A129">
+        <v>60100010</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>6500010</v>
+      </c>
+      <c r="E129" t="s">
+        <v>351</v>
+      </c>
+      <c r="H129" t="s">
+        <v>352</v>
+      </c>
+      <c r="J129" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" ht="12" customHeight="1" spans="1:10">
+      <c r="A130">
+        <v>60200001</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>6510001</v>
+      </c>
+      <c r="E130" t="s">
+        <v>353</v>
+      </c>
+      <c r="H130" t="s">
+        <v>271</v>
+      </c>
+      <c r="J130" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" ht="12" customHeight="1" spans="1:10">
+      <c r="A131">
         <v>60200002</v>
       </c>
-      <c r="B128">
+      <c r="B131">
         <v>2</v>
       </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
         <v>6510002</v>
       </c>
-      <c r="E128" t="s">
-        <v>345</v>
-      </c>
-      <c r="H128" t="s">
-        <v>346</v>
-      </c>
-      <c r="J128" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="129" customFormat="1" spans="1:10">
-      <c r="A129">
+      <c r="E131" t="s">
+        <v>354</v>
+      </c>
+      <c r="H131" t="s">
+        <v>355</v>
+      </c>
+      <c r="J131" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" customFormat="1" spans="1:10">
+      <c r="A132">
         <v>60300001</v>
-      </c>
-      <c r="B129">
-        <v>3</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>6520001</v>
-      </c>
-      <c r="E129" t="s">
-        <v>347</v>
-      </c>
-      <c r="H129" t="s">
-        <v>348</v>
-      </c>
-      <c r="J129" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130">
-        <v>60300002</v>
-      </c>
-      <c r="B130">
-        <v>3</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>6520002</v>
-      </c>
-      <c r="E130" t="s">
-        <v>349</v>
-      </c>
-      <c r="H130" t="s">
-        <v>350</v>
-      </c>
-      <c r="J130" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131">
-        <v>60300003</v>
-      </c>
-      <c r="B131">
-        <v>3</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>6520003</v>
-      </c>
-      <c r="E131" t="s">
-        <v>351</v>
-      </c>
-      <c r="H131" t="s">
-        <v>352</v>
-      </c>
-      <c r="J131" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132">
-        <v>60300004</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -5377,21 +5413,21 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>6520004</v>
+        <v>6520001</v>
       </c>
       <c r="E132" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H132" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J132" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>60300005</v>
+        <v>60300002</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -5400,91 +5436,90 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>6520005</v>
+        <v>6520002</v>
       </c>
       <c r="E133" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H133" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J133" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="134" customFormat="1" spans="1:10">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134">
-        <v>61010001</v>
+        <v>60300003</v>
       </c>
       <c r="B134">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>6910001</v>
+        <v>6520003</v>
       </c>
       <c r="E134" t="s">
-        <v>357</v>
-      </c>
-      <c r="F134"/>
+        <v>360</v>
+      </c>
       <c r="H134" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J134" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>61010002</v>
+        <v>60300004</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>6910002</v>
+        <v>6520004</v>
       </c>
       <c r="E135" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H135" t="s">
-        <v>55</v>
+        <v>363</v>
       </c>
       <c r="J135" t="s">
-        <v>55</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>61010003</v>
+        <v>60300005</v>
       </c>
       <c r="B136">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>6910003</v>
+        <v>6520005</v>
       </c>
       <c r="E136" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H136" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="J136" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" customFormat="1" spans="1:10">
       <c r="A137">
-        <v>61010004</v>
+        <v>61010001</v>
       </c>
       <c r="B137">
         <v>10</v>
@@ -5493,24 +5528,22 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>6910004</v>
+        <v>6910001</v>
       </c>
       <c r="E137" t="s">
-        <v>362</v>
-      </c>
-      <c r="F137">
-        <v>-45</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="F137"/>
       <c r="H137" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J137" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>61010005</v>
+        <v>61010002</v>
       </c>
       <c r="B138">
         <v>10</v>
@@ -5519,24 +5552,21 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>6910005</v>
+        <v>6910002</v>
       </c>
       <c r="E138" t="s">
-        <v>364</v>
-      </c>
-      <c r="F138">
-        <v>-45</v>
+        <v>368</v>
       </c>
       <c r="H138" t="s">
-        <v>365</v>
+        <v>55</v>
       </c>
       <c r="J138" t="s">
-        <v>365</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>61010006</v>
+        <v>61010003</v>
       </c>
       <c r="B139">
         <v>10</v>
@@ -5545,24 +5575,21 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>6910006</v>
+        <v>6910003</v>
       </c>
       <c r="E139" t="s">
-        <v>366</v>
-      </c>
-      <c r="F139">
-        <v>-45</v>
+        <v>369</v>
       </c>
       <c r="H139" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J139" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>61010007</v>
+        <v>61010004</v>
       </c>
       <c r="B140">
         <v>10</v>
@@ -5571,21 +5598,24 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>6910007</v>
+        <v>6910004</v>
       </c>
       <c r="E140" t="s">
-        <v>368</v>
+        <v>371</v>
+      </c>
+      <c r="F140">
+        <v>-45</v>
       </c>
       <c r="H140" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J140" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>61010008</v>
+        <v>61010005</v>
       </c>
       <c r="B141">
         <v>10</v>
@@ -5594,21 +5624,24 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>6910008</v>
+        <v>6910005</v>
       </c>
       <c r="E141" t="s">
-        <v>370</v>
+        <v>373</v>
+      </c>
+      <c r="F141">
+        <v>-45</v>
       </c>
       <c r="H141" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J141" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>61010009</v>
+        <v>61010006</v>
       </c>
       <c r="B142">
         <v>10</v>
@@ -5617,21 +5650,24 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>6910009</v>
+        <v>6910006</v>
       </c>
       <c r="E142" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+      <c r="F142">
+        <v>-45</v>
       </c>
       <c r="H142" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="J142" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>61010010</v>
+        <v>61010007</v>
       </c>
       <c r="B143">
         <v>10</v>
@@ -5640,21 +5676,21 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>6910010</v>
+        <v>6910007</v>
       </c>
       <c r="E143" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H143" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="J143" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>61010011</v>
+        <v>61010008</v>
       </c>
       <c r="B144">
         <v>10</v>
@@ -5663,21 +5699,21 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>6910011</v>
+        <v>6910008</v>
       </c>
       <c r="E144" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H144" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J144" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>61010012</v>
+        <v>61010009</v>
       </c>
       <c r="B145">
         <v>10</v>
@@ -5686,21 +5722,21 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>6910012</v>
+        <v>6910009</v>
       </c>
       <c r="E145" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H145" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="J145" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>61010013</v>
+        <v>61010010</v>
       </c>
       <c r="B146">
         <v>10</v>
@@ -5709,21 +5745,21 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>6910013</v>
+        <v>6910010</v>
       </c>
       <c r="E146" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H146" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J146" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>61010014</v>
+        <v>61010011</v>
       </c>
       <c r="B147">
         <v>10</v>
@@ -5732,21 +5768,21 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>6910014</v>
+        <v>6910011</v>
       </c>
       <c r="E147" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H147" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J147" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>61010015</v>
+        <v>61010012</v>
       </c>
       <c r="B148">
         <v>10</v>
@@ -5755,21 +5791,21 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>6910015</v>
+        <v>6910012</v>
       </c>
       <c r="E148" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H148" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J148" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>61010016</v>
+        <v>61010013</v>
       </c>
       <c r="B149">
         <v>10</v>
@@ -5778,21 +5814,21 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>6910016</v>
+        <v>6910013</v>
       </c>
       <c r="E149" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H149" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J149" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>61010017</v>
+        <v>61010014</v>
       </c>
       <c r="B150">
         <v>10</v>
@@ -5801,21 +5837,21 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>6910017</v>
+        <v>6910014</v>
       </c>
       <c r="E150" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H150" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="J150" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>61010018</v>
+        <v>61010015</v>
       </c>
       <c r="B151">
         <v>10</v>
@@ -5824,21 +5860,21 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>6910018</v>
+        <v>6910015</v>
       </c>
       <c r="E151" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H151" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J151" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>61010019</v>
+        <v>61010016</v>
       </c>
       <c r="B152">
         <v>10</v>
@@ -5847,21 +5883,21 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>6910019</v>
+        <v>6910016</v>
       </c>
       <c r="E152" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H152" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J152" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>61010020</v>
+        <v>61010017</v>
       </c>
       <c r="B153">
         <v>10</v>
@@ -5870,159 +5906,159 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>6910020</v>
+        <v>6910017</v>
       </c>
       <c r="E153" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H153" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J153" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>70100001</v>
+        <v>61010018</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>7500001</v>
+        <v>6910018</v>
       </c>
       <c r="E154" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H154" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J154" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>70200001</v>
+        <v>61010019</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>7510001</v>
+        <v>6910019</v>
       </c>
       <c r="E155" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H155" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="J155" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>70200002</v>
+        <v>61010020</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>7510002</v>
+        <v>6910020</v>
       </c>
       <c r="E156" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H156" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="J156" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>70300001</v>
+        <v>70100001</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>7520001</v>
+        <v>7500001</v>
       </c>
       <c r="E157" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H157" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J157" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>70300002</v>
+        <v>70200001</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>7520002</v>
+        <v>7510001</v>
       </c>
       <c r="E158" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H158" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J158" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>70300003</v>
+        <v>70200002</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>7520003</v>
+        <v>7510002</v>
       </c>
       <c r="E159" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H159" t="s">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="J159" t="s">
-        <v>405</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>70300004</v>
+        <v>70300001</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -6031,90 +6067,90 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>7520004</v>
+        <v>7520001</v>
       </c>
       <c r="E160" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H160" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J160" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>71000001</v>
+        <v>70300002</v>
       </c>
       <c r="B161">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>7900001</v>
+        <v>7520002</v>
       </c>
       <c r="E161" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H161" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J161" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>71000002</v>
+        <v>70300003</v>
       </c>
       <c r="B162">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>7900002</v>
+        <v>7520003</v>
       </c>
       <c r="E162" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H162" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="J162" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>71000003</v>
+        <v>70300004</v>
       </c>
       <c r="B163">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>7900003</v>
+        <v>7520004</v>
       </c>
       <c r="E163" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H163" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J163" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>71010001</v>
+        <v>71000001</v>
       </c>
       <c r="B164">
         <v>10</v>
@@ -6123,21 +6159,21 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>7910001</v>
+        <v>7900001</v>
       </c>
       <c r="E164" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H164" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J164" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>71010002</v>
+        <v>71000002</v>
       </c>
       <c r="B165">
         <v>10</v>
@@ -6146,21 +6182,21 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>7910002</v>
+        <v>7900002</v>
       </c>
       <c r="E165" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H165" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J165" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>71010003</v>
+        <v>71000003</v>
       </c>
       <c r="B166">
         <v>10</v>
@@ -6169,21 +6205,21 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>7910003</v>
+        <v>7900003</v>
       </c>
       <c r="E166" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H166" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J166" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>71010004</v>
+        <v>71010001</v>
       </c>
       <c r="B167">
         <v>10</v>
@@ -6192,21 +6228,21 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>7910004</v>
+        <v>7910001</v>
       </c>
       <c r="E167" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H167" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="J167" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>71010005</v>
+        <v>71010002</v>
       </c>
       <c r="B168">
         <v>10</v>
@@ -6215,39 +6251,108 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>7910005</v>
+        <v>7910002</v>
       </c>
       <c r="E168" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H168" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J168" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
+        <v>71010003</v>
+      </c>
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>7910003</v>
+      </c>
+      <c r="E169" t="s">
+        <v>427</v>
+      </c>
+      <c r="H169" t="s">
+        <v>428</v>
+      </c>
+      <c r="J169" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170">
+        <v>71010004</v>
+      </c>
+      <c r="B170">
+        <v>10</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>7910004</v>
+      </c>
+      <c r="E170" t="s">
+        <v>429</v>
+      </c>
+      <c r="H170" t="s">
+        <v>430</v>
+      </c>
+      <c r="J170" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171">
+        <v>71010005</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>7910005</v>
+      </c>
+      <c r="E171" t="s">
+        <v>431</v>
+      </c>
+      <c r="H171" t="s">
+        <v>432</v>
+      </c>
+      <c r="J171" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172">
         <v>71010006</v>
       </c>
-      <c r="B169">
-        <v>10</v>
-      </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169">
+      <c r="B172">
+        <v>10</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
         <v>7910006</v>
       </c>
-      <c r="E169" t="s">
-        <v>424</v>
-      </c>
-      <c r="H169" t="s">
-        <v>425</v>
-      </c>
-      <c r="J169" t="s">
-        <v>425</v>
+      <c r="E172" t="s">
+        <v>433</v>
+      </c>
+      <c r="H172" t="s">
+        <v>434</v>
+      </c>
+      <c r="J172" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -1136,6 +1136,9 @@
     <t>Goblin_Atlas_Weapon_Weapon_R_2</t>
   </si>
   <si>
+    <t>ShowSprite:Goblin_Atlas_Other_Arrow_1&amp;VertexRotateSpeed:0&amp;VertexRotateAxis:0,0,-1&amp;StartSize:1</t>
+  </si>
+  <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_3</t>
   </si>
   <si>
@@ -1283,16 +1286,25 @@
     <t>Orc_Atlas_Weapon_Weapon_L_1</t>
   </si>
   <si>
+    <t>ShowSprite:Orc_Atlas_Weapon_Weapon_L_1&amp;VertexRotateSpeed:0&amp;VertexRotateAxis:0,0,-1&amp;StartSize:1</t>
+  </si>
+  <si>
     <t>木制标枪</t>
   </si>
   <si>
     <t>Orc_Atlas_Weapon_Weapon_L_2</t>
   </si>
   <si>
+    <t>ShowSprite:Orc_Atlas_Weapon_Weapon_L_2&amp;VertexRotateSpeed:0&amp;VertexRotateAxis:0,0,-1&amp;StartSize:1</t>
+  </si>
+  <si>
     <t>骨制标枪</t>
   </si>
   <si>
     <t>Orc_Atlas_Weapon_Weapon_L_3</t>
+  </si>
+  <si>
+    <t>ShowSprite:Orc_Atlas_Weapon_Weapon_L_3&amp;VertexRotateSpeed:0&amp;VertexRotateAxis:0,0,-1&amp;StartSize:1</t>
   </si>
   <si>
     <t>铁制三叉戟</t>
@@ -2302,11 +2314,11 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
+      <selection pane="bottomRight" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2317,7 +2329,7 @@
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="31.75" customWidth="1"/>
-    <col min="7" max="7" width="100.375" customWidth="1"/>
+    <col min="7" max="7" width="110.375" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
     <col min="10" max="10" width="42.875" customWidth="1"/>
@@ -5557,6 +5569,9 @@
       <c r="E138" t="s">
         <v>368</v>
       </c>
+      <c r="G138" t="s">
+        <v>369</v>
+      </c>
       <c r="H138" t="s">
         <v>55</v>
       </c>
@@ -5578,13 +5593,13 @@
         <v>6910003</v>
       </c>
       <c r="E139" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H139" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J139" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5601,16 +5616,16 @@
         <v>6910004</v>
       </c>
       <c r="E140" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F140">
         <v>-45</v>
       </c>
       <c r="H140" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J140" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5627,16 +5642,16 @@
         <v>6910005</v>
       </c>
       <c r="E141" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F141">
         <v>-45</v>
       </c>
       <c r="H141" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J141" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5653,16 +5668,16 @@
         <v>6910006</v>
       </c>
       <c r="E142" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F142">
         <v>-45</v>
       </c>
       <c r="H142" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J142" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5679,13 +5694,13 @@
         <v>6910007</v>
       </c>
       <c r="E143" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5702,13 +5717,13 @@
         <v>6910008</v>
       </c>
       <c r="E144" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H144" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J144" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5725,7 +5740,7 @@
         <v>6910009</v>
       </c>
       <c r="E145" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H145" t="s">
         <v>31</v>
@@ -5748,13 +5763,13 @@
         <v>6910010</v>
       </c>
       <c r="E146" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H146" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J146" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5771,13 +5786,13 @@
         <v>6910011</v>
       </c>
       <c r="E147" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H147" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J147" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5794,13 +5809,13 @@
         <v>6910012</v>
       </c>
       <c r="E148" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H148" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J148" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5817,13 +5832,16 @@
         <v>6910013</v>
       </c>
       <c r="E149" t="s">
-        <v>388</v>
+        <v>389</v>
+      </c>
+      <c r="G149" t="s">
+        <v>369</v>
       </c>
       <c r="H149" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J149" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5840,13 +5858,16 @@
         <v>6910014</v>
       </c>
       <c r="E150" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+      <c r="G150" t="s">
+        <v>369</v>
       </c>
       <c r="H150" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J150" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5863,13 +5884,16 @@
         <v>6910015</v>
       </c>
       <c r="E151" t="s">
-        <v>392</v>
+        <v>393</v>
+      </c>
+      <c r="G151" t="s">
+        <v>369</v>
       </c>
       <c r="H151" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J151" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5886,13 +5910,16 @@
         <v>6910016</v>
       </c>
       <c r="E152" t="s">
-        <v>394</v>
+        <v>395</v>
+      </c>
+      <c r="G152" t="s">
+        <v>369</v>
       </c>
       <c r="H152" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J152" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5909,13 +5936,13 @@
         <v>6910017</v>
       </c>
       <c r="E153" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H153" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J153" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5932,13 +5959,13 @@
         <v>6910018</v>
       </c>
       <c r="E154" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H154" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J154" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5955,13 +5982,13 @@
         <v>6910019</v>
       </c>
       <c r="E155" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H155" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J155" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5978,13 +6005,13 @@
         <v>6910020</v>
       </c>
       <c r="E156" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H156" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J156" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -6001,13 +6028,13 @@
         <v>7500001</v>
       </c>
       <c r="E157" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H157" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J157" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6024,13 +6051,13 @@
         <v>7510001</v>
       </c>
       <c r="E158" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H158" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J158" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6047,7 +6074,7 @@
         <v>7510002</v>
       </c>
       <c r="E159" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H159" t="s">
         <v>308</v>
@@ -6070,13 +6097,13 @@
         <v>7520001</v>
       </c>
       <c r="E160" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H160" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J160" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6093,13 +6120,13 @@
         <v>7520002</v>
       </c>
       <c r="E161" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H161" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J161" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6116,13 +6143,13 @@
         <v>7520003</v>
       </c>
       <c r="E162" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H162" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J162" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6139,13 +6166,13 @@
         <v>7520004</v>
       </c>
       <c r="E163" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H163" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J163" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6162,13 +6189,16 @@
         <v>7900001</v>
       </c>
       <c r="E164" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="G164" t="s">
+        <v>419</v>
       </c>
       <c r="H164" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J164" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6185,13 +6215,16 @@
         <v>7900002</v>
       </c>
       <c r="E165" t="s">
-        <v>419</v>
+        <v>421</v>
+      </c>
+      <c r="G165" t="s">
+        <v>422</v>
       </c>
       <c r="H165" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J165" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6208,13 +6241,16 @@
         <v>7900003</v>
       </c>
       <c r="E166" t="s">
-        <v>421</v>
+        <v>424</v>
+      </c>
+      <c r="G166" t="s">
+        <v>425</v>
       </c>
       <c r="H166" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J166" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6231,13 +6267,13 @@
         <v>7910001</v>
       </c>
       <c r="E167" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H167" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="J167" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6254,13 +6290,13 @@
         <v>7910002</v>
       </c>
       <c r="E168" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H168" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J168" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6277,13 +6313,13 @@
         <v>7910003</v>
       </c>
       <c r="E169" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H169" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="J169" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6300,13 +6336,13 @@
         <v>7910004</v>
       </c>
       <c r="E170" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H170" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J170" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6323,13 +6359,13 @@
         <v>7910005</v>
       </c>
       <c r="E171" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H171" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="J171" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6346,13 +6382,13 @@
         <v>7910006</v>
       </c>
       <c r="E172" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H172" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="J172" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -2318,7 +2318,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G138" sqref="G138"/>
+      <selection pane="bottomRight" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="472">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,105 @@
   </si>
   <si>
     <t>人类-帽子-铁头盔</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Hat_Hat_2</t>
+  </si>
+  <si>
+    <t>钢头盔</t>
+  </si>
+  <si>
+    <t>人类-帽子-钢头盔</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>战斗魔法师帽</t>
+  </si>
+  <si>
+    <t>人类-帽子-战斗魔法师帽</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Hat_Hat_4</t>
+  </si>
+  <si>
+    <t>射手兜帽</t>
+  </si>
+  <si>
+    <t>人类-帽子-射手兜帽</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
+    <t>战士上衣</t>
+  </si>
+  <si>
+    <t>人类-衣服-战士上衣</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
+    <t>战斗魔法师上衣</t>
+  </si>
+  <si>
+    <t>人类-衣服-战斗魔法师上衣</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Clothes_Clothes_3</t>
+  </si>
+  <si>
+    <t>冒险者上衣</t>
+  </si>
+  <si>
+    <t>人类-衣服-冒险者上衣</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Clothes_Clothes_4</t>
+  </si>
+  <si>
+    <t>射手上衣</t>
+  </si>
+  <si>
+    <t>人类-衣服-射手上衣</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
+    <t>战士裤子</t>
+  </si>
+  <si>
+    <t>人类-裤子-战士裤子</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>战斗魔法师裤子</t>
+  </si>
+  <si>
+    <t>人类-裤子-战斗魔法师裤子</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Pants_Pants_3</t>
+  </si>
+  <si>
+    <t>冒险者裤子</t>
+  </si>
+  <si>
+    <t>人类-裤子-冒险者裤子</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Pants_Pants_4</t>
+  </si>
+  <si>
+    <t>射手裤子</t>
+  </si>
+  <si>
+    <t>人类-裤子-射手裤子</t>
   </si>
   <si>
     <t>Human_Atlas_Weapon_Weapon_L_1</t>
@@ -2311,26 +2410,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A170" sqref="A170"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="48.25" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="31.75" customWidth="1"/>
-    <col min="7" max="7" width="110.375" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="93.875" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
     <col min="10" max="10" width="42.875" customWidth="1"/>
   </cols>
@@ -2456,16 +2555,16 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5">
-        <v>11000001</v>
+        <v>10100002</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1900001</v>
+        <v>1020001</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2479,16 +2578,16 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6">
-        <v>11000002</v>
+        <v>10100003</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1900002</v>
+        <v>1020001</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -2502,16 +2601,16 @@
     </row>
     <row r="7" customFormat="1" spans="1:10">
       <c r="A7">
-        <v>11000003</v>
+        <v>10100004</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1900003</v>
+        <v>1020001</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -2525,16 +2624,16 @@
     </row>
     <row r="8" customFormat="1" spans="1:10">
       <c r="A8">
-        <v>11000004</v>
+        <v>10200001</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1900004</v>
+        <v>1020001</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2548,16 +2647,16 @@
     </row>
     <row r="9" customFormat="1" spans="1:10">
       <c r="A9">
-        <v>11000005</v>
+        <v>10200002</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1900005</v>
+        <v>1020001</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -2571,16 +2670,16 @@
     </row>
     <row r="10" customFormat="1" spans="1:10">
       <c r="A10">
-        <v>11000006</v>
+        <v>10200003</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1900006</v>
+        <v>1020001</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
@@ -2594,16 +2693,16 @@
     </row>
     <row r="11" customFormat="1" spans="1:10">
       <c r="A11">
-        <v>11000007</v>
+        <v>10200004</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1900007</v>
+        <v>1020001</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -2617,16 +2716,16 @@
     </row>
     <row r="12" customFormat="1" spans="1:10">
       <c r="A12">
-        <v>11000008</v>
+        <v>10300001</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1900008</v>
+        <v>1020001</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -2640,16 +2739,16 @@
     </row>
     <row r="13" customFormat="1" spans="1:10">
       <c r="A13">
-        <v>11000009</v>
+        <v>10300002</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1900009</v>
+        <v>1020001</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -2663,16 +2762,16 @@
     </row>
     <row r="14" customFormat="1" spans="1:10">
       <c r="A14">
-        <v>11010001</v>
+        <v>10300003</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1910001</v>
+        <v>1020001</v>
       </c>
       <c r="E14" t="s">
         <v>54</v>
@@ -2684,18 +2783,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" customFormat="1" spans="1:10">
       <c r="A15">
-        <v>20100001</v>
+        <v>10300004</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2500001</v>
+        <v>1020001</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>
@@ -2707,18 +2806,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" customFormat="1" spans="1:10">
       <c r="A16">
-        <v>20100002</v>
+        <v>11000001</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>2500002</v>
+        <v>1900001</v>
       </c>
       <c r="E16" t="s">
         <v>60</v>
@@ -2730,18 +2829,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" customFormat="1" spans="1:10">
       <c r="A17">
-        <v>20100003</v>
+        <v>11000002</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>2500003</v>
+        <v>1900002</v>
       </c>
       <c r="E17" t="s">
         <v>63</v>
@@ -2753,18 +2852,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" customFormat="1" spans="1:10">
       <c r="A18">
-        <v>20100004</v>
+        <v>11000003</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2500004</v>
+        <v>1900003</v>
       </c>
       <c r="E18" t="s">
         <v>66</v>
@@ -2776,18 +2875,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" customFormat="1" spans="1:10">
       <c r="A19">
-        <v>20100005</v>
+        <v>11000004</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2500005</v>
+        <v>1900004</v>
       </c>
       <c r="E19" t="s">
         <v>69</v>
@@ -2799,18 +2898,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" customFormat="1" spans="1:10">
       <c r="A20">
-        <v>20100006</v>
+        <v>11000005</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2500006</v>
+        <v>1900005</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
@@ -2822,18 +2921,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" customFormat="1" spans="1:10">
       <c r="A21">
-        <v>20100007</v>
+        <v>11000006</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2500007</v>
+        <v>1900006</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
@@ -2845,18 +2944,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" customFormat="1" spans="1:10">
       <c r="A22">
-        <v>20200001</v>
+        <v>11000007</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>2510001</v>
+        <v>1900007</v>
       </c>
       <c r="E22" t="s">
         <v>78</v>
@@ -2868,18 +2967,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" customFormat="1" spans="1:10">
       <c r="A23">
-        <v>20200002</v>
+        <v>11000008</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2510002</v>
+        <v>1900008</v>
       </c>
       <c r="E23" t="s">
         <v>81</v>
@@ -2893,16 +2992,16 @@
     </row>
     <row r="24" customFormat="1" spans="1:10">
       <c r="A24">
-        <v>20200003</v>
+        <v>11000009</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2510003</v>
+        <v>1900009</v>
       </c>
       <c r="E24" t="s">
         <v>84</v>
@@ -2914,18 +3013,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" customFormat="1" spans="1:10">
       <c r="A25">
-        <v>20200004</v>
+        <v>11010001</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2510004</v>
+        <v>1910001</v>
       </c>
       <c r="E25" t="s">
         <v>87</v>
@@ -2939,16 +3038,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>20200005</v>
+        <v>20100001</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>2510005</v>
+        <v>2500001</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
@@ -2962,16 +3061,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>20200006</v>
+        <v>20100002</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>2510006</v>
+        <v>2500002</v>
       </c>
       <c r="E27" t="s">
         <v>93</v>
@@ -2985,16 +3084,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>20200007</v>
+        <v>20100003</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>2510007</v>
+        <v>2500003</v>
       </c>
       <c r="E28" t="s">
         <v>96</v>
@@ -3008,16 +3107,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>20200008</v>
+        <v>20100004</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>2510008</v>
+        <v>2500004</v>
       </c>
       <c r="E29" t="s">
         <v>99</v>
@@ -3031,16 +3130,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>20200009</v>
+        <v>20100005</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2510009</v>
+        <v>2500005</v>
       </c>
       <c r="E30" t="s">
         <v>102</v>
@@ -3054,16 +3153,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>20200010</v>
+        <v>20100006</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>2510010</v>
+        <v>2500006</v>
       </c>
       <c r="E31" t="s">
         <v>105</v>
@@ -3077,16 +3176,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>20200011</v>
+        <v>20100007</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>2510011</v>
+        <v>2500007</v>
       </c>
       <c r="E32" t="s">
         <v>108</v>
@@ -3100,16 +3199,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>20300001</v>
+        <v>20200001</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2520001</v>
+        <v>2510001</v>
       </c>
       <c r="E33" t="s">
         <v>111</v>
@@ -3123,16 +3222,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>20300002</v>
+        <v>20200002</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>2520002</v>
+        <v>2510002</v>
       </c>
       <c r="E34" t="s">
         <v>114</v>
@@ -3144,18 +3243,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" customFormat="1" spans="1:10">
       <c r="A35">
-        <v>20300003</v>
+        <v>20200003</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>2520003</v>
+        <v>2510003</v>
       </c>
       <c r="E35" t="s">
         <v>117</v>
@@ -3169,16 +3268,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>20300004</v>
+        <v>20200004</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>2520004</v>
+        <v>2510004</v>
       </c>
       <c r="E36" t="s">
         <v>120</v>
@@ -3192,16 +3291,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>20300005</v>
+        <v>20200005</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>2520005</v>
+        <v>2510005</v>
       </c>
       <c r="E37" t="s">
         <v>123</v>
@@ -3213,303 +3312,291 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" ht="12" customHeight="1" spans="1:10">
+    <row r="38" spans="1:10">
       <c r="A38">
-        <v>21000001</v>
+        <v>20200006</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>2900001</v>
+        <v>2510006</v>
       </c>
       <c r="E38" t="s">
         <v>126</v>
       </c>
-      <c r="F38">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>127</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>128</v>
-      </c>
-      <c r="J38" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>21000002</v>
+        <v>20200007</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>2900002</v>
+        <v>2510007</v>
       </c>
       <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" t="s">
         <v>130</v>
       </c>
-      <c r="F39">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>131</v>
-      </c>
-      <c r="H39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J39" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>21000003</v>
+        <v>20200008</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>2900003</v>
+        <v>2510008</v>
       </c>
       <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" t="s">
         <v>134</v>
-      </c>
-      <c r="H40" t="s">
-        <v>135</v>
-      </c>
-      <c r="J40" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>21000004</v>
+        <v>20200009</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>2900004</v>
+        <v>2510009</v>
       </c>
       <c r="E41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" t="s">
         <v>137</v>
-      </c>
-      <c r="H41" t="s">
-        <v>138</v>
-      </c>
-      <c r="J41" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>21000005</v>
+        <v>20200010</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>2900005</v>
+        <v>2510010</v>
       </c>
       <c r="E42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" t="s">
+        <v>139</v>
+      </c>
+      <c r="J42" t="s">
         <v>140</v>
-      </c>
-      <c r="H42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>21000006</v>
+        <v>20200011</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>2900006</v>
+        <v>2510011</v>
       </c>
       <c r="E43" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" t="s">
         <v>143</v>
-      </c>
-      <c r="H43" t="s">
-        <v>144</v>
-      </c>
-      <c r="J43" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>21000007</v>
+        <v>20300001</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>2900007</v>
+        <v>2520001</v>
       </c>
       <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" t="s">
+        <v>145</v>
+      </c>
+      <c r="J44" t="s">
         <v>146</v>
-      </c>
-      <c r="H44" t="s">
-        <v>147</v>
-      </c>
-      <c r="J44" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>21000008</v>
+        <v>20300002</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>2900008</v>
+        <v>2520002</v>
       </c>
       <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" t="s">
         <v>149</v>
-      </c>
-      <c r="H45" t="s">
-        <v>150</v>
-      </c>
-      <c r="J45" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>21000009</v>
+        <v>20300003</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>2900009</v>
+        <v>2520003</v>
       </c>
       <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" t="s">
+        <v>151</v>
+      </c>
+      <c r="J46" t="s">
         <v>152</v>
-      </c>
-      <c r="H46" t="s">
-        <v>153</v>
-      </c>
-      <c r="J46" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>21000010</v>
+        <v>20300004</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>2900010</v>
+        <v>2520004</v>
       </c>
       <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" t="s">
         <v>155</v>
-      </c>
-      <c r="H47" t="s">
-        <v>156</v>
-      </c>
-      <c r="J47" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>21010001</v>
+        <v>20300005</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>2910001</v>
+        <v>2520005</v>
       </c>
       <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48" t="s">
         <v>158</v>
       </c>
-      <c r="F48">
-        <v>-45</v>
-      </c>
-      <c r="H48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" t="s">
+    </row>
+    <row r="49" ht="12" customHeight="1" spans="1:10">
+      <c r="A49">
+        <v>21000001</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2900001</v>
+      </c>
+      <c r="E49" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>21010002</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>2910002</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49">
+        <v>45</v>
+      </c>
+      <c r="G49" t="s">
         <v>160</v>
       </c>
-      <c r="F49">
-        <v>-45</v>
-      </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="J49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>21010003</v>
+        <v>21000002</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -3518,24 +3605,27 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>2910003</v>
+        <v>2900002</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F50">
-        <v>-45</v>
+        <v>45</v>
+      </c>
+      <c r="G50" t="s">
+        <v>164</v>
       </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="J50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>21010004</v>
+        <v>21000003</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -3544,24 +3634,21 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>2910004</v>
+        <v>2900003</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
-      </c>
-      <c r="F51">
-        <v>-45</v>
+        <v>167</v>
       </c>
       <c r="H51" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="J51" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>21010005</v>
+        <v>21000004</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -3570,21 +3657,21 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>2910005</v>
+        <v>2900004</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="J52" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>21010006</v>
+        <v>21000005</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -3593,21 +3680,21 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>2910006</v>
+        <v>2900005</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H53" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>21010007</v>
+        <v>21000006</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -3616,21 +3703,21 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>2910007</v>
+        <v>2900006</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H54" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J54" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>21010008</v>
+        <v>21000007</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -3639,21 +3726,21 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>2910008</v>
+        <v>2900007</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H55" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J55" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>21010009</v>
+        <v>21000008</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -3662,21 +3749,21 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>2910009</v>
+        <v>2900008</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H56" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J56" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>21010010</v>
+        <v>21000009</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -3685,21 +3772,21 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>2910010</v>
+        <v>2900009</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H57" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J57" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>21010011</v>
+        <v>21000010</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -3708,24 +3795,21 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>2910011</v>
+        <v>2900010</v>
       </c>
       <c r="E58" t="s">
-        <v>183</v>
-      </c>
-      <c r="F58">
-        <v>-45</v>
+        <v>188</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="J58" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>21010012</v>
+        <v>21010001</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -3734,24 +3818,24 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>2910012</v>
+        <v>2910001</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F59">
         <v>-45</v>
       </c>
       <c r="H59" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J59" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>21010013</v>
+        <v>21010002</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -3760,21 +3844,24 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>2910013</v>
+        <v>2910002</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="F60">
+        <v>-45</v>
       </c>
       <c r="H60" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="J60" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>21010014</v>
+        <v>21010003</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -3783,21 +3870,24 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>2910014</v>
+        <v>2910003</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
+        <v>195</v>
+      </c>
+      <c r="F61">
+        <v>-45</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="J61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>21010015</v>
+        <v>21010004</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -3806,21 +3896,24 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>2910015</v>
+        <v>2910004</v>
       </c>
       <c r="E62" t="s">
-        <v>192</v>
+        <v>197</v>
+      </c>
+      <c r="F62">
+        <v>-45</v>
       </c>
       <c r="H62" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>21010016</v>
+        <v>21010005</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -3829,21 +3922,21 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>2910016</v>
+        <v>2910005</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>21010017</v>
+        <v>21010006</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -3852,21 +3945,21 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>2910017</v>
+        <v>2910006</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H64" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J64" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>21010018</v>
+        <v>21010007</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -3875,21 +3968,21 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>2910018</v>
+        <v>2910007</v>
       </c>
       <c r="E65" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H65" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J65" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>21010019</v>
+        <v>21010008</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -3898,21 +3991,21 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>2910019</v>
+        <v>2910008</v>
       </c>
       <c r="E66" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J66" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>21010020</v>
+        <v>21010009</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -3921,274 +4014,280 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>2910020</v>
+        <v>2910009</v>
       </c>
       <c r="E67" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H67" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J67" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>30100001</v>
+        <v>21010010</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>3020001</v>
+        <v>2910010</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H68" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J68" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>30100002</v>
+        <v>21010011</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>3020002</v>
+        <v>2910011</v>
       </c>
       <c r="E69" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="F69">
+        <v>-45</v>
       </c>
       <c r="H69" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>30100003</v>
+        <v>21010012</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>3020003</v>
+        <v>2910012</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="F70">
+        <v>-45</v>
       </c>
       <c r="H70" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>30100004</v>
+        <v>21010013</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>3020004</v>
+        <v>2910013</v>
       </c>
       <c r="E71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H71" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="J71" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>30100005</v>
+        <v>21010014</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>3020005</v>
+        <v>2910014</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H72" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>30100006</v>
+        <v>21010015</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>3020006</v>
+        <v>2910015</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>30100007</v>
+        <v>21010016</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>3020007</v>
+        <v>2910016</v>
       </c>
       <c r="E74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H74" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1" spans="1:10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
-        <v>30100008</v>
+        <v>21010017</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>3020008</v>
+        <v>2910017</v>
       </c>
       <c r="E75" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J75" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="76" ht="15" customHeight="1" spans="1:10">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
-        <v>30100009</v>
+        <v>21010018</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>3020009</v>
+        <v>2910018</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J76" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="77" ht="15" customHeight="1" spans="1:10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
-        <v>30100010</v>
+        <v>21010019</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>3020010</v>
+        <v>2910019</v>
       </c>
       <c r="E77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J77" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" ht="15" customHeight="1" spans="1:10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
-        <v>30100011</v>
+        <v>21010020</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>3020011</v>
+        <v>2910020</v>
       </c>
       <c r="E78" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H78" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J78" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" ht="15" customHeight="1" spans="1:10">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
-        <v>30100012</v>
+        <v>30100001</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4197,21 +4296,21 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>3020012</v>
+        <v>3020001</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J79" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" ht="15" customHeight="1" spans="1:10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
-        <v>30100013</v>
+        <v>30100002</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4220,21 +4319,21 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>3020013</v>
+        <v>3020002</v>
       </c>
       <c r="E80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H80" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="J80" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" ht="15" customHeight="1" spans="1:10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
-        <v>30100014</v>
+        <v>30100003</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4243,21 +4342,21 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>3020014</v>
+        <v>3020003</v>
       </c>
       <c r="E81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J81" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" ht="15" customHeight="1" spans="1:10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
-        <v>30100015</v>
+        <v>30100004</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4266,21 +4365,21 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>3020015</v>
+        <v>3020004</v>
       </c>
       <c r="E82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="J82" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" spans="1:10">
+    <row r="83" spans="1:10">
       <c r="A83">
-        <v>30100016</v>
+        <v>30100005</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4289,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>3020016</v>
+        <v>3020005</v>
       </c>
       <c r="E83" t="s">
         <v>253</v>
@@ -4301,9 +4400,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:10">
+    <row r="84" spans="1:10">
       <c r="A84">
-        <v>30100017</v>
+        <v>30100006</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4312,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>3020017</v>
+        <v>3020006</v>
       </c>
       <c r="E84" t="s">
         <v>256</v>
@@ -4324,9 +4423,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:10">
+    <row r="85" spans="1:10">
       <c r="A85">
-        <v>30100018</v>
+        <v>30100007</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4335,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>3020018</v>
+        <v>3020007</v>
       </c>
       <c r="E85" t="s">
         <v>259</v>
@@ -4347,9 +4446,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" ht="15" customHeight="1" spans="1:10">
       <c r="A86">
-        <v>30100019</v>
+        <v>30100008</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4358,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>3020019</v>
+        <v>3020008</v>
       </c>
       <c r="E86" t="s">
         <v>262</v>
@@ -4370,9 +4469,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" ht="15" customHeight="1" spans="1:10">
       <c r="A87">
-        <v>30100020</v>
+        <v>30100009</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4381,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>3020020</v>
+        <v>3020009</v>
       </c>
       <c r="E87" t="s">
         <v>265</v>
@@ -4393,9 +4492,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" ht="15" customHeight="1" spans="1:10">
       <c r="A88">
-        <v>40100001</v>
+        <v>30100010</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4404,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>4500003</v>
+        <v>3020010</v>
       </c>
       <c r="E88" t="s">
         <v>268</v>
@@ -4413,1391 +4512,1378 @@
         <v>269</v>
       </c>
       <c r="J88" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" ht="12" customHeight="1" spans="1:10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" ht="15" customHeight="1" spans="1:10">
       <c r="A89">
-        <v>40200001</v>
+        <v>30100011</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>4510001</v>
+        <v>3020011</v>
       </c>
       <c r="E89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J89" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1" spans="1:10">
       <c r="A90">
-        <v>40200002</v>
+        <v>30100012</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>4510002</v>
+        <v>3020012</v>
       </c>
       <c r="E90" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H90" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J90" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1" spans="1:10">
       <c r="A91">
-        <v>40200003</v>
+        <v>30100013</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>4510003</v>
+        <v>3020013</v>
       </c>
       <c r="E91" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H91" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J91" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="1:10">
       <c r="A92">
-        <v>40200004</v>
+        <v>30100014</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>4510004</v>
+        <v>3020014</v>
       </c>
       <c r="E92" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H92" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J92" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1" spans="1:10">
       <c r="A93">
-        <v>40200005</v>
+        <v>30100015</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>4510005</v>
+        <v>3020015</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H93" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J93" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="1:10">
       <c r="A94">
-        <v>40200006</v>
+        <v>30100016</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>4510006</v>
+        <v>3020016</v>
       </c>
       <c r="E94" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H94" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="J94" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="1:10">
       <c r="A95">
-        <v>40300001</v>
+        <v>30100017</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>4520001</v>
+        <v>3020017</v>
       </c>
       <c r="E95" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H95" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="J95" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="1:10">
       <c r="A96">
-        <v>40300002</v>
+        <v>30100018</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>4520002</v>
+        <v>3020018</v>
       </c>
       <c r="E96" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H96" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J96" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>40300003</v>
+        <v>30100019</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>4520003</v>
+        <v>3020019</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H97" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J97" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>40300004</v>
+        <v>30100020</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>4520004</v>
+        <v>3020020</v>
       </c>
       <c r="E98" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H98" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="J98" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>41000001</v>
+        <v>40100001</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>4900001</v>
+        <v>4500003</v>
       </c>
       <c r="E99" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H99" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="J99" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" ht="12" customHeight="1" spans="1:10">
       <c r="A100">
-        <v>41000002</v>
+        <v>40200001</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>4900002</v>
+        <v>4510001</v>
       </c>
       <c r="E100" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="H100" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="J100" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>41000003</v>
+        <v>40200002</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>4900003</v>
+        <v>4510002</v>
       </c>
       <c r="E101" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H101" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="J101" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>41000004</v>
+        <v>40200003</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>4900004</v>
+        <v>4510003</v>
       </c>
       <c r="E102" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H102" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="J102" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>41000005</v>
+        <v>40200004</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>4900005</v>
+        <v>4510004</v>
       </c>
       <c r="E103" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="H103" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="J103" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:10">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
-        <v>50100001</v>
+        <v>40200005</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>5500001</v>
+        <v>4510005</v>
       </c>
       <c r="E104" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="H104" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="J104" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>50100002</v>
+        <v>40200006</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>5500002</v>
+        <v>4510006</v>
       </c>
       <c r="E105" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="H105" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="J105" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>50100003</v>
+        <v>40300001</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>5500003</v>
+        <v>4520001</v>
       </c>
       <c r="E106" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="H106" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="J106" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107">
-        <v>50200001</v>
+        <v>40300002</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>5510001</v>
+        <v>4520002</v>
       </c>
       <c r="E107" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H107" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="J107" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>50200002</v>
+        <v>40300003</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>5510002</v>
+        <v>4520003</v>
       </c>
       <c r="E108" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="H108" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="J108" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>50200003</v>
+        <v>40300004</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>5510003</v>
+        <v>4520004</v>
       </c>
       <c r="E109" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="H109" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="J109" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" ht="12" customHeight="1" spans="1:10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
-        <v>50300001</v>
+        <v>41000001</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>5520001</v>
+        <v>4900001</v>
       </c>
       <c r="E110" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H110" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="J110" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>50300002</v>
+        <v>41000002</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>5520002</v>
+        <v>4900002</v>
       </c>
       <c r="E111" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="H111" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="J111" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>50500001</v>
+        <v>41000003</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>5090001</v>
+        <v>4900003</v>
       </c>
       <c r="E112" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="H112" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="J112" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>50500002</v>
+        <v>41000004</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>5090002</v>
+        <v>4900004</v>
       </c>
       <c r="E113" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="H113" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="J113" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>50500003</v>
+        <v>41000005</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>5090003</v>
+        <v>4900005</v>
       </c>
       <c r="E114" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="H114" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="J114" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:10">
       <c r="A115">
-        <v>50500004</v>
+        <v>50100001</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>5090004</v>
+        <v>5500001</v>
       </c>
       <c r="E115" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H115" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="J115" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>50500005</v>
+        <v>50100002</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>5090005</v>
+        <v>5500002</v>
       </c>
       <c r="E116" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="H116" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="J116" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" spans="1:10">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117">
-        <v>51010001</v>
+        <v>50100003</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>5910001</v>
+        <v>5500003</v>
       </c>
       <c r="E117" t="s">
-        <v>325</v>
-      </c>
-      <c r="G117" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="H117" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="J117" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" customFormat="1" spans="1:10">
       <c r="A118">
-        <v>51010002</v>
+        <v>50200001</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>5910002</v>
+        <v>5510001</v>
       </c>
       <c r="E118" t="s">
-        <v>328</v>
-      </c>
-      <c r="G118" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H118" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J118" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" spans="1:10">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119">
-        <v>51010003</v>
+        <v>50200002</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>5910003</v>
+        <v>5510002</v>
       </c>
       <c r="E119" t="s">
-        <v>331</v>
-      </c>
-      <c r="G119" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H119" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="J119" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="120" customFormat="1" spans="1:10">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120">
-        <v>60100001</v>
+        <v>50200003</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>6500001</v>
+        <v>5510003</v>
       </c>
       <c r="E120" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H120" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="J120" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A121">
-        <v>60100002</v>
+        <v>50300001</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>6500002</v>
+        <v>5520001</v>
       </c>
       <c r="E121" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H121" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="J121" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>60100003</v>
+        <v>50300002</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>6500003</v>
+        <v>5520002</v>
       </c>
       <c r="E122" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H122" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J122" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>60100004</v>
+        <v>50500001</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>6500004</v>
+        <v>5090001</v>
       </c>
       <c r="E123" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H123" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="J123" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>60100005</v>
+        <v>50500002</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>6500005</v>
+        <v>5090002</v>
       </c>
       <c r="E124" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H124" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="J124" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="125" ht="12" customHeight="1" spans="1:10">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125">
-        <v>60100006</v>
+        <v>50500003</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>6500006</v>
+        <v>5090003</v>
       </c>
       <c r="E125" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H125" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="J125" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="126" ht="12" customHeight="1" spans="1:10">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126">
-        <v>60100007</v>
+        <v>50500004</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>6500007</v>
+        <v>5090004</v>
       </c>
       <c r="E126" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H126" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="J126" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="127" ht="12" customHeight="1" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127">
-        <v>60100008</v>
+        <v>50500005</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>6500008</v>
+        <v>5090005</v>
       </c>
       <c r="E127" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H127" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="J127" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="128" ht="12" customHeight="1" spans="1:10">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="128" customFormat="1" spans="1:10">
       <c r="A128">
-        <v>60100009</v>
+        <v>51010001</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>6500009</v>
+        <v>5910001</v>
       </c>
       <c r="E128" t="s">
-        <v>349</v>
+        <v>358</v>
+      </c>
+      <c r="G128" t="s">
+        <v>359</v>
       </c>
       <c r="H128" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="J128" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" ht="12" customHeight="1" spans="1:10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" customFormat="1" spans="1:10">
       <c r="A129">
-        <v>60100010</v>
+        <v>51010002</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>6500010</v>
+        <v>5910002</v>
       </c>
       <c r="E129" t="s">
-        <v>351</v>
+        <v>361</v>
+      </c>
+      <c r="G129" t="s">
+        <v>362</v>
       </c>
       <c r="H129" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="J129" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="130" customFormat="1" ht="12" customHeight="1" spans="1:10">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" spans="1:10">
       <c r="A130">
-        <v>60200001</v>
+        <v>51010003</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>6510001</v>
+        <v>5910003</v>
       </c>
       <c r="E130" t="s">
-        <v>353</v>
+        <v>364</v>
+      </c>
+      <c r="G130" t="s">
+        <v>365</v>
       </c>
       <c r="H130" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="J130" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="131" ht="12" customHeight="1" spans="1:10">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:10">
       <c r="A131">
-        <v>60200002</v>
+        <v>60100001</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>6510002</v>
+        <v>6500001</v>
       </c>
       <c r="E131" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="H131" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="J131" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="132" customFormat="1" spans="1:10">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132">
-        <v>60300001</v>
+        <v>60100002</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>6520001</v>
+        <v>6500002</v>
       </c>
       <c r="E132" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H132" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="J132" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>60300002</v>
+        <v>60100003</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>6520002</v>
+        <v>6500003</v>
       </c>
       <c r="E133" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H133" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="J133" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>60300003</v>
+        <v>60100004</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>6520003</v>
+        <v>6500004</v>
       </c>
       <c r="E134" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="H134" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="J134" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>60300004</v>
+        <v>60100005</v>
       </c>
       <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>6500005</v>
+      </c>
+      <c r="E135" t="s">
+        <v>374</v>
+      </c>
+      <c r="H135" t="s">
+        <v>375</v>
+      </c>
+      <c r="J135" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="136" ht="12" customHeight="1" spans="1:10">
+      <c r="A136">
+        <v>60100006</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>6500006</v>
+      </c>
+      <c r="E136" t="s">
+        <v>376</v>
+      </c>
+      <c r="H136" t="s">
+        <v>377</v>
+      </c>
+      <c r="J136" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="137" ht="12" customHeight="1" spans="1:10">
+      <c r="A137">
+        <v>60100007</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>6500007</v>
+      </c>
+      <c r="E137" t="s">
+        <v>378</v>
+      </c>
+      <c r="H137" t="s">
+        <v>379</v>
+      </c>
+      <c r="J137" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="138" ht="12" customHeight="1" spans="1:10">
+      <c r="A138">
+        <v>60100008</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>6500008</v>
+      </c>
+      <c r="E138" t="s">
+        <v>380</v>
+      </c>
+      <c r="H138" t="s">
+        <v>381</v>
+      </c>
+      <c r="J138" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" ht="12" customHeight="1" spans="1:10">
+      <c r="A139">
+        <v>60100009</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>6500009</v>
+      </c>
+      <c r="E139" t="s">
+        <v>382</v>
+      </c>
+      <c r="H139" t="s">
+        <v>383</v>
+      </c>
+      <c r="J139" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" ht="12" customHeight="1" spans="1:10">
+      <c r="A140">
+        <v>60100010</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>6500010</v>
+      </c>
+      <c r="E140" t="s">
+        <v>384</v>
+      </c>
+      <c r="H140" t="s">
+        <v>385</v>
+      </c>
+      <c r="J140" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="141" customFormat="1" ht="12" customHeight="1" spans="1:10">
+      <c r="A141">
+        <v>60200001</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>6510001</v>
+      </c>
+      <c r="E141" t="s">
+        <v>386</v>
+      </c>
+      <c r="H141" t="s">
+        <v>304</v>
+      </c>
+      <c r="J141" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" ht="12" customHeight="1" spans="1:10">
+      <c r="A142">
+        <v>60200002</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>6510002</v>
+      </c>
+      <c r="E142" t="s">
+        <v>387</v>
+      </c>
+      <c r="H142" t="s">
+        <v>388</v>
+      </c>
+      <c r="J142" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143" customFormat="1" spans="1:10">
+      <c r="A143">
+        <v>60300001</v>
+      </c>
+      <c r="B143">
         <v>3</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>6520004</v>
-      </c>
-      <c r="E135" t="s">
-        <v>362</v>
-      </c>
-      <c r="H135" t="s">
-        <v>363</v>
-      </c>
-      <c r="J135" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136">
-        <v>60300005</v>
-      </c>
-      <c r="B136">
-        <v>3</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>6520005</v>
-      </c>
-      <c r="E136" t="s">
-        <v>364</v>
-      </c>
-      <c r="H136" t="s">
-        <v>365</v>
-      </c>
-      <c r="J136" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="137" customFormat="1" spans="1:10">
-      <c r="A137">
-        <v>61010001</v>
-      </c>
-      <c r="B137">
-        <v>10</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>6910001</v>
-      </c>
-      <c r="E137" t="s">
-        <v>366</v>
-      </c>
-      <c r="F137"/>
-      <c r="H137" t="s">
-        <v>367</v>
-      </c>
-      <c r="J137" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138">
-        <v>61010002</v>
-      </c>
-      <c r="B138">
-        <v>10</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>6910002</v>
-      </c>
-      <c r="E138" t="s">
-        <v>368</v>
-      </c>
-      <c r="G138" t="s">
-        <v>369</v>
-      </c>
-      <c r="H138" t="s">
-        <v>55</v>
-      </c>
-      <c r="J138" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139">
-        <v>61010003</v>
-      </c>
-      <c r="B139">
-        <v>10</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>6910003</v>
-      </c>
-      <c r="E139" t="s">
-        <v>370</v>
-      </c>
-      <c r="H139" t="s">
-        <v>371</v>
-      </c>
-      <c r="J139" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140">
-        <v>61010004</v>
-      </c>
-      <c r="B140">
-        <v>10</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>6910004</v>
-      </c>
-      <c r="E140" t="s">
-        <v>372</v>
-      </c>
-      <c r="F140">
-        <v>-45</v>
-      </c>
-      <c r="H140" t="s">
-        <v>373</v>
-      </c>
-      <c r="J140" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141">
-        <v>61010005</v>
-      </c>
-      <c r="B141">
-        <v>10</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>6910005</v>
-      </c>
-      <c r="E141" t="s">
-        <v>374</v>
-      </c>
-      <c r="F141">
-        <v>-45</v>
-      </c>
-      <c r="H141" t="s">
-        <v>375</v>
-      </c>
-      <c r="J141" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142">
-        <v>61010006</v>
-      </c>
-      <c r="B142">
-        <v>10</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>6910006</v>
-      </c>
-      <c r="E142" t="s">
-        <v>376</v>
-      </c>
-      <c r="F142">
-        <v>-45</v>
-      </c>
-      <c r="H142" t="s">
-        <v>377</v>
-      </c>
-      <c r="J142" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143">
-        <v>61010007</v>
-      </c>
-      <c r="B143">
-        <v>10</v>
-      </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>6910007</v>
+        <v>6520001</v>
       </c>
       <c r="E143" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="H143" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="J143" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>61010008</v>
+        <v>60300002</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>6910008</v>
+        <v>6520002</v>
       </c>
       <c r="E144" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H144" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="J144" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>61010009</v>
+        <v>60300003</v>
       </c>
       <c r="B145">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>6910009</v>
+        <v>6520003</v>
       </c>
       <c r="E145" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="H145" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="J145" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>61010010</v>
+        <v>60300004</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>6910010</v>
+        <v>6520004</v>
       </c>
       <c r="E146" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="H146" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="J146" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>61010011</v>
+        <v>60300005</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>6910011</v>
+        <v>6520005</v>
       </c>
       <c r="E147" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="H147" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="J147" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" spans="1:10">
       <c r="A148">
-        <v>61010012</v>
+        <v>61010001</v>
       </c>
       <c r="B148">
         <v>10</v>
@@ -5806,21 +5892,22 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>6910012</v>
+        <v>6910001</v>
       </c>
       <c r="E148" t="s">
-        <v>387</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="F148"/>
       <c r="H148" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="J148" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>61010013</v>
+        <v>61010002</v>
       </c>
       <c r="B149">
         <v>10</v>
@@ -5829,24 +5916,24 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>6910013</v>
+        <v>6910002</v>
       </c>
       <c r="E149" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G149" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="H149" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="J149" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>61010014</v>
+        <v>61010003</v>
       </c>
       <c r="B150">
         <v>10</v>
@@ -5855,24 +5942,21 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>6910014</v>
+        <v>6910003</v>
       </c>
       <c r="E150" t="s">
-        <v>391</v>
-      </c>
-      <c r="G150" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="H150" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="J150" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>61010015</v>
+        <v>61010004</v>
       </c>
       <c r="B151">
         <v>10</v>
@@ -5881,24 +5965,24 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>6910015</v>
+        <v>6910004</v>
       </c>
       <c r="E151" t="s">
-        <v>393</v>
-      </c>
-      <c r="G151" t="s">
-        <v>369</v>
+        <v>405</v>
+      </c>
+      <c r="F151">
+        <v>-45</v>
       </c>
       <c r="H151" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="J151" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>61010016</v>
+        <v>61010005</v>
       </c>
       <c r="B152">
         <v>10</v>
@@ -5907,24 +5991,24 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>6910016</v>
+        <v>6910005</v>
       </c>
       <c r="E152" t="s">
-        <v>395</v>
-      </c>
-      <c r="G152" t="s">
-        <v>369</v>
+        <v>407</v>
+      </c>
+      <c r="F152">
+        <v>-45</v>
       </c>
       <c r="H152" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="J152" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>61010017</v>
+        <v>61010006</v>
       </c>
       <c r="B153">
         <v>10</v>
@@ -5933,21 +6017,24 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>6910017</v>
+        <v>6910006</v>
       </c>
       <c r="E153" t="s">
-        <v>397</v>
+        <v>409</v>
+      </c>
+      <c r="F153">
+        <v>-45</v>
       </c>
       <c r="H153" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="J153" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>61010018</v>
+        <v>61010007</v>
       </c>
       <c r="B154">
         <v>10</v>
@@ -5956,21 +6043,21 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>6910018</v>
+        <v>6910007</v>
       </c>
       <c r="E154" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H154" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="J154" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>61010019</v>
+        <v>61010008</v>
       </c>
       <c r="B155">
         <v>10</v>
@@ -5979,21 +6066,21 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>6910019</v>
+        <v>6910008</v>
       </c>
       <c r="E155" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H155" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="J155" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>61010020</v>
+        <v>61010009</v>
       </c>
       <c r="B156">
         <v>10</v>
@@ -6002,182 +6089,194 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>6910020</v>
+        <v>6910009</v>
       </c>
       <c r="E156" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="H156" t="s">
-        <v>404</v>
+        <v>64</v>
       </c>
       <c r="J156" t="s">
-        <v>404</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>70100001</v>
+        <v>61010010</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>7500001</v>
+        <v>6910010</v>
       </c>
       <c r="E157" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="H157" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="J157" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>70200001</v>
+        <v>61010011</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>7510001</v>
+        <v>6910011</v>
       </c>
       <c r="E158" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="H158" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="J158" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>70200002</v>
+        <v>61010012</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>7510002</v>
+        <v>6910012</v>
       </c>
       <c r="E159" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H159" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="J159" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>70300001</v>
+        <v>61010013</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>7520001</v>
+        <v>6910013</v>
       </c>
       <c r="E160" t="s">
-        <v>410</v>
+        <v>422</v>
+      </c>
+      <c r="G160" t="s">
+        <v>402</v>
       </c>
       <c r="H160" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="J160" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>70300002</v>
+        <v>61010014</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>7520002</v>
+        <v>6910014</v>
       </c>
       <c r="E161" t="s">
-        <v>412</v>
+        <v>424</v>
+      </c>
+      <c r="G161" t="s">
+        <v>402</v>
       </c>
       <c r="H161" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="J161" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>70300003</v>
+        <v>61010015</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>7520003</v>
+        <v>6910015</v>
       </c>
       <c r="E162" t="s">
-        <v>414</v>
+        <v>426</v>
+      </c>
+      <c r="G162" t="s">
+        <v>402</v>
       </c>
       <c r="H162" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="J162" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>70300004</v>
+        <v>61010016</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>7520004</v>
+        <v>6910016</v>
       </c>
       <c r="E163" t="s">
-        <v>416</v>
+        <v>428</v>
+      </c>
+      <c r="G163" t="s">
+        <v>402</v>
       </c>
       <c r="H163" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="J163" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>71000001</v>
+        <v>61010017</v>
       </c>
       <c r="B164">
         <v>10</v>
@@ -6186,24 +6285,21 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>7900001</v>
+        <v>6910017</v>
       </c>
       <c r="E164" t="s">
-        <v>418</v>
-      </c>
-      <c r="G164" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="H164" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="J164" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>71000002</v>
+        <v>61010018</v>
       </c>
       <c r="B165">
         <v>10</v>
@@ -6212,24 +6308,21 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>7900002</v>
+        <v>6910018</v>
       </c>
       <c r="E165" t="s">
-        <v>421</v>
-      </c>
-      <c r="G165" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H165" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="J165" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>71000003</v>
+        <v>61010019</v>
       </c>
       <c r="B166">
         <v>10</v>
@@ -6238,24 +6331,21 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>7900003</v>
+        <v>6910019</v>
       </c>
       <c r="E166" t="s">
-        <v>424</v>
-      </c>
-      <c r="G166" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H166" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="J166" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>71010001</v>
+        <v>61010020</v>
       </c>
       <c r="B167">
         <v>10</v>
@@ -6264,131 +6354,393 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>7910001</v>
+        <v>6910020</v>
       </c>
       <c r="E167" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H167" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="J167" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>71010002</v>
+        <v>70100001</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>7910002</v>
+        <v>7500001</v>
       </c>
       <c r="E168" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H168" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="J168" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>71010003</v>
+        <v>70200001</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>7910003</v>
+        <v>7510001</v>
       </c>
       <c r="E169" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="H169" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="J169" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>71010004</v>
+        <v>70200002</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>7910004</v>
+        <v>7510002</v>
       </c>
       <c r="E170" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H170" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="J170" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>71010005</v>
+        <v>70300001</v>
       </c>
       <c r="B171">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>7910005</v>
+        <v>7520001</v>
       </c>
       <c r="E171" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H171" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="J171" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
+        <v>70300002</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>7520002</v>
+      </c>
+      <c r="E172" t="s">
+        <v>445</v>
+      </c>
+      <c r="H172" t="s">
+        <v>446</v>
+      </c>
+      <c r="J172" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173">
+        <v>70300003</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>7520003</v>
+      </c>
+      <c r="E173" t="s">
+        <v>447</v>
+      </c>
+      <c r="H173" t="s">
+        <v>448</v>
+      </c>
+      <c r="J173" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174">
+        <v>70300004</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>7520004</v>
+      </c>
+      <c r="E174" t="s">
+        <v>449</v>
+      </c>
+      <c r="H174" t="s">
+        <v>450</v>
+      </c>
+      <c r="J174" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175">
+        <v>71000001</v>
+      </c>
+      <c r="B175">
+        <v>10</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>7900001</v>
+      </c>
+      <c r="E175" t="s">
+        <v>451</v>
+      </c>
+      <c r="G175" t="s">
+        <v>452</v>
+      </c>
+      <c r="H175" t="s">
+        <v>453</v>
+      </c>
+      <c r="J175" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176">
+        <v>71000002</v>
+      </c>
+      <c r="B176">
+        <v>10</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>7900002</v>
+      </c>
+      <c r="E176" t="s">
+        <v>454</v>
+      </c>
+      <c r="G176" t="s">
+        <v>455</v>
+      </c>
+      <c r="H176" t="s">
+        <v>456</v>
+      </c>
+      <c r="J176" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177">
+        <v>71000003</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>7900003</v>
+      </c>
+      <c r="E177" t="s">
+        <v>457</v>
+      </c>
+      <c r="G177" t="s">
+        <v>458</v>
+      </c>
+      <c r="H177" t="s">
+        <v>459</v>
+      </c>
+      <c r="J177" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178">
+        <v>71010001</v>
+      </c>
+      <c r="B178">
+        <v>10</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>7910001</v>
+      </c>
+      <c r="E178" t="s">
+        <v>460</v>
+      </c>
+      <c r="H178" t="s">
+        <v>461</v>
+      </c>
+      <c r="J178" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179">
+        <v>71010002</v>
+      </c>
+      <c r="B179">
+        <v>10</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>7910002</v>
+      </c>
+      <c r="E179" t="s">
+        <v>462</v>
+      </c>
+      <c r="H179" t="s">
+        <v>463</v>
+      </c>
+      <c r="J179" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <v>71010003</v>
+      </c>
+      <c r="B180">
+        <v>10</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>7910003</v>
+      </c>
+      <c r="E180" t="s">
+        <v>464</v>
+      </c>
+      <c r="H180" t="s">
+        <v>465</v>
+      </c>
+      <c r="J180" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181">
+        <v>71010004</v>
+      </c>
+      <c r="B181">
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>7910004</v>
+      </c>
+      <c r="E181" t="s">
+        <v>466</v>
+      </c>
+      <c r="H181" t="s">
+        <v>467</v>
+      </c>
+      <c r="J181" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182">
+        <v>71010005</v>
+      </c>
+      <c r="B182">
+        <v>10</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>7910005</v>
+      </c>
+      <c r="E182" t="s">
+        <v>468</v>
+      </c>
+      <c r="H182" t="s">
+        <v>469</v>
+      </c>
+      <c r="J182" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183">
         <v>71010006</v>
       </c>
-      <c r="B172">
-        <v>10</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172">
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
         <v>7910006</v>
       </c>
-      <c r="E172" t="s">
-        <v>437</v>
-      </c>
-      <c r="H172" t="s">
-        <v>438</v>
-      </c>
-      <c r="J172" t="s">
-        <v>438</v>
+      <c r="E183" t="s">
+        <v>470</v>
+      </c>
+      <c r="H183" t="s">
+        <v>471</v>
+      </c>
+      <c r="J183" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -2417,7 +2417,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1020001</v>
+        <v>1020002</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1020001</v>
+        <v>1020003</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1020001</v>
+        <v>1020004</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1020001</v>
+        <v>1100001</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1020001</v>
+        <v>1100002</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1020001</v>
+        <v>1100003</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1020001</v>
+        <v>1100004</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1020001</v>
+        <v>1120001</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1020001</v>
+        <v>1120002</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1020001</v>
+        <v>1120003</v>
       </c>
       <c r="E14" t="s">
         <v>54</v>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1020001</v>
+        <v>1120004</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="388">
   <si>
     <t>id</t>
   </si>
@@ -50,10 +50,7 @@
     <t>attack_mode_data</t>
   </si>
   <si>
-    <t>name_cn</t>
-  </si>
-  <si>
-    <t>name_en</t>
+    <t>name</t>
   </si>
   <si>
     <t>remark</t>
@@ -92,10 +89,7 @@
     <t>攻击模式相关数据(ShowSprite,VertexRotateAxis,VertexRotateSpeed,UVRotateSpeed,StartPosition)</t>
   </si>
   <si>
-    <t>名字中文</t>
-  </si>
-  <si>
-    <t>名字英文</t>
+    <t>名字</t>
   </si>
   <si>
     <t>备注</t>
@@ -104,1177 +98,931 @@
     <t>Human_Atlas_Hat_Hat_1</t>
   </si>
   <si>
-    <t>铁头盔</t>
-  </si>
-  <si>
     <t>人类-帽子-铁头盔</t>
   </si>
   <si>
     <t>Human_Atlas_Hat_Hat_2</t>
   </si>
   <si>
-    <t>钢头盔</t>
-  </si>
-  <si>
     <t>人类-帽子-钢头盔</t>
   </si>
   <si>
     <t>Human_Atlas_Hat_Hat_3</t>
   </si>
   <si>
-    <t>战斗魔法师帽</t>
-  </si>
-  <si>
     <t>人类-帽子-战斗魔法师帽</t>
   </si>
   <si>
     <t>Human_Atlas_Hat_Hat_4</t>
   </si>
   <si>
-    <t>射手兜帽</t>
-  </si>
-  <si>
     <t>人类-帽子-射手兜帽</t>
   </si>
   <si>
     <t>Human_Atlas_Clothes_Clothes_1</t>
   </si>
   <si>
-    <t>战士上衣</t>
-  </si>
-  <si>
     <t>人类-衣服-战士上衣</t>
   </si>
   <si>
     <t>Human_Atlas_Clothes_Clothes_2</t>
   </si>
   <si>
-    <t>战斗魔法师上衣</t>
-  </si>
-  <si>
     <t>人类-衣服-战斗魔法师上衣</t>
   </si>
   <si>
     <t>Human_Atlas_Clothes_Clothes_3</t>
   </si>
   <si>
-    <t>冒险者上衣</t>
-  </si>
-  <si>
     <t>人类-衣服-冒险者上衣</t>
   </si>
   <si>
     <t>Human_Atlas_Clothes_Clothes_4</t>
   </si>
   <si>
-    <t>射手上衣</t>
-  </si>
-  <si>
     <t>人类-衣服-射手上衣</t>
   </si>
   <si>
     <t>Human_Atlas_Pants_Pants_1</t>
   </si>
   <si>
-    <t>战士裤子</t>
-  </si>
-  <si>
     <t>人类-裤子-战士裤子</t>
   </si>
   <si>
     <t>Human_Atlas_Pants_Pants_2</t>
   </si>
   <si>
-    <t>战斗魔法师裤子</t>
-  </si>
-  <si>
     <t>人类-裤子-战斗魔法师裤子</t>
   </si>
   <si>
     <t>Human_Atlas_Pants_Pants_3</t>
   </si>
   <si>
-    <t>冒险者裤子</t>
-  </si>
-  <si>
     <t>人类-裤子-冒险者裤子</t>
   </si>
   <si>
     <t>Human_Atlas_Pants_Pants_4</t>
   </si>
   <si>
-    <t>射手裤子</t>
-  </si>
-  <si>
     <t>人类-裤子-射手裤子</t>
   </si>
   <si>
     <t>Human_Atlas_Weapon_Weapon_L_1</t>
   </si>
   <si>
-    <t>钢剑</t>
-  </si>
-  <si>
     <t>人类-武器-钢剑</t>
   </si>
   <si>
     <t>Human_Atlas_Weapon_Weapon_L_2</t>
   </si>
   <si>
+    <t>人类-武器-铁剑</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_3</t>
+  </si>
+  <si>
+    <t>人类-武器-火法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_4</t>
+  </si>
+  <si>
+    <t>人类-武器-冰法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_5</t>
+  </si>
+  <si>
+    <t>人类-武器-残破剑</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_6</t>
+  </si>
+  <si>
+    <t>人类-武器-短刀</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_7</t>
+  </si>
+  <si>
+    <t>人类-武器-绿宝石法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_8</t>
+  </si>
+  <si>
+    <t>人类-武器-魔力法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_L_9</t>
+  </si>
+  <si>
+    <t>人类-武器-星之法杖</t>
+  </si>
+  <si>
+    <t>Human_Atlas_Weapon_Weapon_R_1</t>
+  </si>
+  <si>
+    <t>人类-武器-木弓</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-皇冠</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_2</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-铁制头盔</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-异域头巾</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_4</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-魔力帽</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_5</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-草帽</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_6</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-恶魔头颅</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Hat_Hat_7</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-魔王之角</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-肩甲1</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-肩甲2</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_3</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-破烂的肩甲</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_4</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-丝绸披肩</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_5</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-魔法披肩</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_6</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-麻布衣</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_7</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-蔚蓝铠甲</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_8</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-破烂法衣</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_9</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-琥珀铠甲</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_10</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-远古铠甲</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Clothes_Clothes_11</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-深红战衣</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-破烂腰带</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-蔚蓝腰带</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Pants_Pants_3</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-破烂法裤</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Pants_Pants_4</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-琥珀腰带</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Pants_Pants_5</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-深红腰带</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_1</t>
+  </si>
+  <si>
+    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_1&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1</t>
+  </si>
+  <si>
+    <t>骷髅-武器-骨头</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_2</t>
+  </si>
+  <si>
+    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_2&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1</t>
+  </si>
+  <si>
+    <t>骷髅-武器-鸡腿</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_3</t>
+  </si>
+  <si>
+    <t>骷髅-武器-无用之书</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_4</t>
+  </si>
+  <si>
+    <t>骷髅-武器-木制圆盾</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_5</t>
+  </si>
+  <si>
+    <t>骷髅-武器-飞镖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_6</t>
+  </si>
+  <si>
+    <t>骷髅-武器-骷髅头</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_7</t>
+  </si>
+  <si>
+    <t>骷髅-武器-欧里给</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_8</t>
+  </si>
+  <si>
+    <t>骷髅-武器-苹果</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_9</t>
+  </si>
+  <si>
+    <t>骷髅-武器-28年拉菲</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_L_10</t>
+  </si>
+  <si>
+    <t>骷髅-武器-金币</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_1</t>
+  </si>
+  <si>
+    <t>骷髅-武器-铁剑</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_2</t>
+  </si>
+  <si>
+    <t>骷髅-武器-火法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_3</t>
+  </si>
+  <si>
+    <t>骷髅-武器-冰法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_4</t>
+  </si>
+  <si>
+    <t>骷髅-武器-残破剑</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_5</t>
+  </si>
+  <si>
+    <t>骷髅-武器-短刀</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_6</t>
+  </si>
+  <si>
+    <t>骷髅-武器-骷髅剑</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_7</t>
+  </si>
+  <si>
+    <t>骷髅-武器-金色刺剑</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_8</t>
+  </si>
+  <si>
+    <t>骷髅-武器-铲子</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_9</t>
+  </si>
+  <si>
+    <t>骷髅-武器-冰之哀伤</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_10</t>
+  </si>
+  <si>
+    <t>骷髅-武器-火之高兴</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_11</t>
+  </si>
+  <si>
+    <t>骷髅-武器-绿宝石法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_12</t>
+  </si>
+  <si>
+    <t>骷髅-武器-魔力法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_13</t>
+  </si>
+  <si>
+    <t>骷髅-武器-扫帚</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_14</t>
+  </si>
+  <si>
+    <t>骷髅-武器-星之法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_15</t>
+  </si>
+  <si>
+    <t>骷髅-武器-百变法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_16</t>
+  </si>
+  <si>
+    <t>骷髅-武器-琥珀法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_17</t>
+  </si>
+  <si>
+    <t>骷髅-武器-爱之天使</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_18</t>
+  </si>
+  <si>
+    <t>骷髅-武器-星域之杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_19</t>
+  </si>
+  <si>
+    <t>骷髅-武器-结晶法杖</t>
+  </si>
+  <si>
+    <t>Skeleton_Atlas_Weapon_Weapon_R_20</t>
+  </si>
+  <si>
+    <t>骷髅-武器-黑暗法杖</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-1</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_2</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-2</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-3</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_4</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-4</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_5</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-5</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_6</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-6</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_7</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-7</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_8</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-8</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_9</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-9</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_10</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-10</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_11</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-11</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_12</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-12</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_13</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-13</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_14</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-14</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_15</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-15</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_16</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-16</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_17</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-17</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_18</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-18</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_19</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-19</t>
+  </si>
+  <si>
+    <t>Slime_Atlas_Hat_Hat_20</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-20</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>修女帽</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
+    <t>粉色胸罩</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
+    <t>红色胸罩</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_3</t>
+  </si>
+  <si>
+    <t>修女服</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_4</t>
+  </si>
+  <si>
+    <t>魔女连体衣</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_5</t>
+  </si>
+  <si>
+    <t>丝带</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Clothes_Clothes_6</t>
+  </si>
+  <si>
+    <t>白色丝带</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
+    <t>粉色丝袜裤</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>红色内裤</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Pants_Pants_3</t>
+  </si>
+  <si>
+    <t>修女裤</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Pants_Pants_4</t>
+  </si>
+  <si>
+    <t>魔女连体裤</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_1</t>
+  </si>
+  <si>
+    <t>魔力镰刀</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_2</t>
+  </si>
+  <si>
+    <t>木制镰刀</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_3</t>
+  </si>
+  <si>
+    <t>鹦鹉镰刀</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_4</t>
+  </si>
+  <si>
+    <t>金制镰刀</t>
+  </si>
+  <si>
+    <t>Succubus_Atlas_Weapon_Weapon_L_5</t>
+  </si>
+  <si>
+    <t>剧毒镰刀</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
+    <t>红色头巾</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Hat_Hat_2</t>
+  </si>
+  <si>
+    <t>小花</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
+    <t>银制盔甲</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
+    <t>皮甲</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Clothes_Clothes_3</t>
+  </si>
+  <si>
+    <t>皮带胸甲</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
+    <t>骷髅腰带</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>红色铁制</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_1</t>
+  </si>
+  <si>
+    <t>铁制鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_2</t>
+  </si>
+  <si>
+    <t>反向铁制鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_3</t>
+  </si>
+  <si>
+    <t>小号铁制鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_4</t>
+  </si>
+  <si>
+    <t>金制鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_NoseRing_NoseRing_5</t>
+  </si>
+  <si>
+    <t>连环鼻环</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Weapon_Weapon_R_1</t>
+  </si>
+  <si>
+    <t>ShowSprite:Minotaur_Atlas_Weapon_Weapon_R_1&amp;VertexRotateSpeed:5&amp;VertexRotateAxis:0,0,-1&amp;StartSize:2</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Weapon_Weapon_R_2</t>
+  </si>
+  <si>
+    <t>ShowSprite:Minotaur_Atlas_Weapon_Weapon_R_2&amp;VertexRotateSpeed:5&amp;VertexRotateAxis:0,0,-1&amp;StartSize:2</t>
+  </si>
+  <si>
+    <t>魔晶</t>
+  </si>
+  <si>
+    <t>Minotaur_Atlas_Weapon_Weapon_R_3</t>
+  </si>
+  <si>
+    <t>ShowSprite:Minotaur_Atlas_Weapon_Weapon_R_3&amp;VertexRotateSpeed:5&amp;VertexRotateAxis:0,0,-1&amp;StartSize:2</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_1</t>
+  </si>
+  <si>
+    <t>木制面具</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_2</t>
+  </si>
+  <si>
+    <t>头巾</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_3</t>
+  </si>
+  <si>
+    <t>金耳环</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_4</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_5</t>
+  </si>
+  <si>
+    <t>蓝色头巾</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_6</t>
+  </si>
+  <si>
+    <t>布头罩</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_7</t>
+  </si>
+  <si>
+    <t>红色羽毛帽</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_8</t>
+  </si>
+  <si>
+    <t>熊头帽</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_9</t>
+  </si>
+  <si>
+    <t>独眼罩</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Hat_Hat_10</t>
+  </si>
+  <si>
+    <t>皮头罩</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Clothes_Clothes_1</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Clothes_Clothes_2</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_1</t>
+  </si>
+  <si>
+    <t>皮裤</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_2</t>
+  </si>
+  <si>
+    <t>腰盔甲</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_3</t>
+  </si>
+  <si>
+    <t>布裤子</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_4</t>
+  </si>
+  <si>
+    <t>熊裤子</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Pants_Pants_5</t>
+  </si>
+  <si>
+    <t>蓝裤子</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_1</t>
+  </si>
+  <si>
+    <t>金刀</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_2</t>
+  </si>
+  <si>
+    <t>ShowSprite:Goblin_Atlas_Other_Arrow_1&amp;VertexRotateSpeed:0&amp;VertexRotateAxis:0,0,-1&amp;StartSize:1</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_3</t>
+  </si>
+  <si>
+    <t>木法杖</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_4</t>
+  </si>
+  <si>
+    <t>骷髅法杖</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_5</t>
+  </si>
+  <si>
+    <t>十字法杖</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_6</t>
+  </si>
+  <si>
+    <t>蔚蓝法棍</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_7</t>
+  </si>
+  <si>
+    <t>死亡之书</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_8</t>
+  </si>
+  <si>
+    <t>猩红之酒</t>
+  </si>
+  <si>
+    <t>Goblin_Atlas_Weapon_Weapon_R_9</t>
+  </si>
+  <si>
     <t>铁剑</t>
-  </si>
-  <si>
-    <t>人类-武器-铁剑</t>
-  </si>
-  <si>
-    <t>Human_Atlas_Weapon_Weapon_L_3</t>
-  </si>
-  <si>
-    <t>火法杖</t>
-  </si>
-  <si>
-    <t>人类-武器-火法杖</t>
-  </si>
-  <si>
-    <t>Human_Atlas_Weapon_Weapon_L_4</t>
-  </si>
-  <si>
-    <t>冰法杖</t>
-  </si>
-  <si>
-    <t>人类-武器-冰法杖</t>
-  </si>
-  <si>
-    <t>Human_Atlas_Weapon_Weapon_L_5</t>
-  </si>
-  <si>
-    <t>残破剑</t>
-  </si>
-  <si>
-    <t>人类-武器-残破剑</t>
-  </si>
-  <si>
-    <t>Human_Atlas_Weapon_Weapon_L_6</t>
-  </si>
-  <si>
-    <t>短刀</t>
-  </si>
-  <si>
-    <t>人类-武器-短刀</t>
-  </si>
-  <si>
-    <t>Human_Atlas_Weapon_Weapon_L_7</t>
-  </si>
-  <si>
-    <t>绿宝石法杖</t>
-  </si>
-  <si>
-    <t>人类-武器-绿宝石法杖</t>
-  </si>
-  <si>
-    <t>Human_Atlas_Weapon_Weapon_L_8</t>
-  </si>
-  <si>
-    <t>魔力法杖</t>
-  </si>
-  <si>
-    <t>人类-武器-魔力法杖</t>
-  </si>
-  <si>
-    <t>Human_Atlas_Weapon_Weapon_L_9</t>
-  </si>
-  <si>
-    <t>星之法杖</t>
-  </si>
-  <si>
-    <t>人类-武器-星之法杖</t>
-  </si>
-  <si>
-    <t>Human_Atlas_Weapon_Weapon_R_1</t>
-  </si>
-  <si>
-    <t>木弓</t>
-  </si>
-  <si>
-    <t>人类-武器-木弓</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Hat_Hat_1</t>
-  </si>
-  <si>
-    <t>皇冠</t>
-  </si>
-  <si>
-    <t>骷髅-帽子-皇冠</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Hat_Hat_2</t>
-  </si>
-  <si>
-    <t>铁制头盔</t>
-  </si>
-  <si>
-    <t>骷髅-帽子-铁制头盔</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Hat_Hat_3</t>
-  </si>
-  <si>
-    <t>异域头巾</t>
-  </si>
-  <si>
-    <t>骷髅-帽子-异域头巾</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Hat_Hat_4</t>
-  </si>
-  <si>
-    <t>魔力帽</t>
-  </si>
-  <si>
-    <t>骷髅-帽子-魔力帽</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Hat_Hat_5</t>
-  </si>
-  <si>
-    <t>草帽</t>
-  </si>
-  <si>
-    <t>骷髅-帽子-草帽</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Hat_Hat_6</t>
-  </si>
-  <si>
-    <t>恶魔头颅</t>
-  </si>
-  <si>
-    <t>骷髅-帽子-恶魔头颅</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Hat_Hat_7</t>
-  </si>
-  <si>
-    <t>魔王之角</t>
-  </si>
-  <si>
-    <t>骷髅-帽子-魔王之角</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_1</t>
-  </si>
-  <si>
-    <t>质朴肩甲</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-肩甲1</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_2</t>
-  </si>
-  <si>
-    <t>加长肩甲</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-肩甲2</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_3</t>
-  </si>
-  <si>
-    <t>破烂肩甲</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-破烂的肩甲</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_4</t>
-  </si>
-  <si>
-    <t>丝绸披肩</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-丝绸披肩</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_5</t>
-  </si>
-  <si>
-    <t>魔法披肩</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-魔法披肩</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_6</t>
-  </si>
-  <si>
-    <t>麻布衣</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-麻布衣</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_7</t>
-  </si>
-  <si>
-    <t>蔚蓝铠甲</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-蔚蓝铠甲</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_8</t>
-  </si>
-  <si>
-    <t>破烂法衣</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-破烂法衣</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_9</t>
-  </si>
-  <si>
-    <t>琥珀铠甲</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-琥珀铠甲</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_10</t>
-  </si>
-  <si>
-    <t>远古铠甲</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-远古铠甲</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Clothes_Clothes_11</t>
-  </si>
-  <si>
-    <t>深红战衣</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-深红战衣</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Pants_Pants_1</t>
-  </si>
-  <si>
-    <t>破烂腰带</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-破烂腰带</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Pants_Pants_2</t>
-  </si>
-  <si>
-    <t>蔚蓝腰带</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-蔚蓝腰带</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Pants_Pants_3</t>
-  </si>
-  <si>
-    <t>破烂法裤</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-破烂法裤</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Pants_Pants_4</t>
-  </si>
-  <si>
-    <t>琥珀腰带</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-琥珀腰带</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Pants_Pants_5</t>
-  </si>
-  <si>
-    <t>深红腰带</t>
-  </si>
-  <si>
-    <t>骷髅-衣服-深红腰带</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_1</t>
-  </si>
-  <si>
-    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_1&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1</t>
-  </si>
-  <si>
-    <t>骨头</t>
-  </si>
-  <si>
-    <t>骷髅-武器-骨头</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_2</t>
-  </si>
-  <si>
-    <t>ShowSprite:Skeleton_Atlas_Weapon_Weapon_L_2&amp;VertexRotateSpeed:10&amp;VertexRotateAxis:0,0,-1</t>
-  </si>
-  <si>
-    <t>鸡腿</t>
-  </si>
-  <si>
-    <t>骷髅-武器-鸡腿</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_3</t>
-  </si>
-  <si>
-    <t>无用之书</t>
-  </si>
-  <si>
-    <t>骷髅-武器-无用之书</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_4</t>
-  </si>
-  <si>
-    <t>木制圆盾</t>
-  </si>
-  <si>
-    <t>骷髅-武器-木制圆盾</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_5</t>
-  </si>
-  <si>
-    <t>飞镖</t>
-  </si>
-  <si>
-    <t>骷髅-武器-飞镖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_6</t>
-  </si>
-  <si>
-    <t>骷髅头</t>
-  </si>
-  <si>
-    <t>骷髅-武器-骷髅头</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_7</t>
-  </si>
-  <si>
-    <t>欧里给</t>
-  </si>
-  <si>
-    <t>骷髅-武器-欧里给</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_8</t>
-  </si>
-  <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>骷髅-武器-苹果</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_9</t>
-  </si>
-  <si>
-    <t>28年拉菲</t>
-  </si>
-  <si>
-    <t>骷髅-武器-28年拉菲</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_L_10</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>骷髅-武器-金币</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_1</t>
-  </si>
-  <si>
-    <t>骷髅-武器-铁剑</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_2</t>
-  </si>
-  <si>
-    <t>骷髅-武器-火法杖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_3</t>
-  </si>
-  <si>
-    <t>骷髅-武器-冰法杖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_4</t>
-  </si>
-  <si>
-    <t>骷髅-武器-残破剑</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_5</t>
-  </si>
-  <si>
-    <t>骷髅-武器-短刀</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_6</t>
-  </si>
-  <si>
-    <t>骷髅剑</t>
-  </si>
-  <si>
-    <t>骷髅-武器-骷髅剑</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_7</t>
-  </si>
-  <si>
-    <t>金色刺剑</t>
-  </si>
-  <si>
-    <t>骷髅-武器-金色刺剑</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_8</t>
-  </si>
-  <si>
-    <t>铲子</t>
-  </si>
-  <si>
-    <t>骷髅-武器-铲子</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_9</t>
-  </si>
-  <si>
-    <t>冰之哀伤</t>
-  </si>
-  <si>
-    <t>骷髅-武器-冰之哀伤</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_10</t>
-  </si>
-  <si>
-    <t>火之高兴</t>
-  </si>
-  <si>
-    <t>骷髅-武器-火之高兴</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_11</t>
-  </si>
-  <si>
-    <t>骷髅-武器-绿宝石法杖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_12</t>
-  </si>
-  <si>
-    <t>骷髅-武器-魔力法杖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_13</t>
-  </si>
-  <si>
-    <t>扫帚</t>
-  </si>
-  <si>
-    <t>骷髅-武器-扫帚</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_14</t>
-  </si>
-  <si>
-    <t>骷髅-武器-星之法杖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_15</t>
-  </si>
-  <si>
-    <t>百变法杖</t>
-  </si>
-  <si>
-    <t>骷髅-武器-百变法杖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_16</t>
-  </si>
-  <si>
-    <t>琥珀法杖</t>
-  </si>
-  <si>
-    <t>骷髅-武器-琥珀法杖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_17</t>
-  </si>
-  <si>
-    <t>爱之天使</t>
-  </si>
-  <si>
-    <t>骷髅-武器-爱之天使</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_18</t>
-  </si>
-  <si>
-    <t>星域之杖</t>
-  </si>
-  <si>
-    <t>骷髅-武器-星域之杖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_19</t>
-  </si>
-  <si>
-    <t>结晶法杖</t>
-  </si>
-  <si>
-    <t>骷髅-武器-结晶法杖</t>
-  </si>
-  <si>
-    <t>Skeleton_Atlas_Weapon_Weapon_R_20</t>
-  </si>
-  <si>
-    <t>黑暗法杖</t>
-  </si>
-  <si>
-    <t>骷髅-武器-黑暗法杖</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_1</t>
-  </si>
-  <si>
-    <t>魔法帽</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-1</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_2</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-2</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_3</t>
-  </si>
-  <si>
-    <t>毛茸茸</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-3</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_4</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-4</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_5</t>
-  </si>
-  <si>
-    <t>海盗帽</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-5</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_6</t>
-  </si>
-  <si>
-    <t>蘑菇帽</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-6</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_7</t>
-  </si>
-  <si>
-    <t>残破的剑</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-7</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_8</t>
-  </si>
-  <si>
-    <t>幽灵帽</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-8</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_9</t>
-  </si>
-  <si>
-    <t>黄毛</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-9</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_10</t>
-  </si>
-  <si>
-    <t>飞翔头盔</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-10</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_11</t>
-  </si>
-  <si>
-    <t>墨镜</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-11</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_12</t>
-  </si>
-  <si>
-    <t>杀人面具</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-12</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_13</t>
-  </si>
-  <si>
-    <t>厨师帽</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-13</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_14</t>
-  </si>
-  <si>
-    <t>小花</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-14</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_15</t>
-  </si>
-  <si>
-    <t>兔耳朵</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-15</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_16</t>
-  </si>
-  <si>
-    <t>药罐</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-16</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_17</t>
-  </si>
-  <si>
-    <t>魔眼</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-17</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_18</t>
-  </si>
-  <si>
-    <t>心脏</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-18</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_19</t>
-  </si>
-  <si>
-    <t>大脑</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-19</t>
-  </si>
-  <si>
-    <t>Slime_Atlas_Hat_Hat_20</t>
-  </si>
-  <si>
-    <t>头骨</t>
-  </si>
-  <si>
-    <t>史莱姆-帽子-20</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Hat_Hat_3</t>
-  </si>
-  <si>
-    <t>修女帽</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Clothes_Clothes_1</t>
-  </si>
-  <si>
-    <t>粉色胸罩</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Clothes_Clothes_2</t>
-  </si>
-  <si>
-    <t>红色胸罩</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Clothes_Clothes_3</t>
-  </si>
-  <si>
-    <t>修女服</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Clothes_Clothes_4</t>
-  </si>
-  <si>
-    <t>魔女连体衣</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Clothes_Clothes_5</t>
-  </si>
-  <si>
-    <t>丝带</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Clothes_Clothes_6</t>
-  </si>
-  <si>
-    <t>白色丝带</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Pants_Pants_1</t>
-  </si>
-  <si>
-    <t>粉色丝袜裤</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Pants_Pants_2</t>
-  </si>
-  <si>
-    <t>红色内裤</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Pants_Pants_3</t>
-  </si>
-  <si>
-    <t>修女裤</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Pants_Pants_4</t>
-  </si>
-  <si>
-    <t>魔女连体裤</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Weapon_Weapon_L_1</t>
-  </si>
-  <si>
-    <t>魔力镰刀</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Weapon_Weapon_L_2</t>
-  </si>
-  <si>
-    <t>木制镰刀</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Weapon_Weapon_L_3</t>
-  </si>
-  <si>
-    <t>鹦鹉镰刀</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Weapon_Weapon_L_4</t>
-  </si>
-  <si>
-    <t>金制镰刀</t>
-  </si>
-  <si>
-    <t>Succubus_Atlas_Weapon_Weapon_L_5</t>
-  </si>
-  <si>
-    <t>剧毒镰刀</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Hat_Hat_1</t>
-  </si>
-  <si>
-    <t>红色头巾</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Hat_Hat_2</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Hat_Hat_3</t>
-  </si>
-  <si>
-    <t>蘑菇</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Clothes_Clothes_1</t>
-  </si>
-  <si>
-    <t>银制盔甲</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Clothes_Clothes_2</t>
-  </si>
-  <si>
-    <t>皮甲</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Clothes_Clothes_3</t>
-  </si>
-  <si>
-    <t>皮带胸甲</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Pants_Pants_1</t>
-  </si>
-  <si>
-    <t>骷髅腰带</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Pants_Pants_2</t>
-  </si>
-  <si>
-    <t>红色铁制</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_NoseRing_NoseRing_1</t>
-  </si>
-  <si>
-    <t>铁制鼻环</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_NoseRing_NoseRing_2</t>
-  </si>
-  <si>
-    <t>反向铁制鼻环</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_NoseRing_NoseRing_3</t>
-  </si>
-  <si>
-    <t>小号铁制鼻环</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_NoseRing_NoseRing_4</t>
-  </si>
-  <si>
-    <t>金制鼻环</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_NoseRing_NoseRing_5</t>
-  </si>
-  <si>
-    <t>连环鼻环</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Weapon_Weapon_R_1</t>
-  </si>
-  <si>
-    <t>ShowSprite:Minotaur_Atlas_Weapon_Weapon_R_1&amp;VertexRotateSpeed:5&amp;VertexRotateAxis:0,0,-1&amp;StartSize:2</t>
-  </si>
-  <si>
-    <t>石头</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Weapon_Weapon_R_2</t>
-  </si>
-  <si>
-    <t>ShowSprite:Minotaur_Atlas_Weapon_Weapon_R_2&amp;VertexRotateSpeed:5&amp;VertexRotateAxis:0,0,-1&amp;StartSize:2</t>
-  </si>
-  <si>
-    <t>魔晶</t>
-  </si>
-  <si>
-    <t>Minotaur_Atlas_Weapon_Weapon_R_3</t>
-  </si>
-  <si>
-    <t>ShowSprite:Minotaur_Atlas_Weapon_Weapon_R_3&amp;VertexRotateSpeed:5&amp;VertexRotateAxis:0,0,-1&amp;StartSize:2</t>
-  </si>
-  <si>
-    <t>宝箱</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_1</t>
-  </si>
-  <si>
-    <t>木制面具</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_2</t>
-  </si>
-  <si>
-    <t>头巾</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_3</t>
-  </si>
-  <si>
-    <t>金耳环</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_4</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_5</t>
-  </si>
-  <si>
-    <t>蓝色头巾</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_6</t>
-  </si>
-  <si>
-    <t>布头罩</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_7</t>
-  </si>
-  <si>
-    <t>红色羽毛帽</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_8</t>
-  </si>
-  <si>
-    <t>熊头帽</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_9</t>
-  </si>
-  <si>
-    <t>独眼罩</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Hat_Hat_10</t>
-  </si>
-  <si>
-    <t>皮头罩</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Clothes_Clothes_1</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Clothes_Clothes_2</t>
-  </si>
-  <si>
-    <t>布衣</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Pants_Pants_1</t>
-  </si>
-  <si>
-    <t>皮裤</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Pants_Pants_2</t>
-  </si>
-  <si>
-    <t>腰盔甲</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Pants_Pants_3</t>
-  </si>
-  <si>
-    <t>布裤子</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Pants_Pants_4</t>
-  </si>
-  <si>
-    <t>熊裤子</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Pants_Pants_5</t>
-  </si>
-  <si>
-    <t>蓝裤子</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Weapon_Weapon_R_1</t>
-  </si>
-  <si>
-    <t>金刀</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Weapon_Weapon_R_2</t>
-  </si>
-  <si>
-    <t>ShowSprite:Goblin_Atlas_Other_Arrow_1&amp;VertexRotateSpeed:0&amp;VertexRotateAxis:0,0,-1&amp;StartSize:1</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Weapon_Weapon_R_3</t>
-  </si>
-  <si>
-    <t>木法杖</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Weapon_Weapon_R_4</t>
-  </si>
-  <si>
-    <t>骷髅法杖</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Weapon_Weapon_R_5</t>
-  </si>
-  <si>
-    <t>十字法杖</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Weapon_Weapon_R_6</t>
-  </si>
-  <si>
-    <t>蔚蓝法棍</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Weapon_Weapon_R_7</t>
-  </si>
-  <si>
-    <t>死亡之书</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Weapon_Weapon_R_8</t>
-  </si>
-  <si>
-    <t>猩红之酒</t>
-  </si>
-  <si>
-    <t>Goblin_Atlas_Weapon_Weapon_R_9</t>
   </si>
   <si>
     <t>Goblin_Atlas_Weapon_Weapon_R_10</t>
@@ -2410,14 +2158,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2430,11 +2178,10 @@
     <col min="6" max="6" width="31.75" customWidth="1"/>
     <col min="7" max="7" width="93.875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="42.875" customWidth="1"/>
+    <col min="9" max="9" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2462,75 +2209,66 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
       <c r="A4">
         <v>10100001</v>
       </c>
@@ -2544,16 +2282,16 @@
         <v>1020001</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>60010100001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5">
         <v>10100002</v>
       </c>
@@ -2567,16 +2305,16 @@
         <v>1020002</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>60010100002</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
       <c r="A6">
         <v>10100003</v>
       </c>
@@ -2590,16 +2328,16 @@
         <v>1020003</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>60010100003</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:9">
       <c r="A7">
         <v>10100004</v>
       </c>
@@ -2613,16 +2351,16 @@
         <v>1020004</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>60010100004</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:9">
       <c r="A8">
         <v>10200001</v>
       </c>
@@ -2636,16 +2374,16 @@
         <v>1100001</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>60010200001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:9">
       <c r="A9">
         <v>10200002</v>
       </c>
@@ -2659,16 +2397,16 @@
         <v>1100002</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:10">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>60010200002</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:9">
       <c r="A10">
         <v>10200003</v>
       </c>
@@ -2682,16 +2420,16 @@
         <v>1100003</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>60010200003</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:9">
       <c r="A11">
         <v>10200004</v>
       </c>
@@ -2705,16 +2443,16 @@
         <v>1100004</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>60010200004</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
       <c r="A12">
         <v>10300001</v>
       </c>
@@ -2728,16 +2466,16 @@
         <v>1120001</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:10">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>60010300001</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
       <c r="A13">
         <v>10300002</v>
       </c>
@@ -2751,16 +2489,16 @@
         <v>1120002</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>60010300002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:9">
       <c r="A14">
         <v>10300003</v>
       </c>
@@ -2774,16 +2512,16 @@
         <v>1120003</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <v>60010300003</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:9">
       <c r="A15">
         <v>10300004</v>
       </c>
@@ -2797,16 +2535,16 @@
         <v>1120004</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>60010300004</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:9">
       <c r="A16">
         <v>11000001</v>
       </c>
@@ -2820,16 +2558,16 @@
         <v>1900001</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="H16">
+        <v>60011000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:9">
       <c r="A17">
         <v>11000002</v>
       </c>
@@ -2843,16 +2581,16 @@
         <v>1900002</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>60011000002</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:9">
       <c r="A18">
         <v>11000003</v>
       </c>
@@ -2866,16 +2604,16 @@
         <v>1900003</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:10">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>60011000003</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:9">
       <c r="A19">
         <v>11000004</v>
       </c>
@@ -2889,16 +2627,16 @@
         <v>1900004</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:10">
+        <v>52</v>
+      </c>
+      <c r="H19">
+        <v>60011000004</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:9">
       <c r="A20">
         <v>11000005</v>
       </c>
@@ -2912,16 +2650,16 @@
         <v>1900005</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:10">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>60011000005</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:9">
       <c r="A21">
         <v>11000006</v>
       </c>
@@ -2935,16 +2673,16 @@
         <v>1900006</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:10">
+        <v>56</v>
+      </c>
+      <c r="H21">
+        <v>60011000006</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:9">
       <c r="A22">
         <v>11000007</v>
       </c>
@@ -2958,16 +2696,16 @@
         <v>1900007</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:10">
+        <v>58</v>
+      </c>
+      <c r="H22">
+        <v>60011000007</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:9">
       <c r="A23">
         <v>11000008</v>
       </c>
@@ -2981,16 +2719,16 @@
         <v>1900008</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>60011000008</v>
+      </c>
+      <c r="I23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:9">
       <c r="A24">
         <v>11000009</v>
       </c>
@@ -3004,16 +2742,16 @@
         <v>1900009</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:10">
+        <v>62</v>
+      </c>
+      <c r="H24">
+        <v>60011000009</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:9">
       <c r="A25">
         <v>11010001</v>
       </c>
@@ -3027,16 +2765,16 @@
         <v>1910001</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>64</v>
+      </c>
+      <c r="H25">
+        <v>60011010001</v>
+      </c>
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>20100001</v>
       </c>
@@ -3050,16 +2788,16 @@
         <v>2500001</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>66</v>
+      </c>
+      <c r="H26">
+        <v>60020100001</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>20100002</v>
       </c>
@@ -3073,16 +2811,16 @@
         <v>2500002</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="H27">
+        <v>60020100002</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>20100003</v>
       </c>
@@ -3096,16 +2834,16 @@
         <v>2500003</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" t="s">
-        <v>97</v>
-      </c>
-      <c r="J28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>70</v>
+      </c>
+      <c r="H28">
+        <v>60020100003</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>20100004</v>
       </c>
@@ -3119,16 +2857,16 @@
         <v>2500004</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="H29">
+        <v>60020100004</v>
+      </c>
+      <c r="I29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>20100005</v>
       </c>
@@ -3142,16 +2880,16 @@
         <v>2500005</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" t="s">
-        <v>103</v>
-      </c>
-      <c r="J30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>74</v>
+      </c>
+      <c r="H30">
+        <v>60020100005</v>
+      </c>
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>20100006</v>
       </c>
@@ -3165,16 +2903,16 @@
         <v>2500006</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" t="s">
-        <v>106</v>
-      </c>
-      <c r="J31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>76</v>
+      </c>
+      <c r="H31">
+        <v>60020100006</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>20100007</v>
       </c>
@@ -3188,16 +2926,16 @@
         <v>2500007</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="H32">
+        <v>60020100007</v>
+      </c>
+      <c r="I32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>20200001</v>
       </c>
@@ -3211,16 +2949,16 @@
         <v>2510001</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>80</v>
+      </c>
+      <c r="H33">
+        <v>60020200001</v>
+      </c>
+      <c r="I33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>20200002</v>
       </c>
@@ -3234,16 +2972,16 @@
         <v>2510002</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:10">
+        <v>82</v>
+      </c>
+      <c r="H34">
+        <v>60020200002</v>
+      </c>
+      <c r="I34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:9">
       <c r="A35">
         <v>20200003</v>
       </c>
@@ -3257,16 +2995,16 @@
         <v>2510003</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" t="s">
-        <v>118</v>
-      </c>
-      <c r="J35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="H35">
+        <v>60020200003</v>
+      </c>
+      <c r="I35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>20200004</v>
       </c>
@@ -3280,16 +3018,16 @@
         <v>2510004</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="H36">
+        <v>60020200004</v>
+      </c>
+      <c r="I36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>20200005</v>
       </c>
@@ -3303,16 +3041,16 @@
         <v>2510005</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" t="s">
-        <v>124</v>
-      </c>
-      <c r="J37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>88</v>
+      </c>
+      <c r="H37">
+        <v>60020200005</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>20200006</v>
       </c>
@@ -3326,16 +3064,16 @@
         <v>2510006</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38" t="s">
-        <v>127</v>
-      </c>
-      <c r="J38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>90</v>
+      </c>
+      <c r="H38">
+        <v>60020200006</v>
+      </c>
+      <c r="I38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>20200007</v>
       </c>
@@ -3349,16 +3087,16 @@
         <v>2510007</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" t="s">
-        <v>130</v>
-      </c>
-      <c r="J39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>92</v>
+      </c>
+      <c r="H39">
+        <v>60020200007</v>
+      </c>
+      <c r="I39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>20200008</v>
       </c>
@@ -3372,16 +3110,16 @@
         <v>2510008</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" t="s">
-        <v>133</v>
-      </c>
-      <c r="J40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>94</v>
+      </c>
+      <c r="H40">
+        <v>60020200008</v>
+      </c>
+      <c r="I40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>20200009</v>
       </c>
@@ -3395,16 +3133,16 @@
         <v>2510009</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>96</v>
+      </c>
+      <c r="H41">
+        <v>60020200009</v>
+      </c>
+      <c r="I41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>20200010</v>
       </c>
@@ -3418,16 +3156,16 @@
         <v>2510010</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" t="s">
-        <v>139</v>
-      </c>
-      <c r="J42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>98</v>
+      </c>
+      <c r="H42">
+        <v>60020200010</v>
+      </c>
+      <c r="I42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>20200011</v>
       </c>
@@ -3441,16 +3179,16 @@
         <v>2510011</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
-      </c>
-      <c r="H43" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>60020200011</v>
+      </c>
+      <c r="I43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>20300001</v>
       </c>
@@ -3464,16 +3202,16 @@
         <v>2520001</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" t="s">
-        <v>145</v>
-      </c>
-      <c r="J44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>102</v>
+      </c>
+      <c r="H44">
+        <v>60020300001</v>
+      </c>
+      <c r="I44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>20300002</v>
       </c>
@@ -3487,16 +3225,16 @@
         <v>2520002</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" t="s">
-        <v>148</v>
-      </c>
-      <c r="J45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>104</v>
+      </c>
+      <c r="H45">
+        <v>60020300002</v>
+      </c>
+      <c r="I45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>20300003</v>
       </c>
@@ -3510,16 +3248,16 @@
         <v>2520003</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" t="s">
-        <v>151</v>
-      </c>
-      <c r="J46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="H46">
+        <v>60020300003</v>
+      </c>
+      <c r="I46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>20300004</v>
       </c>
@@ -3533,16 +3271,16 @@
         <v>2520004</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" t="s">
-        <v>154</v>
-      </c>
-      <c r="J47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>108</v>
+      </c>
+      <c r="H47">
+        <v>60020300004</v>
+      </c>
+      <c r="I47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>20300005</v>
       </c>
@@ -3556,16 +3294,16 @@
         <v>2520005</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
-      </c>
-      <c r="H48" t="s">
-        <v>157</v>
-      </c>
-      <c r="J48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" ht="12" customHeight="1" spans="1:10">
+        <v>110</v>
+      </c>
+      <c r="H48">
+        <v>60020300005</v>
+      </c>
+      <c r="I48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" ht="12" customHeight="1" spans="1:9">
       <c r="A49">
         <v>21000001</v>
       </c>
@@ -3579,22 +3317,22 @@
         <v>2900001</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="F49">
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>160</v>
-      </c>
-      <c r="H49" t="s">
-        <v>161</v>
-      </c>
-      <c r="J49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>113</v>
+      </c>
+      <c r="H49">
+        <v>60021000001</v>
+      </c>
+      <c r="I49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>21000002</v>
       </c>
@@ -3608,22 +3346,22 @@
         <v>2900002</v>
       </c>
       <c r="E50" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F50">
         <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>164</v>
-      </c>
-      <c r="H50" t="s">
-        <v>165</v>
-      </c>
-      <c r="J50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>116</v>
+      </c>
+      <c r="H50">
+        <v>60021000002</v>
+      </c>
+      <c r="I50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>21000003</v>
       </c>
@@ -3637,16 +3375,16 @@
         <v>2900003</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
-      </c>
-      <c r="H51" t="s">
-        <v>168</v>
-      </c>
-      <c r="J51" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="H51">
+        <v>60021000003</v>
+      </c>
+      <c r="I51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>21000004</v>
       </c>
@@ -3660,16 +3398,16 @@
         <v>2900004</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
-      </c>
-      <c r="H52" t="s">
-        <v>171</v>
-      </c>
-      <c r="J52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>120</v>
+      </c>
+      <c r="H52">
+        <v>60021000004</v>
+      </c>
+      <c r="I52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>21000005</v>
       </c>
@@ -3683,16 +3421,16 @@
         <v>2900005</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
-      </c>
-      <c r="H53" t="s">
-        <v>174</v>
-      </c>
-      <c r="J53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>122</v>
+      </c>
+      <c r="H53">
+        <v>60021000005</v>
+      </c>
+      <c r="I53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>21000006</v>
       </c>
@@ -3706,16 +3444,16 @@
         <v>2900006</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" t="s">
-        <v>177</v>
-      </c>
-      <c r="J54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="H54">
+        <v>60021000006</v>
+      </c>
+      <c r="I54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>21000007</v>
       </c>
@@ -3729,16 +3467,16 @@
         <v>2900007</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
-      </c>
-      <c r="H55" t="s">
-        <v>180</v>
-      </c>
-      <c r="J55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>126</v>
+      </c>
+      <c r="H55">
+        <v>60021000007</v>
+      </c>
+      <c r="I55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>21000008</v>
       </c>
@@ -3752,16 +3490,16 @@
         <v>2900008</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
-      </c>
-      <c r="H56" t="s">
-        <v>183</v>
-      </c>
-      <c r="J56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>128</v>
+      </c>
+      <c r="H56">
+        <v>60021000008</v>
+      </c>
+      <c r="I56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>21000009</v>
       </c>
@@ -3775,16 +3513,16 @@
         <v>2900009</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
-      </c>
-      <c r="H57" t="s">
-        <v>186</v>
-      </c>
-      <c r="J57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>130</v>
+      </c>
+      <c r="H57">
+        <v>60021000009</v>
+      </c>
+      <c r="I57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>21000010</v>
       </c>
@@ -3798,16 +3536,16 @@
         <v>2900010</v>
       </c>
       <c r="E58" t="s">
-        <v>188</v>
-      </c>
-      <c r="H58" t="s">
-        <v>189</v>
-      </c>
-      <c r="J58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>132</v>
+      </c>
+      <c r="H58">
+        <v>60021000010</v>
+      </c>
+      <c r="I58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>21010001</v>
       </c>
@@ -3821,19 +3559,19 @@
         <v>2910001</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="F59">
         <v>-45</v>
       </c>
-      <c r="H59" t="s">
-        <v>64</v>
-      </c>
-      <c r="J59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="H59">
+        <v>60021010001</v>
+      </c>
+      <c r="I59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>21010002</v>
       </c>
@@ -3847,19 +3585,19 @@
         <v>2910002</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="F60">
         <v>-45</v>
       </c>
-      <c r="H60" t="s">
-        <v>67</v>
-      </c>
-      <c r="J60" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="H60">
+        <v>60021010002</v>
+      </c>
+      <c r="I60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>21010003</v>
       </c>
@@ -3873,19 +3611,19 @@
         <v>2910003</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="F61">
         <v>-45</v>
       </c>
-      <c r="H61" t="s">
-        <v>70</v>
-      </c>
-      <c r="J61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="H61">
+        <v>60021010003</v>
+      </c>
+      <c r="I61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>21010004</v>
       </c>
@@ -3899,19 +3637,19 @@
         <v>2910004</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="F62">
         <v>-45</v>
       </c>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-      <c r="J62" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="H62">
+        <v>60021010004</v>
+      </c>
+      <c r="I62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>21010005</v>
       </c>
@@ -3925,16 +3663,16 @@
         <v>2910005</v>
       </c>
       <c r="E63" t="s">
-        <v>199</v>
-      </c>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="H63">
+        <v>60021010005</v>
+      </c>
+      <c r="I63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>21010006</v>
       </c>
@@ -3948,16 +3686,16 @@
         <v>2910006</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
-      </c>
-      <c r="H64" t="s">
-        <v>202</v>
-      </c>
-      <c r="J64" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="H64">
+        <v>60021010006</v>
+      </c>
+      <c r="I64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>21010007</v>
       </c>
@@ -3971,16 +3709,16 @@
         <v>2910007</v>
       </c>
       <c r="E65" t="s">
-        <v>204</v>
-      </c>
-      <c r="H65" t="s">
-        <v>205</v>
-      </c>
-      <c r="J65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="H65">
+        <v>60021010007</v>
+      </c>
+      <c r="I65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>21010008</v>
       </c>
@@ -3994,16 +3732,16 @@
         <v>2910008</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
-      </c>
-      <c r="H66" t="s">
-        <v>208</v>
-      </c>
-      <c r="J66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="H66">
+        <v>60021010008</v>
+      </c>
+      <c r="I66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>21010009</v>
       </c>
@@ -4017,16 +3755,16 @@
         <v>2910009</v>
       </c>
       <c r="E67" t="s">
-        <v>210</v>
-      </c>
-      <c r="H67" t="s">
-        <v>211</v>
-      </c>
-      <c r="J67" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="H67">
+        <v>60021010009</v>
+      </c>
+      <c r="I67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>21010010</v>
       </c>
@@ -4040,16 +3778,16 @@
         <v>2910010</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
-      </c>
-      <c r="H68" t="s">
-        <v>214</v>
-      </c>
-      <c r="J68" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="H68">
+        <v>60021010010</v>
+      </c>
+      <c r="I68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>21010011</v>
       </c>
@@ -4063,19 +3801,19 @@
         <v>2910011</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="F69">
         <v>-45</v>
       </c>
-      <c r="H69" t="s">
-        <v>79</v>
-      </c>
-      <c r="J69" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="H69">
+        <v>60021010011</v>
+      </c>
+      <c r="I69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>21010012</v>
       </c>
@@ -4089,19 +3827,19 @@
         <v>2910012</v>
       </c>
       <c r="E70" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="F70">
         <v>-45</v>
       </c>
-      <c r="H70" t="s">
-        <v>82</v>
-      </c>
-      <c r="J70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="H70">
+        <v>60021010012</v>
+      </c>
+      <c r="I70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>21010013</v>
       </c>
@@ -4115,16 +3853,16 @@
         <v>2910013</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
-      </c>
-      <c r="H71" t="s">
-        <v>221</v>
-      </c>
-      <c r="J71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="H71">
+        <v>60021010013</v>
+      </c>
+      <c r="I71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>21010014</v>
       </c>
@@ -4138,16 +3876,16 @@
         <v>2910014</v>
       </c>
       <c r="E72" t="s">
-        <v>223</v>
-      </c>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-      <c r="J72" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="H72">
+        <v>60021010014</v>
+      </c>
+      <c r="I72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>21010015</v>
       </c>
@@ -4161,16 +3899,16 @@
         <v>2910015</v>
       </c>
       <c r="E73" t="s">
-        <v>225</v>
-      </c>
-      <c r="H73" t="s">
-        <v>226</v>
-      </c>
-      <c r="J73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="H73">
+        <v>60021010015</v>
+      </c>
+      <c r="I73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>21010016</v>
       </c>
@@ -4184,16 +3922,16 @@
         <v>2910016</v>
       </c>
       <c r="E74" t="s">
-        <v>228</v>
-      </c>
-      <c r="H74" t="s">
-        <v>229</v>
-      </c>
-      <c r="J74" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="H74">
+        <v>60021010016</v>
+      </c>
+      <c r="I74" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>21010017</v>
       </c>
@@ -4207,16 +3945,16 @@
         <v>2910017</v>
       </c>
       <c r="E75" t="s">
-        <v>231</v>
-      </c>
-      <c r="H75" t="s">
-        <v>232</v>
-      </c>
-      <c r="J75" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="H75">
+        <v>60021010017</v>
+      </c>
+      <c r="I75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>21010018</v>
       </c>
@@ -4230,16 +3968,16 @@
         <v>2910018</v>
       </c>
       <c r="E76" t="s">
-        <v>234</v>
-      </c>
-      <c r="H76" t="s">
-        <v>235</v>
-      </c>
-      <c r="J76" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="H76">
+        <v>60021010018</v>
+      </c>
+      <c r="I76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>21010019</v>
       </c>
@@ -4253,16 +3991,16 @@
         <v>2910019</v>
       </c>
       <c r="E77" t="s">
-        <v>237</v>
-      </c>
-      <c r="H77" t="s">
-        <v>238</v>
-      </c>
-      <c r="J77" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="H77">
+        <v>60021010019</v>
+      </c>
+      <c r="I77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>21010020</v>
       </c>
@@ -4276,16 +4014,16 @@
         <v>2910020</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
-      </c>
-      <c r="H78" t="s">
-        <v>241</v>
-      </c>
-      <c r="J78" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="H78">
+        <v>60021010020</v>
+      </c>
+      <c r="I78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>30100001</v>
       </c>
@@ -4299,16 +4037,16 @@
         <v>3020001</v>
       </c>
       <c r="E79" t="s">
-        <v>243</v>
-      </c>
-      <c r="H79" t="s">
-        <v>244</v>
-      </c>
-      <c r="J79" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="H79">
+        <v>60030100001</v>
+      </c>
+      <c r="I79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>30100002</v>
       </c>
@@ -4322,16 +4060,16 @@
         <v>3020002</v>
       </c>
       <c r="E80" t="s">
-        <v>246</v>
-      </c>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-      <c r="J80" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="H80">
+        <v>60030100002</v>
+      </c>
+      <c r="I80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>30100003</v>
       </c>
@@ -4345,16 +4083,16 @@
         <v>3020003</v>
       </c>
       <c r="E81" t="s">
-        <v>248</v>
-      </c>
-      <c r="H81" t="s">
-        <v>249</v>
-      </c>
-      <c r="J81" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="H81">
+        <v>60030100003</v>
+      </c>
+      <c r="I81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>30100004</v>
       </c>
@@ -4368,16 +4106,16 @@
         <v>3020004</v>
       </c>
       <c r="E82" t="s">
-        <v>251</v>
-      </c>
-      <c r="H82" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="H82">
+        <v>60030100004</v>
+      </c>
+      <c r="I82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>30100005</v>
       </c>
@@ -4391,16 +4129,16 @@
         <v>3020005</v>
       </c>
       <c r="E83" t="s">
-        <v>253</v>
-      </c>
-      <c r="H83" t="s">
-        <v>254</v>
-      </c>
-      <c r="J83" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="H83">
+        <v>60030100005</v>
+      </c>
+      <c r="I83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>30100006</v>
       </c>
@@ -4414,16 +4152,16 @@
         <v>3020006</v>
       </c>
       <c r="E84" t="s">
-        <v>256</v>
-      </c>
-      <c r="H84" t="s">
-        <v>257</v>
-      </c>
-      <c r="J84" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="H84">
+        <v>60030100006</v>
+      </c>
+      <c r="I84" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>30100007</v>
       </c>
@@ -4437,16 +4175,16 @@
         <v>3020007</v>
       </c>
       <c r="E85" t="s">
-        <v>259</v>
-      </c>
-      <c r="H85" t="s">
-        <v>260</v>
-      </c>
-      <c r="J85" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" ht="15" customHeight="1" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="H85">
+        <v>60030100007</v>
+      </c>
+      <c r="I85" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" ht="15" customHeight="1" spans="1:9">
       <c r="A86">
         <v>30100008</v>
       </c>
@@ -4460,16 +4198,16 @@
         <v>3020008</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
-      </c>
-      <c r="H86" t="s">
-        <v>263</v>
-      </c>
-      <c r="J86" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" ht="15" customHeight="1" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="H86">
+        <v>60030100008</v>
+      </c>
+      <c r="I86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1" spans="1:9">
       <c r="A87">
         <v>30100009</v>
       </c>
@@ -4483,16 +4221,16 @@
         <v>3020009</v>
       </c>
       <c r="E87" t="s">
-        <v>265</v>
-      </c>
-      <c r="H87" t="s">
-        <v>266</v>
-      </c>
-      <c r="J87" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" ht="15" customHeight="1" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="H87">
+        <v>60030100009</v>
+      </c>
+      <c r="I87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" ht="15" customHeight="1" spans="1:9">
       <c r="A88">
         <v>30100010</v>
       </c>
@@ -4506,16 +4244,16 @@
         <v>3020010</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
-      </c>
-      <c r="H88" t="s">
-        <v>269</v>
-      </c>
-      <c r="J88" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" ht="15" customHeight="1" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="H88">
+        <v>60030100010</v>
+      </c>
+      <c r="I88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" ht="15" customHeight="1" spans="1:9">
       <c r="A89">
         <v>30100011</v>
       </c>
@@ -4529,16 +4267,16 @@
         <v>3020011</v>
       </c>
       <c r="E89" t="s">
-        <v>271</v>
-      </c>
-      <c r="H89" t="s">
-        <v>272</v>
-      </c>
-      <c r="J89" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="90" ht="15" customHeight="1" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="H89">
+        <v>60030100011</v>
+      </c>
+      <c r="I89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1" spans="1:9">
       <c r="A90">
         <v>30100012</v>
       </c>
@@ -4552,16 +4290,16 @@
         <v>3020012</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
-      </c>
-      <c r="H90" t="s">
-        <v>275</v>
-      </c>
-      <c r="J90" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" ht="15" customHeight="1" spans="1:10">
+        <v>196</v>
+      </c>
+      <c r="H90">
+        <v>60030100012</v>
+      </c>
+      <c r="I90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1" spans="1:9">
       <c r="A91">
         <v>30100013</v>
       </c>
@@ -4575,16 +4313,16 @@
         <v>3020013</v>
       </c>
       <c r="E91" t="s">
-        <v>277</v>
-      </c>
-      <c r="H91" t="s">
-        <v>278</v>
-      </c>
-      <c r="J91" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" ht="15" customHeight="1" spans="1:10">
+        <v>198</v>
+      </c>
+      <c r="H91">
+        <v>60030100013</v>
+      </c>
+      <c r="I91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="1:9">
       <c r="A92">
         <v>30100014</v>
       </c>
@@ -4598,16 +4336,16 @@
         <v>3020014</v>
       </c>
       <c r="E92" t="s">
-        <v>280</v>
-      </c>
-      <c r="H92" t="s">
-        <v>281</v>
-      </c>
-      <c r="J92" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="93" ht="15" customHeight="1" spans="1:10">
+        <v>200</v>
+      </c>
+      <c r="H92">
+        <v>60030100014</v>
+      </c>
+      <c r="I92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1" spans="1:9">
       <c r="A93">
         <v>30100015</v>
       </c>
@@ -4621,16 +4359,16 @@
         <v>3020015</v>
       </c>
       <c r="E93" t="s">
-        <v>283</v>
-      </c>
-      <c r="H93" t="s">
-        <v>284</v>
-      </c>
-      <c r="J93" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="1:10">
+        <v>202</v>
+      </c>
+      <c r="H93">
+        <v>60030100015</v>
+      </c>
+      <c r="I93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="1:9">
       <c r="A94">
         <v>30100016</v>
       </c>
@@ -4644,16 +4382,16 @@
         <v>3020016</v>
       </c>
       <c r="E94" t="s">
-        <v>286</v>
-      </c>
-      <c r="H94" t="s">
-        <v>287</v>
-      </c>
-      <c r="J94" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" ht="15" customHeight="1" spans="1:10">
+        <v>204</v>
+      </c>
+      <c r="H94">
+        <v>60030100016</v>
+      </c>
+      <c r="I94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="1:9">
       <c r="A95">
         <v>30100017</v>
       </c>
@@ -4667,16 +4405,16 @@
         <v>3020017</v>
       </c>
       <c r="E95" t="s">
-        <v>289</v>
-      </c>
-      <c r="H95" t="s">
-        <v>290</v>
-      </c>
-      <c r="J95" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1" spans="1:10">
+        <v>206</v>
+      </c>
+      <c r="H95">
+        <v>60030100017</v>
+      </c>
+      <c r="I95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="1:9">
       <c r="A96">
         <v>30100018</v>
       </c>
@@ -4690,16 +4428,16 @@
         <v>3020018</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
-      </c>
-      <c r="H96" t="s">
-        <v>293</v>
-      </c>
-      <c r="J96" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>208</v>
+      </c>
+      <c r="H96">
+        <v>60030100018</v>
+      </c>
+      <c r="I96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>30100019</v>
       </c>
@@ -4713,16 +4451,16 @@
         <v>3020019</v>
       </c>
       <c r="E97" t="s">
-        <v>295</v>
-      </c>
-      <c r="H97" t="s">
-        <v>296</v>
-      </c>
-      <c r="J97" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>210</v>
+      </c>
+      <c r="H97">
+        <v>60030100019</v>
+      </c>
+      <c r="I97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>30100020</v>
       </c>
@@ -4736,16 +4474,16 @@
         <v>3020020</v>
       </c>
       <c r="E98" t="s">
-        <v>298</v>
-      </c>
-      <c r="H98" t="s">
-        <v>299</v>
-      </c>
-      <c r="J98" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>212</v>
+      </c>
+      <c r="H98">
+        <v>60030100020</v>
+      </c>
+      <c r="I98" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>40100001</v>
       </c>
@@ -4759,16 +4497,16 @@
         <v>4500003</v>
       </c>
       <c r="E99" t="s">
-        <v>301</v>
-      </c>
-      <c r="H99" t="s">
-        <v>302</v>
-      </c>
-      <c r="J99" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100" ht="12" customHeight="1" spans="1:10">
+        <v>214</v>
+      </c>
+      <c r="H99">
+        <v>60040100001</v>
+      </c>
+      <c r="I99" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100" ht="12" customHeight="1" spans="1:9">
       <c r="A100">
         <v>40200001</v>
       </c>
@@ -4782,16 +4520,16 @@
         <v>4510001</v>
       </c>
       <c r="E100" t="s">
-        <v>303</v>
-      </c>
-      <c r="H100" t="s">
-        <v>304</v>
-      </c>
-      <c r="J100" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>216</v>
+      </c>
+      <c r="H100">
+        <v>60040200001</v>
+      </c>
+      <c r="I100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>40200002</v>
       </c>
@@ -4805,16 +4543,16 @@
         <v>4510002</v>
       </c>
       <c r="E101" t="s">
-        <v>305</v>
-      </c>
-      <c r="H101" t="s">
-        <v>306</v>
-      </c>
-      <c r="J101" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>218</v>
+      </c>
+      <c r="H101">
+        <v>60040200002</v>
+      </c>
+      <c r="I101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>40200003</v>
       </c>
@@ -4828,16 +4566,16 @@
         <v>4510003</v>
       </c>
       <c r="E102" t="s">
-        <v>307</v>
-      </c>
-      <c r="H102" t="s">
-        <v>308</v>
-      </c>
-      <c r="J102" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>220</v>
+      </c>
+      <c r="H102">
+        <v>60040200003</v>
+      </c>
+      <c r="I102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>40200004</v>
       </c>
@@ -4851,16 +4589,16 @@
         <v>4510004</v>
       </c>
       <c r="E103" t="s">
-        <v>309</v>
-      </c>
-      <c r="H103" t="s">
-        <v>310</v>
-      </c>
-      <c r="J103" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>222</v>
+      </c>
+      <c r="H103">
+        <v>60040200004</v>
+      </c>
+      <c r="I103" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>40200005</v>
       </c>
@@ -4874,16 +4612,16 @@
         <v>4510005</v>
       </c>
       <c r="E104" t="s">
-        <v>311</v>
-      </c>
-      <c r="H104" t="s">
-        <v>312</v>
-      </c>
-      <c r="J104" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>224</v>
+      </c>
+      <c r="H104">
+        <v>60040200005</v>
+      </c>
+      <c r="I104" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>40200006</v>
       </c>
@@ -4897,16 +4635,16 @@
         <v>4510006</v>
       </c>
       <c r="E105" t="s">
-        <v>313</v>
-      </c>
-      <c r="H105" t="s">
-        <v>314</v>
-      </c>
-      <c r="J105" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>226</v>
+      </c>
+      <c r="H105">
+        <v>60040200006</v>
+      </c>
+      <c r="I105" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>40300001</v>
       </c>
@@ -4920,16 +4658,16 @@
         <v>4520001</v>
       </c>
       <c r="E106" t="s">
-        <v>315</v>
-      </c>
-      <c r="H106" t="s">
-        <v>316</v>
-      </c>
-      <c r="J106" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>228</v>
+      </c>
+      <c r="H106">
+        <v>60040300001</v>
+      </c>
+      <c r="I106" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>40300002</v>
       </c>
@@ -4943,16 +4681,16 @@
         <v>4520002</v>
       </c>
       <c r="E107" t="s">
-        <v>317</v>
-      </c>
-      <c r="H107" t="s">
-        <v>318</v>
-      </c>
-      <c r="J107" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>230</v>
+      </c>
+      <c r="H107">
+        <v>60040300002</v>
+      </c>
+      <c r="I107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>40300003</v>
       </c>
@@ -4966,16 +4704,16 @@
         <v>4520003</v>
       </c>
       <c r="E108" t="s">
-        <v>319</v>
-      </c>
-      <c r="H108" t="s">
-        <v>320</v>
-      </c>
-      <c r="J108" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>232</v>
+      </c>
+      <c r="H108">
+        <v>60040300003</v>
+      </c>
+      <c r="I108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>40300004</v>
       </c>
@@ -4989,16 +4727,16 @@
         <v>4520004</v>
       </c>
       <c r="E109" t="s">
-        <v>321</v>
-      </c>
-      <c r="H109" t="s">
-        <v>322</v>
-      </c>
-      <c r="J109" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>234</v>
+      </c>
+      <c r="H109">
+        <v>60040300004</v>
+      </c>
+      <c r="I109" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>41000001</v>
       </c>
@@ -5012,16 +4750,16 @@
         <v>4900001</v>
       </c>
       <c r="E110" t="s">
-        <v>323</v>
-      </c>
-      <c r="H110" t="s">
-        <v>324</v>
-      </c>
-      <c r="J110" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>236</v>
+      </c>
+      <c r="H110">
+        <v>60041000001</v>
+      </c>
+      <c r="I110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>41000002</v>
       </c>
@@ -5035,16 +4773,16 @@
         <v>4900002</v>
       </c>
       <c r="E111" t="s">
-        <v>325</v>
-      </c>
-      <c r="H111" t="s">
-        <v>326</v>
-      </c>
-      <c r="J111" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>238</v>
+      </c>
+      <c r="H111">
+        <v>60041000002</v>
+      </c>
+      <c r="I111" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>41000003</v>
       </c>
@@ -5058,16 +4796,16 @@
         <v>4900003</v>
       </c>
       <c r="E112" t="s">
-        <v>327</v>
-      </c>
-      <c r="H112" t="s">
-        <v>328</v>
-      </c>
-      <c r="J112" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>240</v>
+      </c>
+      <c r="H112">
+        <v>60041000003</v>
+      </c>
+      <c r="I112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>41000004</v>
       </c>
@@ -5081,16 +4819,16 @@
         <v>4900004</v>
       </c>
       <c r="E113" t="s">
-        <v>329</v>
-      </c>
-      <c r="H113" t="s">
-        <v>330</v>
-      </c>
-      <c r="J113" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>242</v>
+      </c>
+      <c r="H113">
+        <v>60041000004</v>
+      </c>
+      <c r="I113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>41000005</v>
       </c>
@@ -5104,16 +4842,16 @@
         <v>4900005</v>
       </c>
       <c r="E114" t="s">
-        <v>331</v>
-      </c>
-      <c r="H114" t="s">
-        <v>332</v>
-      </c>
-      <c r="J114" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:10">
+        <v>244</v>
+      </c>
+      <c r="H114">
+        <v>60041000005</v>
+      </c>
+      <c r="I114" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:9">
       <c r="A115">
         <v>50100001</v>
       </c>
@@ -5127,16 +4865,16 @@
         <v>5500001</v>
       </c>
       <c r="E115" t="s">
-        <v>333</v>
-      </c>
-      <c r="H115" t="s">
-        <v>334</v>
-      </c>
-      <c r="J115" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>246</v>
+      </c>
+      <c r="H115">
+        <v>60050100001</v>
+      </c>
+      <c r="I115" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>50100002</v>
       </c>
@@ -5150,16 +4888,16 @@
         <v>5500002</v>
       </c>
       <c r="E116" t="s">
-        <v>335</v>
-      </c>
-      <c r="H116" t="s">
-        <v>281</v>
-      </c>
-      <c r="J116" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>248</v>
+      </c>
+      <c r="H116">
+        <v>60050100002</v>
+      </c>
+      <c r="I116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>50100003</v>
       </c>
@@ -5173,16 +4911,16 @@
         <v>5500003</v>
       </c>
       <c r="E117" t="s">
-        <v>336</v>
-      </c>
-      <c r="H117" t="s">
-        <v>337</v>
-      </c>
-      <c r="J117" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:10">
+        <v>250</v>
+      </c>
+      <c r="H117">
+        <v>60050100003</v>
+      </c>
+      <c r="I117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:9">
       <c r="A118">
         <v>50200001</v>
       </c>
@@ -5196,16 +4934,16 @@
         <v>5510001</v>
       </c>
       <c r="E118" t="s">
-        <v>338</v>
-      </c>
-      <c r="H118" t="s">
-        <v>339</v>
-      </c>
-      <c r="J118" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>252</v>
+      </c>
+      <c r="H118">
+        <v>60050200001</v>
+      </c>
+      <c r="I118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>50200002</v>
       </c>
@@ -5219,16 +4957,16 @@
         <v>5510002</v>
       </c>
       <c r="E119" t="s">
-        <v>340</v>
-      </c>
-      <c r="H119" t="s">
-        <v>341</v>
-      </c>
-      <c r="J119" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>254</v>
+      </c>
+      <c r="H119">
+        <v>60050200002</v>
+      </c>
+      <c r="I119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>50200003</v>
       </c>
@@ -5242,16 +4980,16 @@
         <v>5510003</v>
       </c>
       <c r="E120" t="s">
-        <v>342</v>
-      </c>
-      <c r="H120" t="s">
-        <v>343</v>
-      </c>
-      <c r="J120" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="121" customFormat="1" ht="12" customHeight="1" spans="1:10">
+        <v>256</v>
+      </c>
+      <c r="H120">
+        <v>60050200003</v>
+      </c>
+      <c r="I120" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" ht="12" customHeight="1" spans="1:9">
       <c r="A121">
         <v>50300001</v>
       </c>
@@ -5265,16 +5003,16 @@
         <v>5520001</v>
       </c>
       <c r="E121" t="s">
-        <v>344</v>
-      </c>
-      <c r="H121" t="s">
-        <v>345</v>
-      </c>
-      <c r="J121" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>258</v>
+      </c>
+      <c r="H121">
+        <v>60050300001</v>
+      </c>
+      <c r="I121" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>50300002</v>
       </c>
@@ -5288,16 +5026,16 @@
         <v>5520002</v>
       </c>
       <c r="E122" t="s">
-        <v>346</v>
-      </c>
-      <c r="H122" t="s">
-        <v>347</v>
-      </c>
-      <c r="J122" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>260</v>
+      </c>
+      <c r="H122">
+        <v>60050300002</v>
+      </c>
+      <c r="I122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>50500001</v>
       </c>
@@ -5311,16 +5049,16 @@
         <v>5090001</v>
       </c>
       <c r="E123" t="s">
-        <v>348</v>
-      </c>
-      <c r="H123" t="s">
-        <v>349</v>
-      </c>
-      <c r="J123" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>262</v>
+      </c>
+      <c r="H123">
+        <v>60050500001</v>
+      </c>
+      <c r="I123" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>50500002</v>
       </c>
@@ -5334,16 +5072,16 @@
         <v>5090002</v>
       </c>
       <c r="E124" t="s">
-        <v>350</v>
-      </c>
-      <c r="H124" t="s">
-        <v>351</v>
-      </c>
-      <c r="J124" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>264</v>
+      </c>
+      <c r="H124">
+        <v>60050500002</v>
+      </c>
+      <c r="I124" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>50500003</v>
       </c>
@@ -5357,16 +5095,16 @@
         <v>5090003</v>
       </c>
       <c r="E125" t="s">
-        <v>352</v>
-      </c>
-      <c r="H125" t="s">
-        <v>353</v>
-      </c>
-      <c r="J125" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>266</v>
+      </c>
+      <c r="H125">
+        <v>60050500003</v>
+      </c>
+      <c r="I125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>50500004</v>
       </c>
@@ -5380,16 +5118,16 @@
         <v>5090004</v>
       </c>
       <c r="E126" t="s">
-        <v>354</v>
-      </c>
-      <c r="H126" t="s">
-        <v>355</v>
-      </c>
-      <c r="J126" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>268</v>
+      </c>
+      <c r="H126">
+        <v>60050500004</v>
+      </c>
+      <c r="I126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>50500005</v>
       </c>
@@ -5403,16 +5141,16 @@
         <v>5090005</v>
       </c>
       <c r="E127" t="s">
-        <v>356</v>
-      </c>
-      <c r="H127" t="s">
-        <v>357</v>
-      </c>
-      <c r="J127" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="128" customFormat="1" spans="1:10">
+        <v>270</v>
+      </c>
+      <c r="H127">
+        <v>60050500005</v>
+      </c>
+      <c r="I127" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" customFormat="1" spans="1:9">
       <c r="A128">
         <v>51010001</v>
       </c>
@@ -5426,19 +5164,19 @@
         <v>5910001</v>
       </c>
       <c r="E128" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="G128" t="s">
-        <v>359</v>
-      </c>
-      <c r="H128" t="s">
-        <v>360</v>
-      </c>
-      <c r="J128" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="129" customFormat="1" spans="1:10">
+        <v>273</v>
+      </c>
+      <c r="H128">
+        <v>60051010001</v>
+      </c>
+      <c r="I128" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" customFormat="1" spans="1:9">
       <c r="A129">
         <v>51010002</v>
       </c>
@@ -5452,19 +5190,19 @@
         <v>5910002</v>
       </c>
       <c r="E129" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="G129" t="s">
-        <v>362</v>
-      </c>
-      <c r="H129" t="s">
-        <v>363</v>
-      </c>
-      <c r="J129" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="130" customFormat="1" spans="1:10">
+        <v>276</v>
+      </c>
+      <c r="H129">
+        <v>60051010002</v>
+      </c>
+      <c r="I129" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" spans="1:9">
       <c r="A130">
         <v>51010003</v>
       </c>
@@ -5478,19 +5216,19 @@
         <v>5910003</v>
       </c>
       <c r="E130" t="s">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="G130" t="s">
-        <v>365</v>
-      </c>
-      <c r="H130" t="s">
-        <v>366</v>
-      </c>
-      <c r="J130" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="131" customFormat="1" spans="1:10">
+        <v>279</v>
+      </c>
+      <c r="H130">
+        <v>60051010003</v>
+      </c>
+      <c r="I130" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:9">
       <c r="A131">
         <v>60100001</v>
       </c>
@@ -5504,16 +5242,16 @@
         <v>6500001</v>
       </c>
       <c r="E131" t="s">
-        <v>367</v>
-      </c>
-      <c r="H131" t="s">
-        <v>368</v>
-      </c>
-      <c r="J131" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>281</v>
+      </c>
+      <c r="H131">
+        <v>60060100001</v>
+      </c>
+      <c r="I131" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>60100002</v>
       </c>
@@ -5527,16 +5265,16 @@
         <v>6500002</v>
       </c>
       <c r="E132" t="s">
-        <v>369</v>
-      </c>
-      <c r="H132" t="s">
-        <v>370</v>
-      </c>
-      <c r="J132" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>283</v>
+      </c>
+      <c r="H132">
+        <v>60060100002</v>
+      </c>
+      <c r="I132" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>60100003</v>
       </c>
@@ -5550,16 +5288,16 @@
         <v>6500003</v>
       </c>
       <c r="E133" t="s">
-        <v>371</v>
-      </c>
-      <c r="H133" t="s">
-        <v>372</v>
-      </c>
-      <c r="J133" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>285</v>
+      </c>
+      <c r="H133">
+        <v>60060100003</v>
+      </c>
+      <c r="I133" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>60100004</v>
       </c>
@@ -5573,16 +5311,16 @@
         <v>6500004</v>
       </c>
       <c r="E134" t="s">
-        <v>373</v>
-      </c>
-      <c r="H134" t="s">
-        <v>334</v>
-      </c>
-      <c r="J134" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>287</v>
+      </c>
+      <c r="H134">
+        <v>60060100004</v>
+      </c>
+      <c r="I134" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>60100005</v>
       </c>
@@ -5596,16 +5334,16 @@
         <v>6500005</v>
       </c>
       <c r="E135" t="s">
-        <v>374</v>
-      </c>
-      <c r="H135" t="s">
-        <v>375</v>
-      </c>
-      <c r="J135" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="136" ht="12" customHeight="1" spans="1:10">
+        <v>288</v>
+      </c>
+      <c r="H135">
+        <v>60060100005</v>
+      </c>
+      <c r="I135" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="136" ht="12" customHeight="1" spans="1:9">
       <c r="A136">
         <v>60100006</v>
       </c>
@@ -5619,16 +5357,16 @@
         <v>6500006</v>
       </c>
       <c r="E136" t="s">
-        <v>376</v>
-      </c>
-      <c r="H136" t="s">
-        <v>377</v>
-      </c>
-      <c r="J136" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="137" ht="12" customHeight="1" spans="1:10">
+        <v>290</v>
+      </c>
+      <c r="H136">
+        <v>60060100006</v>
+      </c>
+      <c r="I136" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" ht="12" customHeight="1" spans="1:9">
       <c r="A137">
         <v>60100007</v>
       </c>
@@ -5642,16 +5380,16 @@
         <v>6500007</v>
       </c>
       <c r="E137" t="s">
-        <v>378</v>
-      </c>
-      <c r="H137" t="s">
-        <v>379</v>
-      </c>
-      <c r="J137" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="138" ht="12" customHeight="1" spans="1:10">
+        <v>292</v>
+      </c>
+      <c r="H137">
+        <v>60060100007</v>
+      </c>
+      <c r="I137" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" ht="12" customHeight="1" spans="1:9">
       <c r="A138">
         <v>60100008</v>
       </c>
@@ -5665,16 +5403,16 @@
         <v>6500008</v>
       </c>
       <c r="E138" t="s">
-        <v>380</v>
-      </c>
-      <c r="H138" t="s">
-        <v>381</v>
-      </c>
-      <c r="J138" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="139" ht="12" customHeight="1" spans="1:10">
+        <v>294</v>
+      </c>
+      <c r="H138">
+        <v>60060100008</v>
+      </c>
+      <c r="I138" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" ht="12" customHeight="1" spans="1:9">
       <c r="A139">
         <v>60100009</v>
       </c>
@@ -5688,16 +5426,16 @@
         <v>6500009</v>
       </c>
       <c r="E139" t="s">
-        <v>382</v>
-      </c>
-      <c r="H139" t="s">
-        <v>383</v>
-      </c>
-      <c r="J139" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="140" ht="12" customHeight="1" spans="1:10">
+        <v>296</v>
+      </c>
+      <c r="H139">
+        <v>60060100009</v>
+      </c>
+      <c r="I139" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" ht="12" customHeight="1" spans="1:9">
       <c r="A140">
         <v>60100010</v>
       </c>
@@ -5711,16 +5449,16 @@
         <v>6500010</v>
       </c>
       <c r="E140" t="s">
-        <v>384</v>
-      </c>
-      <c r="H140" t="s">
-        <v>385</v>
-      </c>
-      <c r="J140" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="141" customFormat="1" ht="12" customHeight="1" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="H140">
+        <v>60060100010</v>
+      </c>
+      <c r="I140" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" customFormat="1" ht="12" customHeight="1" spans="1:9">
       <c r="A141">
         <v>60200001</v>
       </c>
@@ -5734,16 +5472,16 @@
         <v>6510001</v>
       </c>
       <c r="E141" t="s">
-        <v>386</v>
-      </c>
-      <c r="H141" t="s">
-        <v>304</v>
-      </c>
-      <c r="J141" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="142" ht="12" customHeight="1" spans="1:10">
+        <v>300</v>
+      </c>
+      <c r="H141">
+        <v>60060200001</v>
+      </c>
+      <c r="I141" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" ht="12" customHeight="1" spans="1:9">
       <c r="A142">
         <v>60200002</v>
       </c>
@@ -5757,16 +5495,16 @@
         <v>6510002</v>
       </c>
       <c r="E142" t="s">
-        <v>387</v>
-      </c>
-      <c r="H142" t="s">
-        <v>388</v>
-      </c>
-      <c r="J142" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="143" customFormat="1" spans="1:10">
+        <v>301</v>
+      </c>
+      <c r="H142">
+        <v>60060200002</v>
+      </c>
+      <c r="I142" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="143" customFormat="1" spans="1:9">
       <c r="A143">
         <v>60300001</v>
       </c>
@@ -5780,16 +5518,16 @@
         <v>6520001</v>
       </c>
       <c r="E143" t="s">
-        <v>389</v>
-      </c>
-      <c r="H143" t="s">
-        <v>390</v>
-      </c>
-      <c r="J143" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
+        <v>303</v>
+      </c>
+      <c r="H143">
+        <v>60060300001</v>
+      </c>
+      <c r="I143" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>60300002</v>
       </c>
@@ -5803,16 +5541,16 @@
         <v>6520002</v>
       </c>
       <c r="E144" t="s">
-        <v>391</v>
-      </c>
-      <c r="H144" t="s">
-        <v>392</v>
-      </c>
-      <c r="J144" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>305</v>
+      </c>
+      <c r="H144">
+        <v>60060300002</v>
+      </c>
+      <c r="I144" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>60300003</v>
       </c>
@@ -5826,16 +5564,16 @@
         <v>6520003</v>
       </c>
       <c r="E145" t="s">
-        <v>393</v>
-      </c>
-      <c r="H145" t="s">
-        <v>394</v>
-      </c>
-      <c r="J145" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+        <v>307</v>
+      </c>
+      <c r="H145">
+        <v>60060300003</v>
+      </c>
+      <c r="I145" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>60300004</v>
       </c>
@@ -5849,16 +5587,16 @@
         <v>6520004</v>
       </c>
       <c r="E146" t="s">
-        <v>395</v>
-      </c>
-      <c r="H146" t="s">
-        <v>396</v>
-      </c>
-      <c r="J146" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+        <v>309</v>
+      </c>
+      <c r="H146">
+        <v>60060300004</v>
+      </c>
+      <c r="I146" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>60300005</v>
       </c>
@@ -5872,16 +5610,16 @@
         <v>6520005</v>
       </c>
       <c r="E147" t="s">
-        <v>397</v>
-      </c>
-      <c r="H147" t="s">
-        <v>398</v>
-      </c>
-      <c r="J147" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="148" customFormat="1" spans="1:10">
+        <v>311</v>
+      </c>
+      <c r="H147">
+        <v>60060300005</v>
+      </c>
+      <c r="I147" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" spans="1:9">
       <c r="A148">
         <v>61010001</v>
       </c>
@@ -5895,17 +5633,17 @@
         <v>6910001</v>
       </c>
       <c r="E148" t="s">
-        <v>399</v>
+        <v>313</v>
       </c>
       <c r="F148"/>
-      <c r="H148" t="s">
-        <v>400</v>
-      </c>
-      <c r="J148" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="H148">
+        <v>60061010001</v>
+      </c>
+      <c r="I148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>61010002</v>
       </c>
@@ -5919,19 +5657,19 @@
         <v>6910002</v>
       </c>
       <c r="E149" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="G149" t="s">
-        <v>402</v>
-      </c>
-      <c r="H149" t="s">
-        <v>88</v>
-      </c>
-      <c r="J149" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+        <v>316</v>
+      </c>
+      <c r="H149">
+        <v>60061010002</v>
+      </c>
+      <c r="I149" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>61010003</v>
       </c>
@@ -5945,16 +5683,16 @@
         <v>6910003</v>
       </c>
       <c r="E150" t="s">
-        <v>403</v>
-      </c>
-      <c r="H150" t="s">
-        <v>404</v>
-      </c>
-      <c r="J150" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>318</v>
+      </c>
+      <c r="H150">
+        <v>60061010003</v>
+      </c>
+      <c r="I150" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>61010004</v>
       </c>
@@ -5968,19 +5706,19 @@
         <v>6910004</v>
       </c>
       <c r="E151" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="F151">
         <v>-45</v>
       </c>
-      <c r="H151" t="s">
-        <v>406</v>
-      </c>
-      <c r="J151" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="H151">
+        <v>60061010004</v>
+      </c>
+      <c r="I151" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>61010005</v>
       </c>
@@ -5994,19 +5732,19 @@
         <v>6910005</v>
       </c>
       <c r="E152" t="s">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="F152">
         <v>-45</v>
       </c>
-      <c r="H152" t="s">
-        <v>408</v>
-      </c>
-      <c r="J152" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="H152">
+        <v>60061010005</v>
+      </c>
+      <c r="I152" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>61010006</v>
       </c>
@@ -6020,19 +5758,19 @@
         <v>6910006</v>
       </c>
       <c r="E153" t="s">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="F153">
         <v>-45</v>
       </c>
-      <c r="H153" t="s">
-        <v>410</v>
-      </c>
-      <c r="J153" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="H153">
+        <v>60061010006</v>
+      </c>
+      <c r="I153" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>61010007</v>
       </c>
@@ -6046,16 +5784,16 @@
         <v>6910007</v>
       </c>
       <c r="E154" t="s">
-        <v>411</v>
-      </c>
-      <c r="H154" t="s">
-        <v>412</v>
-      </c>
-      <c r="J154" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+        <v>326</v>
+      </c>
+      <c r="H154">
+        <v>60061010007</v>
+      </c>
+      <c r="I154" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>61010008</v>
       </c>
@@ -6069,16 +5807,16 @@
         <v>6910008</v>
       </c>
       <c r="E155" t="s">
-        <v>413</v>
-      </c>
-      <c r="H155" t="s">
-        <v>414</v>
-      </c>
-      <c r="J155" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+        <v>328</v>
+      </c>
+      <c r="H155">
+        <v>60061010008</v>
+      </c>
+      <c r="I155" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>61010009</v>
       </c>
@@ -6092,16 +5830,16 @@
         <v>6910009</v>
       </c>
       <c r="E156" t="s">
-        <v>415</v>
-      </c>
-      <c r="H156" t="s">
-        <v>64</v>
-      </c>
-      <c r="J156" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+        <v>330</v>
+      </c>
+      <c r="H156">
+        <v>60061010009</v>
+      </c>
+      <c r="I156" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>61010010</v>
       </c>
@@ -6115,16 +5853,16 @@
         <v>6910010</v>
       </c>
       <c r="E157" t="s">
-        <v>416</v>
-      </c>
-      <c r="H157" t="s">
-        <v>417</v>
-      </c>
-      <c r="J157" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+        <v>332</v>
+      </c>
+      <c r="H157">
+        <v>60061010010</v>
+      </c>
+      <c r="I157" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>61010011</v>
       </c>
@@ -6138,16 +5876,16 @@
         <v>6910011</v>
       </c>
       <c r="E158" t="s">
-        <v>418</v>
-      </c>
-      <c r="H158" t="s">
-        <v>419</v>
-      </c>
-      <c r="J158" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+        <v>334</v>
+      </c>
+      <c r="H158">
+        <v>60061010011</v>
+      </c>
+      <c r="I158" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>61010012</v>
       </c>
@@ -6161,16 +5899,16 @@
         <v>6910012</v>
       </c>
       <c r="E159" t="s">
-        <v>420</v>
-      </c>
-      <c r="H159" t="s">
-        <v>421</v>
-      </c>
-      <c r="J159" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+        <v>336</v>
+      </c>
+      <c r="H159">
+        <v>60061010012</v>
+      </c>
+      <c r="I159" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>61010013</v>
       </c>
@@ -6184,19 +5922,19 @@
         <v>6910013</v>
       </c>
       <c r="E160" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="G160" t="s">
-        <v>402</v>
-      </c>
-      <c r="H160" t="s">
-        <v>423</v>
-      </c>
-      <c r="J160" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+        <v>316</v>
+      </c>
+      <c r="H160">
+        <v>60061010013</v>
+      </c>
+      <c r="I160" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>61010014</v>
       </c>
@@ -6210,19 +5948,19 @@
         <v>6910014</v>
       </c>
       <c r="E161" t="s">
-        <v>424</v>
+        <v>340</v>
       </c>
       <c r="G161" t="s">
-        <v>402</v>
-      </c>
-      <c r="H161" t="s">
-        <v>425</v>
-      </c>
-      <c r="J161" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+        <v>316</v>
+      </c>
+      <c r="H161">
+        <v>60061010014</v>
+      </c>
+      <c r="I161" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>61010015</v>
       </c>
@@ -6236,19 +5974,19 @@
         <v>6910015</v>
       </c>
       <c r="E162" t="s">
-        <v>426</v>
+        <v>342</v>
       </c>
       <c r="G162" t="s">
-        <v>402</v>
-      </c>
-      <c r="H162" t="s">
-        <v>427</v>
-      </c>
-      <c r="J162" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+        <v>316</v>
+      </c>
+      <c r="H162">
+        <v>60061010015</v>
+      </c>
+      <c r="I162" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>61010016</v>
       </c>
@@ -6262,19 +6000,19 @@
         <v>6910016</v>
       </c>
       <c r="E163" t="s">
-        <v>428</v>
+        <v>344</v>
       </c>
       <c r="G163" t="s">
-        <v>402</v>
-      </c>
-      <c r="H163" t="s">
-        <v>429</v>
-      </c>
-      <c r="J163" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+        <v>316</v>
+      </c>
+      <c r="H163">
+        <v>60061010016</v>
+      </c>
+      <c r="I163" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>61010017</v>
       </c>
@@ -6288,16 +6026,16 @@
         <v>6910017</v>
       </c>
       <c r="E164" t="s">
-        <v>430</v>
-      </c>
-      <c r="H164" t="s">
-        <v>431</v>
-      </c>
-      <c r="J164" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="H164">
+        <v>60061010017</v>
+      </c>
+      <c r="I164" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>61010018</v>
       </c>
@@ -6311,16 +6049,16 @@
         <v>6910018</v>
       </c>
       <c r="E165" t="s">
-        <v>432</v>
-      </c>
-      <c r="H165" t="s">
-        <v>433</v>
-      </c>
-      <c r="J165" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
+        <v>348</v>
+      </c>
+      <c r="H165">
+        <v>60061010018</v>
+      </c>
+      <c r="I165" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>61010019</v>
       </c>
@@ -6334,16 +6072,16 @@
         <v>6910019</v>
       </c>
       <c r="E166" t="s">
-        <v>434</v>
-      </c>
-      <c r="H166" t="s">
-        <v>435</v>
-      </c>
-      <c r="J166" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+        <v>350</v>
+      </c>
+      <c r="H166">
+        <v>60061010019</v>
+      </c>
+      <c r="I166" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>61010020</v>
       </c>
@@ -6357,16 +6095,16 @@
         <v>6910020</v>
       </c>
       <c r="E167" t="s">
-        <v>436</v>
-      </c>
-      <c r="H167" t="s">
-        <v>437</v>
-      </c>
-      <c r="J167" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
+        <v>352</v>
+      </c>
+      <c r="H167">
+        <v>60061010020</v>
+      </c>
+      <c r="I167" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>70100001</v>
       </c>
@@ -6380,16 +6118,16 @@
         <v>7500001</v>
       </c>
       <c r="E168" t="s">
-        <v>438</v>
-      </c>
-      <c r="H168" t="s">
-        <v>439</v>
-      </c>
-      <c r="J168" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
+        <v>354</v>
+      </c>
+      <c r="H168">
+        <v>60070100001</v>
+      </c>
+      <c r="I168" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>70200001</v>
       </c>
@@ -6403,16 +6141,16 @@
         <v>7510001</v>
       </c>
       <c r="E169" t="s">
-        <v>440</v>
-      </c>
-      <c r="H169" t="s">
-        <v>441</v>
-      </c>
-      <c r="J169" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+        <v>356</v>
+      </c>
+      <c r="H169">
+        <v>60070200001</v>
+      </c>
+      <c r="I169" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>70200002</v>
       </c>
@@ -6426,16 +6164,16 @@
         <v>7510002</v>
       </c>
       <c r="E170" t="s">
-        <v>442</v>
-      </c>
-      <c r="H170" t="s">
-        <v>341</v>
-      </c>
-      <c r="J170" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+        <v>358</v>
+      </c>
+      <c r="H170">
+        <v>60070200002</v>
+      </c>
+      <c r="I170" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>70300001</v>
       </c>
@@ -6449,16 +6187,16 @@
         <v>7520001</v>
       </c>
       <c r="E171" t="s">
-        <v>443</v>
-      </c>
-      <c r="H171" t="s">
-        <v>444</v>
-      </c>
-      <c r="J171" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+        <v>359</v>
+      </c>
+      <c r="H171">
+        <v>60070300001</v>
+      </c>
+      <c r="I171" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>70300002</v>
       </c>
@@ -6472,16 +6210,16 @@
         <v>7520002</v>
       </c>
       <c r="E172" t="s">
-        <v>445</v>
-      </c>
-      <c r="H172" t="s">
-        <v>446</v>
-      </c>
-      <c r="J172" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+        <v>361</v>
+      </c>
+      <c r="H172">
+        <v>60070300002</v>
+      </c>
+      <c r="I172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>70300003</v>
       </c>
@@ -6495,16 +6233,16 @@
         <v>7520003</v>
       </c>
       <c r="E173" t="s">
-        <v>447</v>
-      </c>
-      <c r="H173" t="s">
-        <v>448</v>
-      </c>
-      <c r="J173" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
+        <v>363</v>
+      </c>
+      <c r="H173">
+        <v>60070300003</v>
+      </c>
+      <c r="I173" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>70300004</v>
       </c>
@@ -6518,16 +6256,16 @@
         <v>7520004</v>
       </c>
       <c r="E174" t="s">
-        <v>449</v>
-      </c>
-      <c r="H174" t="s">
-        <v>450</v>
-      </c>
-      <c r="J174" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+        <v>365</v>
+      </c>
+      <c r="H174">
+        <v>60070300004</v>
+      </c>
+      <c r="I174" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>71000001</v>
       </c>
@@ -6541,19 +6279,19 @@
         <v>7900001</v>
       </c>
       <c r="E175" t="s">
-        <v>451</v>
+        <v>367</v>
       </c>
       <c r="G175" t="s">
-        <v>452</v>
-      </c>
-      <c r="H175" t="s">
-        <v>453</v>
-      </c>
-      <c r="J175" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+        <v>368</v>
+      </c>
+      <c r="H175">
+        <v>60071000001</v>
+      </c>
+      <c r="I175" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>71000002</v>
       </c>
@@ -6567,19 +6305,19 @@
         <v>7900002</v>
       </c>
       <c r="E176" t="s">
-        <v>454</v>
+        <v>370</v>
       </c>
       <c r="G176" t="s">
-        <v>455</v>
-      </c>
-      <c r="H176" t="s">
-        <v>456</v>
-      </c>
-      <c r="J176" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>371</v>
+      </c>
+      <c r="H176">
+        <v>60071000002</v>
+      </c>
+      <c r="I176" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>71000003</v>
       </c>
@@ -6593,19 +6331,19 @@
         <v>7900003</v>
       </c>
       <c r="E177" t="s">
-        <v>457</v>
+        <v>373</v>
       </c>
       <c r="G177" t="s">
-        <v>458</v>
-      </c>
-      <c r="H177" t="s">
-        <v>459</v>
-      </c>
-      <c r="J177" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+        <v>374</v>
+      </c>
+      <c r="H177">
+        <v>60071000003</v>
+      </c>
+      <c r="I177" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>71010001</v>
       </c>
@@ -6619,16 +6357,16 @@
         <v>7910001</v>
       </c>
       <c r="E178" t="s">
-        <v>460</v>
-      </c>
-      <c r="H178" t="s">
-        <v>461</v>
-      </c>
-      <c r="J178" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+        <v>376</v>
+      </c>
+      <c r="H178">
+        <v>60071010001</v>
+      </c>
+      <c r="I178" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>71010002</v>
       </c>
@@ -6642,16 +6380,16 @@
         <v>7910002</v>
       </c>
       <c r="E179" t="s">
-        <v>462</v>
-      </c>
-      <c r="H179" t="s">
-        <v>463</v>
-      </c>
-      <c r="J179" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+        <v>378</v>
+      </c>
+      <c r="H179">
+        <v>60071010002</v>
+      </c>
+      <c r="I179" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>71010003</v>
       </c>
@@ -6665,16 +6403,16 @@
         <v>7910003</v>
       </c>
       <c r="E180" t="s">
-        <v>464</v>
-      </c>
-      <c r="H180" t="s">
-        <v>465</v>
-      </c>
-      <c r="J180" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+        <v>380</v>
+      </c>
+      <c r="H180">
+        <v>60071010003</v>
+      </c>
+      <c r="I180" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>71010004</v>
       </c>
@@ -6688,16 +6426,16 @@
         <v>7910004</v>
       </c>
       <c r="E181" t="s">
-        <v>466</v>
-      </c>
-      <c r="H181" t="s">
-        <v>467</v>
-      </c>
-      <c r="J181" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+        <v>382</v>
+      </c>
+      <c r="H181">
+        <v>60071010004</v>
+      </c>
+      <c r="I181" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>71010005</v>
       </c>
@@ -6711,16 +6449,16 @@
         <v>7910005</v>
       </c>
       <c r="E182" t="s">
-        <v>468</v>
-      </c>
-      <c r="H182" t="s">
-        <v>469</v>
-      </c>
-      <c r="J182" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+        <v>384</v>
+      </c>
+      <c r="H182">
+        <v>60071010005</v>
+      </c>
+      <c r="I182" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>71010006</v>
       </c>
@@ -6734,13 +6472,13 @@
         <v>7910006</v>
       </c>
       <c r="E183" t="s">
-        <v>470</v>
-      </c>
-      <c r="H183" t="s">
-        <v>471</v>
-      </c>
-      <c r="J183" t="s">
-        <v>471</v>
+        <v>386</v>
+      </c>
+      <c r="H183">
+        <v>60071010006</v>
+      </c>
+      <c r="I183" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -50,7 +50,7 @@
     <t>attack_mode_data</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -2165,7 +2165,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -2161,11 +2161,11 @@
   <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsInfo" sheetId="1" r:id="rId1"/>
@@ -2161,11 +2161,11 @@
   <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C145" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2285,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="H4">
-        <v>60010100001</v>
+        <v>10100001</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -2308,7 +2308,7 @@
         <v>24</v>
       </c>
       <c r="H5">
-        <v>60010100002</v>
+        <v>10100002</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
@@ -2331,7 +2331,7 @@
         <v>26</v>
       </c>
       <c r="H6">
-        <v>60010100003</v>
+        <v>10100003</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
@@ -2354,7 +2354,7 @@
         <v>28</v>
       </c>
       <c r="H7">
-        <v>60010100004</v>
+        <v>10100004</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -2377,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="H8">
-        <v>60010200001</v>
+        <v>10200001</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -2400,7 +2400,7 @@
         <v>32</v>
       </c>
       <c r="H9">
-        <v>60010200002</v>
+        <v>10200002</v>
       </c>
       <c r="I9" t="s">
         <v>33</v>
@@ -2423,7 +2423,7 @@
         <v>34</v>
       </c>
       <c r="H10">
-        <v>60010200003</v>
+        <v>10200003</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -2446,7 +2446,7 @@
         <v>36</v>
       </c>
       <c r="H11">
-        <v>60010200004</v>
+        <v>10200004</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
@@ -2469,7 +2469,7 @@
         <v>38</v>
       </c>
       <c r="H12">
-        <v>60010300001</v>
+        <v>10300001</v>
       </c>
       <c r="I12" t="s">
         <v>39</v>
@@ -2492,7 +2492,7 @@
         <v>40</v>
       </c>
       <c r="H13">
-        <v>60010300002</v>
+        <v>10300002</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
@@ -2515,7 +2515,7 @@
         <v>42</v>
       </c>
       <c r="H14">
-        <v>60010300003</v>
+        <v>10300003</v>
       </c>
       <c r="I14" t="s">
         <v>43</v>
@@ -2538,7 +2538,7 @@
         <v>44</v>
       </c>
       <c r="H15">
-        <v>60010300004</v>
+        <v>10300004</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
@@ -2561,7 +2561,7 @@
         <v>46</v>
       </c>
       <c r="H16">
-        <v>60011000001</v>
+        <v>11000001</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
@@ -2584,7 +2584,7 @@
         <v>48</v>
       </c>
       <c r="H17">
-        <v>60011000002</v>
+        <v>11000002</v>
       </c>
       <c r="I17" t="s">
         <v>49</v>
@@ -2607,7 +2607,7 @@
         <v>50</v>
       </c>
       <c r="H18">
-        <v>60011000003</v>
+        <v>11000003</v>
       </c>
       <c r="I18" t="s">
         <v>51</v>
@@ -2630,7 +2630,7 @@
         <v>52</v>
       </c>
       <c r="H19">
-        <v>60011000004</v>
+        <v>11000004</v>
       </c>
       <c r="I19" t="s">
         <v>53</v>
@@ -2653,7 +2653,7 @@
         <v>54</v>
       </c>
       <c r="H20">
-        <v>60011000005</v>
+        <v>11000005</v>
       </c>
       <c r="I20" t="s">
         <v>55</v>
@@ -2676,7 +2676,7 @@
         <v>56</v>
       </c>
       <c r="H21">
-        <v>60011000006</v>
+        <v>11000006</v>
       </c>
       <c r="I21" t="s">
         <v>57</v>
@@ -2699,7 +2699,7 @@
         <v>58</v>
       </c>
       <c r="H22">
-        <v>60011000007</v>
+        <v>11000007</v>
       </c>
       <c r="I22" t="s">
         <v>59</v>
@@ -2722,7 +2722,7 @@
         <v>60</v>
       </c>
       <c r="H23">
-        <v>60011000008</v>
+        <v>11000008</v>
       </c>
       <c r="I23" t="s">
         <v>61</v>
@@ -2745,7 +2745,7 @@
         <v>62</v>
       </c>
       <c r="H24">
-        <v>60011000009</v>
+        <v>11000009</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
@@ -2768,7 +2768,7 @@
         <v>64</v>
       </c>
       <c r="H25">
-        <v>60011010001</v>
+        <v>11010001</v>
       </c>
       <c r="I25" t="s">
         <v>65</v>
@@ -2791,7 +2791,7 @@
         <v>66</v>
       </c>
       <c r="H26">
-        <v>60020100001</v>
+        <v>20100001</v>
       </c>
       <c r="I26" t="s">
         <v>67</v>
@@ -2814,7 +2814,7 @@
         <v>68</v>
       </c>
       <c r="H27">
-        <v>60020100002</v>
+        <v>20100002</v>
       </c>
       <c r="I27" t="s">
         <v>69</v>
@@ -2837,7 +2837,7 @@
         <v>70</v>
       </c>
       <c r="H28">
-        <v>60020100003</v>
+        <v>20100003</v>
       </c>
       <c r="I28" t="s">
         <v>71</v>
@@ -2860,7 +2860,7 @@
         <v>72</v>
       </c>
       <c r="H29">
-        <v>60020100004</v>
+        <v>20100004</v>
       </c>
       <c r="I29" t="s">
         <v>73</v>
@@ -2883,7 +2883,7 @@
         <v>74</v>
       </c>
       <c r="H30">
-        <v>60020100005</v>
+        <v>20100005</v>
       </c>
       <c r="I30" t="s">
         <v>75</v>
@@ -2906,7 +2906,7 @@
         <v>76</v>
       </c>
       <c r="H31">
-        <v>60020100006</v>
+        <v>20100006</v>
       </c>
       <c r="I31" t="s">
         <v>77</v>
@@ -2929,7 +2929,7 @@
         <v>78</v>
       </c>
       <c r="H32">
-        <v>60020100007</v>
+        <v>20100007</v>
       </c>
       <c r="I32" t="s">
         <v>79</v>
@@ -2952,7 +2952,7 @@
         <v>80</v>
       </c>
       <c r="H33">
-        <v>60020200001</v>
+        <v>20200001</v>
       </c>
       <c r="I33" t="s">
         <v>81</v>
@@ -2975,7 +2975,7 @@
         <v>82</v>
       </c>
       <c r="H34">
-        <v>60020200002</v>
+        <v>20200002</v>
       </c>
       <c r="I34" t="s">
         <v>83</v>
@@ -2998,7 +2998,7 @@
         <v>84</v>
       </c>
       <c r="H35">
-        <v>60020200003</v>
+        <v>20200003</v>
       </c>
       <c r="I35" t="s">
         <v>85</v>
@@ -3021,7 +3021,7 @@
         <v>86</v>
       </c>
       <c r="H36">
-        <v>60020200004</v>
+        <v>20200004</v>
       </c>
       <c r="I36" t="s">
         <v>87</v>
@@ -3044,7 +3044,7 @@
         <v>88</v>
       </c>
       <c r="H37">
-        <v>60020200005</v>
+        <v>20200005</v>
       </c>
       <c r="I37" t="s">
         <v>89</v>
@@ -3067,7 +3067,7 @@
         <v>90</v>
       </c>
       <c r="H38">
-        <v>60020200006</v>
+        <v>20200006</v>
       </c>
       <c r="I38" t="s">
         <v>91</v>
@@ -3090,7 +3090,7 @@
         <v>92</v>
       </c>
       <c r="H39">
-        <v>60020200007</v>
+        <v>20200007</v>
       </c>
       <c r="I39" t="s">
         <v>93</v>
@@ -3113,7 +3113,7 @@
         <v>94</v>
       </c>
       <c r="H40">
-        <v>60020200008</v>
+        <v>20200008</v>
       </c>
       <c r="I40" t="s">
         <v>95</v>
@@ -3136,7 +3136,7 @@
         <v>96</v>
       </c>
       <c r="H41">
-        <v>60020200009</v>
+        <v>20200009</v>
       </c>
       <c r="I41" t="s">
         <v>97</v>
@@ -3159,7 +3159,7 @@
         <v>98</v>
       </c>
       <c r="H42">
-        <v>60020200010</v>
+        <v>20200010</v>
       </c>
       <c r="I42" t="s">
         <v>99</v>
@@ -3182,7 +3182,7 @@
         <v>100</v>
       </c>
       <c r="H43">
-        <v>60020200011</v>
+        <v>20200011</v>
       </c>
       <c r="I43" t="s">
         <v>101</v>
@@ -3205,7 +3205,7 @@
         <v>102</v>
       </c>
       <c r="H44">
-        <v>60020300001</v>
+        <v>20300001</v>
       </c>
       <c r="I44" t="s">
         <v>103</v>
@@ -3228,7 +3228,7 @@
         <v>104</v>
       </c>
       <c r="H45">
-        <v>60020300002</v>
+        <v>20300002</v>
       </c>
       <c r="I45" t="s">
         <v>105</v>
@@ -3251,7 +3251,7 @@
         <v>106</v>
       </c>
       <c r="H46">
-        <v>60020300003</v>
+        <v>20300003</v>
       </c>
       <c r="I46" t="s">
         <v>107</v>
@@ -3274,7 +3274,7 @@
         <v>108</v>
       </c>
       <c r="H47">
-        <v>60020300004</v>
+        <v>20300004</v>
       </c>
       <c r="I47" t="s">
         <v>109</v>
@@ -3297,7 +3297,7 @@
         <v>110</v>
       </c>
       <c r="H48">
-        <v>60020300005</v>
+        <v>20300005</v>
       </c>
       <c r="I48" t="s">
         <v>111</v>
@@ -3326,7 +3326,7 @@
         <v>113</v>
       </c>
       <c r="H49">
-        <v>60021000001</v>
+        <v>21000001</v>
       </c>
       <c r="I49" t="s">
         <v>114</v>
@@ -3355,7 +3355,7 @@
         <v>116</v>
       </c>
       <c r="H50">
-        <v>60021000002</v>
+        <v>21000002</v>
       </c>
       <c r="I50" t="s">
         <v>117</v>
@@ -3378,7 +3378,7 @@
         <v>118</v>
       </c>
       <c r="H51">
-        <v>60021000003</v>
+        <v>21000003</v>
       </c>
       <c r="I51" t="s">
         <v>119</v>
@@ -3401,7 +3401,7 @@
         <v>120</v>
       </c>
       <c r="H52">
-        <v>60021000004</v>
+        <v>21000004</v>
       </c>
       <c r="I52" t="s">
         <v>121</v>
@@ -3424,7 +3424,7 @@
         <v>122</v>
       </c>
       <c r="H53">
-        <v>60021000005</v>
+        <v>21000005</v>
       </c>
       <c r="I53" t="s">
         <v>123</v>
@@ -3447,7 +3447,7 @@
         <v>124</v>
       </c>
       <c r="H54">
-        <v>60021000006</v>
+        <v>21000006</v>
       </c>
       <c r="I54" t="s">
         <v>125</v>
@@ -3470,7 +3470,7 @@
         <v>126</v>
       </c>
       <c r="H55">
-        <v>60021000007</v>
+        <v>21000007</v>
       </c>
       <c r="I55" t="s">
         <v>127</v>
@@ -3493,7 +3493,7 @@
         <v>128</v>
       </c>
       <c r="H56">
-        <v>60021000008</v>
+        <v>21000008</v>
       </c>
       <c r="I56" t="s">
         <v>129</v>
@@ -3516,7 +3516,7 @@
         <v>130</v>
       </c>
       <c r="H57">
-        <v>60021000009</v>
+        <v>21000009</v>
       </c>
       <c r="I57" t="s">
         <v>131</v>
@@ -3539,7 +3539,7 @@
         <v>132</v>
       </c>
       <c r="H58">
-        <v>60021000010</v>
+        <v>21000010</v>
       </c>
       <c r="I58" t="s">
         <v>133</v>
@@ -3565,7 +3565,7 @@
         <v>-45</v>
       </c>
       <c r="H59">
-        <v>60021010001</v>
+        <v>21010001</v>
       </c>
       <c r="I59" t="s">
         <v>135</v>
@@ -3591,7 +3591,7 @@
         <v>-45</v>
       </c>
       <c r="H60">
-        <v>60021010002</v>
+        <v>21010002</v>
       </c>
       <c r="I60" t="s">
         <v>137</v>
@@ -3617,7 +3617,7 @@
         <v>-45</v>
       </c>
       <c r="H61">
-        <v>60021010003</v>
+        <v>21010003</v>
       </c>
       <c r="I61" t="s">
         <v>139</v>
@@ -3643,7 +3643,7 @@
         <v>-45</v>
       </c>
       <c r="H62">
-        <v>60021010004</v>
+        <v>21010004</v>
       </c>
       <c r="I62" t="s">
         <v>141</v>
@@ -3666,7 +3666,7 @@
         <v>142</v>
       </c>
       <c r="H63">
-        <v>60021010005</v>
+        <v>21010005</v>
       </c>
       <c r="I63" t="s">
         <v>143</v>
@@ -3689,7 +3689,7 @@
         <v>144</v>
       </c>
       <c r="H64">
-        <v>60021010006</v>
+        <v>21010006</v>
       </c>
       <c r="I64" t="s">
         <v>145</v>
@@ -3712,7 +3712,7 @@
         <v>146</v>
       </c>
       <c r="H65">
-        <v>60021010007</v>
+        <v>21010007</v>
       </c>
       <c r="I65" t="s">
         <v>147</v>
@@ -3735,7 +3735,7 @@
         <v>148</v>
       </c>
       <c r="H66">
-        <v>60021010008</v>
+        <v>21010008</v>
       </c>
       <c r="I66" t="s">
         <v>149</v>
@@ -3758,7 +3758,7 @@
         <v>150</v>
       </c>
       <c r="H67">
-        <v>60021010009</v>
+        <v>21010009</v>
       </c>
       <c r="I67" t="s">
         <v>151</v>
@@ -3781,7 +3781,7 @@
         <v>152</v>
       </c>
       <c r="H68">
-        <v>60021010010</v>
+        <v>21010010</v>
       </c>
       <c r="I68" t="s">
         <v>153</v>
@@ -3807,7 +3807,7 @@
         <v>-45</v>
       </c>
       <c r="H69">
-        <v>60021010011</v>
+        <v>21010011</v>
       </c>
       <c r="I69" t="s">
         <v>155</v>
@@ -3833,7 +3833,7 @@
         <v>-45</v>
       </c>
       <c r="H70">
-        <v>60021010012</v>
+        <v>21010012</v>
       </c>
       <c r="I70" t="s">
         <v>157</v>
@@ -3856,7 +3856,7 @@
         <v>158</v>
       </c>
       <c r="H71">
-        <v>60021010013</v>
+        <v>21010013</v>
       </c>
       <c r="I71" t="s">
         <v>159</v>
@@ -3879,7 +3879,7 @@
         <v>160</v>
       </c>
       <c r="H72">
-        <v>60021010014</v>
+        <v>21010014</v>
       </c>
       <c r="I72" t="s">
         <v>161</v>
@@ -3902,7 +3902,7 @@
         <v>162</v>
       </c>
       <c r="H73">
-        <v>60021010015</v>
+        <v>21010015</v>
       </c>
       <c r="I73" t="s">
         <v>163</v>
@@ -3925,7 +3925,7 @@
         <v>164</v>
       </c>
       <c r="H74">
-        <v>60021010016</v>
+        <v>21010016</v>
       </c>
       <c r="I74" t="s">
         <v>165</v>
@@ -3948,7 +3948,7 @@
         <v>166</v>
       </c>
       <c r="H75">
-        <v>60021010017</v>
+        <v>21010017</v>
       </c>
       <c r="I75" t="s">
         <v>167</v>
@@ -3971,7 +3971,7 @@
         <v>168</v>
       </c>
       <c r="H76">
-        <v>60021010018</v>
+        <v>21010018</v>
       </c>
       <c r="I76" t="s">
         <v>169</v>
@@ -3994,7 +3994,7 @@
         <v>170</v>
       </c>
       <c r="H77">
-        <v>60021010019</v>
+        <v>21010019</v>
       </c>
       <c r="I77" t="s">
         <v>171</v>
@@ -4017,7 +4017,7 @@
         <v>172</v>
       </c>
       <c r="H78">
-        <v>60021010020</v>
+        <v>21010020</v>
       </c>
       <c r="I78" t="s">
         <v>173</v>
@@ -4040,7 +4040,7 @@
         <v>174</v>
       </c>
       <c r="H79">
-        <v>60030100001</v>
+        <v>30100001</v>
       </c>
       <c r="I79" t="s">
         <v>175</v>
@@ -4063,7 +4063,7 @@
         <v>176</v>
       </c>
       <c r="H80">
-        <v>60030100002</v>
+        <v>30100002</v>
       </c>
       <c r="I80" t="s">
         <v>177</v>
@@ -4086,7 +4086,7 @@
         <v>178</v>
       </c>
       <c r="H81">
-        <v>60030100003</v>
+        <v>30100003</v>
       </c>
       <c r="I81" t="s">
         <v>179</v>
@@ -4109,7 +4109,7 @@
         <v>180</v>
       </c>
       <c r="H82">
-        <v>60030100004</v>
+        <v>30100004</v>
       </c>
       <c r="I82" t="s">
         <v>181</v>
@@ -4132,7 +4132,7 @@
         <v>182</v>
       </c>
       <c r="H83">
-        <v>60030100005</v>
+        <v>30100005</v>
       </c>
       <c r="I83" t="s">
         <v>183</v>
@@ -4155,7 +4155,7 @@
         <v>184</v>
       </c>
       <c r="H84">
-        <v>60030100006</v>
+        <v>30100006</v>
       </c>
       <c r="I84" t="s">
         <v>185</v>
@@ -4178,7 +4178,7 @@
         <v>186</v>
       </c>
       <c r="H85">
-        <v>60030100007</v>
+        <v>30100007</v>
       </c>
       <c r="I85" t="s">
         <v>187</v>
@@ -4201,7 +4201,7 @@
         <v>188</v>
       </c>
       <c r="H86">
-        <v>60030100008</v>
+        <v>30100008</v>
       </c>
       <c r="I86" t="s">
         <v>189</v>
@@ -4224,7 +4224,7 @@
         <v>190</v>
       </c>
       <c r="H87">
-        <v>60030100009</v>
+        <v>30100009</v>
       </c>
       <c r="I87" t="s">
         <v>191</v>
@@ -4247,7 +4247,7 @@
         <v>192</v>
       </c>
       <c r="H88">
-        <v>60030100010</v>
+        <v>30100010</v>
       </c>
       <c r="I88" t="s">
         <v>193</v>
@@ -4270,7 +4270,7 @@
         <v>194</v>
       </c>
       <c r="H89">
-        <v>60030100011</v>
+        <v>30100011</v>
       </c>
       <c r="I89" t="s">
         <v>195</v>
@@ -4293,7 +4293,7 @@
         <v>196</v>
       </c>
       <c r="H90">
-        <v>60030100012</v>
+        <v>30100012</v>
       </c>
       <c r="I90" t="s">
         <v>197</v>
@@ -4316,7 +4316,7 @@
         <v>198</v>
       </c>
       <c r="H91">
-        <v>60030100013</v>
+        <v>30100013</v>
       </c>
       <c r="I91" t="s">
         <v>199</v>
@@ -4339,7 +4339,7 @@
         <v>200</v>
       </c>
       <c r="H92">
-        <v>60030100014</v>
+        <v>30100014</v>
       </c>
       <c r="I92" t="s">
         <v>201</v>
@@ -4362,7 +4362,7 @@
         <v>202</v>
       </c>
       <c r="H93">
-        <v>60030100015</v>
+        <v>30100015</v>
       </c>
       <c r="I93" t="s">
         <v>203</v>
@@ -4385,7 +4385,7 @@
         <v>204</v>
       </c>
       <c r="H94">
-        <v>60030100016</v>
+        <v>30100016</v>
       </c>
       <c r="I94" t="s">
         <v>205</v>
@@ -4408,7 +4408,7 @@
         <v>206</v>
       </c>
       <c r="H95">
-        <v>60030100017</v>
+        <v>30100017</v>
       </c>
       <c r="I95" t="s">
         <v>207</v>
@@ -4431,7 +4431,7 @@
         <v>208</v>
       </c>
       <c r="H96">
-        <v>60030100018</v>
+        <v>30100018</v>
       </c>
       <c r="I96" t="s">
         <v>209</v>
@@ -4454,7 +4454,7 @@
         <v>210</v>
       </c>
       <c r="H97">
-        <v>60030100019</v>
+        <v>30100019</v>
       </c>
       <c r="I97" t="s">
         <v>211</v>
@@ -4477,7 +4477,7 @@
         <v>212</v>
       </c>
       <c r="H98">
-        <v>60030100020</v>
+        <v>30100020</v>
       </c>
       <c r="I98" t="s">
         <v>213</v>
@@ -4500,7 +4500,7 @@
         <v>214</v>
       </c>
       <c r="H99">
-        <v>60040100001</v>
+        <v>40100001</v>
       </c>
       <c r="I99" t="s">
         <v>215</v>
@@ -4523,7 +4523,7 @@
         <v>216</v>
       </c>
       <c r="H100">
-        <v>60040200001</v>
+        <v>40200001</v>
       </c>
       <c r="I100" t="s">
         <v>217</v>
@@ -4546,7 +4546,7 @@
         <v>218</v>
       </c>
       <c r="H101">
-        <v>60040200002</v>
+        <v>40200002</v>
       </c>
       <c r="I101" t="s">
         <v>219</v>
@@ -4569,7 +4569,7 @@
         <v>220</v>
       </c>
       <c r="H102">
-        <v>60040200003</v>
+        <v>40200003</v>
       </c>
       <c r="I102" t="s">
         <v>221</v>
@@ -4592,7 +4592,7 @@
         <v>222</v>
       </c>
       <c r="H103">
-        <v>60040200004</v>
+        <v>40200004</v>
       </c>
       <c r="I103" t="s">
         <v>223</v>
@@ -4615,7 +4615,7 @@
         <v>224</v>
       </c>
       <c r="H104">
-        <v>60040200005</v>
+        <v>40200005</v>
       </c>
       <c r="I104" t="s">
         <v>225</v>
@@ -4638,7 +4638,7 @@
         <v>226</v>
       </c>
       <c r="H105">
-        <v>60040200006</v>
+        <v>40200006</v>
       </c>
       <c r="I105" t="s">
         <v>227</v>
@@ -4661,7 +4661,7 @@
         <v>228</v>
       </c>
       <c r="H106">
-        <v>60040300001</v>
+        <v>40300001</v>
       </c>
       <c r="I106" t="s">
         <v>229</v>
@@ -4684,7 +4684,7 @@
         <v>230</v>
       </c>
       <c r="H107">
-        <v>60040300002</v>
+        <v>40300002</v>
       </c>
       <c r="I107" t="s">
         <v>231</v>
@@ -4707,7 +4707,7 @@
         <v>232</v>
       </c>
       <c r="H108">
-        <v>60040300003</v>
+        <v>40300003</v>
       </c>
       <c r="I108" t="s">
         <v>233</v>
@@ -4730,7 +4730,7 @@
         <v>234</v>
       </c>
       <c r="H109">
-        <v>60040300004</v>
+        <v>40300004</v>
       </c>
       <c r="I109" t="s">
         <v>235</v>
@@ -4753,7 +4753,7 @@
         <v>236</v>
       </c>
       <c r="H110">
-        <v>60041000001</v>
+        <v>41000001</v>
       </c>
       <c r="I110" t="s">
         <v>237</v>
@@ -4776,7 +4776,7 @@
         <v>238</v>
       </c>
       <c r="H111">
-        <v>60041000002</v>
+        <v>41000002</v>
       </c>
       <c r="I111" t="s">
         <v>239</v>
@@ -4799,7 +4799,7 @@
         <v>240</v>
       </c>
       <c r="H112">
-        <v>60041000003</v>
+        <v>41000003</v>
       </c>
       <c r="I112" t="s">
         <v>241</v>
@@ -4822,7 +4822,7 @@
         <v>242</v>
       </c>
       <c r="H113">
-        <v>60041000004</v>
+        <v>41000004</v>
       </c>
       <c r="I113" t="s">
         <v>243</v>
@@ -4845,7 +4845,7 @@
         <v>244</v>
       </c>
       <c r="H114">
-        <v>60041000005</v>
+        <v>41000005</v>
       </c>
       <c r="I114" t="s">
         <v>245</v>
@@ -4868,7 +4868,7 @@
         <v>246</v>
       </c>
       <c r="H115">
-        <v>60050100001</v>
+        <v>50100001</v>
       </c>
       <c r="I115" t="s">
         <v>247</v>
@@ -4891,7 +4891,7 @@
         <v>248</v>
       </c>
       <c r="H116">
-        <v>60050100002</v>
+        <v>50100002</v>
       </c>
       <c r="I116" t="s">
         <v>249</v>
@@ -4914,7 +4914,7 @@
         <v>250</v>
       </c>
       <c r="H117">
-        <v>60050100003</v>
+        <v>50100003</v>
       </c>
       <c r="I117" t="s">
         <v>251</v>
@@ -4937,7 +4937,7 @@
         <v>252</v>
       </c>
       <c r="H118">
-        <v>60050200001</v>
+        <v>50200001</v>
       </c>
       <c r="I118" t="s">
         <v>253</v>
@@ -4960,7 +4960,7 @@
         <v>254</v>
       </c>
       <c r="H119">
-        <v>60050200002</v>
+        <v>50200002</v>
       </c>
       <c r="I119" t="s">
         <v>255</v>
@@ -4983,7 +4983,7 @@
         <v>256</v>
       </c>
       <c r="H120">
-        <v>60050200003</v>
+        <v>50200003</v>
       </c>
       <c r="I120" t="s">
         <v>257</v>
@@ -5006,7 +5006,7 @@
         <v>258</v>
       </c>
       <c r="H121">
-        <v>60050300001</v>
+        <v>50300001</v>
       </c>
       <c r="I121" t="s">
         <v>259</v>
@@ -5029,7 +5029,7 @@
         <v>260</v>
       </c>
       <c r="H122">
-        <v>60050300002</v>
+        <v>50300002</v>
       </c>
       <c r="I122" t="s">
         <v>261</v>
@@ -5052,7 +5052,7 @@
         <v>262</v>
       </c>
       <c r="H123">
-        <v>60050500001</v>
+        <v>50500001</v>
       </c>
       <c r="I123" t="s">
         <v>263</v>
@@ -5075,7 +5075,7 @@
         <v>264</v>
       </c>
       <c r="H124">
-        <v>60050500002</v>
+        <v>50500002</v>
       </c>
       <c r="I124" t="s">
         <v>265</v>
@@ -5098,7 +5098,7 @@
         <v>266</v>
       </c>
       <c r="H125">
-        <v>60050500003</v>
+        <v>50500003</v>
       </c>
       <c r="I125" t="s">
         <v>267</v>
@@ -5121,7 +5121,7 @@
         <v>268</v>
       </c>
       <c r="H126">
-        <v>60050500004</v>
+        <v>50500004</v>
       </c>
       <c r="I126" t="s">
         <v>269</v>
@@ -5144,7 +5144,7 @@
         <v>270</v>
       </c>
       <c r="H127">
-        <v>60050500005</v>
+        <v>50500005</v>
       </c>
       <c r="I127" t="s">
         <v>271</v>
@@ -5170,7 +5170,7 @@
         <v>273</v>
       </c>
       <c r="H128">
-        <v>60051010001</v>
+        <v>51010001</v>
       </c>
       <c r="I128" t="s">
         <v>274</v>
@@ -5196,7 +5196,7 @@
         <v>276</v>
       </c>
       <c r="H129">
-        <v>60051010002</v>
+        <v>51010002</v>
       </c>
       <c r="I129" t="s">
         <v>277</v>
@@ -5222,7 +5222,7 @@
         <v>279</v>
       </c>
       <c r="H130">
-        <v>60051010003</v>
+        <v>51010003</v>
       </c>
       <c r="I130" t="s">
         <v>280</v>
@@ -5245,7 +5245,7 @@
         <v>281</v>
       </c>
       <c r="H131">
-        <v>60060100001</v>
+        <v>60100001</v>
       </c>
       <c r="I131" t="s">
         <v>282</v>
@@ -5268,7 +5268,7 @@
         <v>283</v>
       </c>
       <c r="H132">
-        <v>60060100002</v>
+        <v>60100002</v>
       </c>
       <c r="I132" t="s">
         <v>284</v>
@@ -5291,7 +5291,7 @@
         <v>285</v>
       </c>
       <c r="H133">
-        <v>60060100003</v>
+        <v>60100003</v>
       </c>
       <c r="I133" t="s">
         <v>286</v>
@@ -5314,7 +5314,7 @@
         <v>287</v>
       </c>
       <c r="H134">
-        <v>60060100004</v>
+        <v>60100004</v>
       </c>
       <c r="I134" t="s">
         <v>247</v>
@@ -5337,7 +5337,7 @@
         <v>288</v>
       </c>
       <c r="H135">
-        <v>60060100005</v>
+        <v>60100005</v>
       </c>
       <c r="I135" t="s">
         <v>289</v>
@@ -5360,7 +5360,7 @@
         <v>290</v>
       </c>
       <c r="H136">
-        <v>60060100006</v>
+        <v>60100006</v>
       </c>
       <c r="I136" t="s">
         <v>291</v>
@@ -5383,7 +5383,7 @@
         <v>292</v>
       </c>
       <c r="H137">
-        <v>60060100007</v>
+        <v>60100007</v>
       </c>
       <c r="I137" t="s">
         <v>293</v>
@@ -5406,7 +5406,7 @@
         <v>294</v>
       </c>
       <c r="H138">
-        <v>60060100008</v>
+        <v>60100008</v>
       </c>
       <c r="I138" t="s">
         <v>295</v>
@@ -5429,7 +5429,7 @@
         <v>296</v>
       </c>
       <c r="H139">
-        <v>60060100009</v>
+        <v>60100009</v>
       </c>
       <c r="I139" t="s">
         <v>297</v>
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="H140">
-        <v>60060100010</v>
+        <v>60100010</v>
       </c>
       <c r="I140" t="s">
         <v>299</v>
@@ -5475,7 +5475,7 @@
         <v>300</v>
       </c>
       <c r="H141">
-        <v>60060200001</v>
+        <v>60200001</v>
       </c>
       <c r="I141" t="s">
         <v>217</v>
@@ -5498,7 +5498,7 @@
         <v>301</v>
       </c>
       <c r="H142">
-        <v>60060200002</v>
+        <v>60200002</v>
       </c>
       <c r="I142" t="s">
         <v>302</v>
@@ -5521,7 +5521,7 @@
         <v>303</v>
       </c>
       <c r="H143">
-        <v>60060300001</v>
+        <v>60300001</v>
       </c>
       <c r="I143" t="s">
         <v>304</v>
@@ -5544,7 +5544,7 @@
         <v>305</v>
       </c>
       <c r="H144">
-        <v>60060300002</v>
+        <v>60300002</v>
       </c>
       <c r="I144" t="s">
         <v>306</v>
@@ -5567,7 +5567,7 @@
         <v>307</v>
       </c>
       <c r="H145">
-        <v>60060300003</v>
+        <v>60300003</v>
       </c>
       <c r="I145" t="s">
         <v>308</v>
@@ -5590,7 +5590,7 @@
         <v>309</v>
       </c>
       <c r="H146">
-        <v>60060300004</v>
+        <v>60300004</v>
       </c>
       <c r="I146" t="s">
         <v>310</v>
@@ -5613,7 +5613,7 @@
         <v>311</v>
       </c>
       <c r="H147">
-        <v>60060300005</v>
+        <v>60300005</v>
       </c>
       <c r="I147" t="s">
         <v>312</v>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="F148"/>
       <c r="H148">
-        <v>60061010001</v>
+        <v>61010001</v>
       </c>
       <c r="I148" t="s">
         <v>314</v>
@@ -5663,7 +5663,7 @@
         <v>316</v>
       </c>
       <c r="H149">
-        <v>60061010002</v>
+        <v>61010002</v>
       </c>
       <c r="I149" t="s">
         <v>317</v>
@@ -5686,7 +5686,7 @@
         <v>318</v>
       </c>
       <c r="H150">
-        <v>60061010003</v>
+        <v>61010003</v>
       </c>
       <c r="I150" t="s">
         <v>319</v>
@@ -5712,7 +5712,7 @@
         <v>-45</v>
       </c>
       <c r="H151">
-        <v>60061010004</v>
+        <v>61010004</v>
       </c>
       <c r="I151" t="s">
         <v>321</v>
@@ -5738,7 +5738,7 @@
         <v>-45</v>
       </c>
       <c r="H152">
-        <v>60061010005</v>
+        <v>61010005</v>
       </c>
       <c r="I152" t="s">
         <v>323</v>
@@ -5764,7 +5764,7 @@
         <v>-45</v>
       </c>
       <c r="H153">
-        <v>60061010006</v>
+        <v>61010006</v>
       </c>
       <c r="I153" t="s">
         <v>325</v>
@@ -5787,7 +5787,7 @@
         <v>326</v>
       </c>
       <c r="H154">
-        <v>60061010007</v>
+        <v>61010007</v>
       </c>
       <c r="I154" t="s">
         <v>327</v>
@@ -5810,7 +5810,7 @@
         <v>328</v>
       </c>
       <c r="H155">
-        <v>60061010008</v>
+        <v>61010008</v>
       </c>
       <c r="I155" t="s">
         <v>329</v>
@@ -5833,7 +5833,7 @@
         <v>330</v>
       </c>
       <c r="H156">
-        <v>60061010009</v>
+        <v>61010009</v>
       </c>
       <c r="I156" t="s">
         <v>331</v>
@@ -5856,7 +5856,7 @@
         <v>332</v>
       </c>
       <c r="H157">
-        <v>60061010010</v>
+        <v>61010010</v>
       </c>
       <c r="I157" t="s">
         <v>333</v>
@@ -5879,7 +5879,7 @@
         <v>334</v>
       </c>
       <c r="H158">
-        <v>60061010011</v>
+        <v>61010011</v>
       </c>
       <c r="I158" t="s">
         <v>335</v>
@@ -5902,7 +5902,7 @@
         <v>336</v>
       </c>
       <c r="H159">
-        <v>60061010012</v>
+        <v>61010012</v>
       </c>
       <c r="I159" t="s">
         <v>337</v>
@@ -5928,7 +5928,7 @@
         <v>316</v>
       </c>
       <c r="H160">
-        <v>60061010013</v>
+        <v>61010013</v>
       </c>
       <c r="I160" t="s">
         <v>339</v>
@@ -5954,7 +5954,7 @@
         <v>316</v>
       </c>
       <c r="H161">
-        <v>60061010014</v>
+        <v>61010014</v>
       </c>
       <c r="I161" t="s">
         <v>341</v>
@@ -5980,7 +5980,7 @@
         <v>316</v>
       </c>
       <c r="H162">
-        <v>60061010015</v>
+        <v>61010015</v>
       </c>
       <c r="I162" t="s">
         <v>343</v>
@@ -6006,7 +6006,7 @@
         <v>316</v>
       </c>
       <c r="H163">
-        <v>60061010016</v>
+        <v>61010016</v>
       </c>
       <c r="I163" t="s">
         <v>345</v>
@@ -6029,7 +6029,7 @@
         <v>346</v>
       </c>
       <c r="H164">
-        <v>60061010017</v>
+        <v>61010017</v>
       </c>
       <c r="I164" t="s">
         <v>347</v>
@@ -6052,7 +6052,7 @@
         <v>348</v>
       </c>
       <c r="H165">
-        <v>60061010018</v>
+        <v>61010018</v>
       </c>
       <c r="I165" t="s">
         <v>349</v>
@@ -6075,7 +6075,7 @@
         <v>350</v>
       </c>
       <c r="H166">
-        <v>60061010019</v>
+        <v>61010019</v>
       </c>
       <c r="I166" t="s">
         <v>351</v>
@@ -6098,7 +6098,7 @@
         <v>352</v>
       </c>
       <c r="H167">
-        <v>60061010020</v>
+        <v>61010020</v>
       </c>
       <c r="I167" t="s">
         <v>353</v>
@@ -6121,7 +6121,7 @@
         <v>354</v>
       </c>
       <c r="H168">
-        <v>60070100001</v>
+        <v>70100001</v>
       </c>
       <c r="I168" t="s">
         <v>355</v>
@@ -6144,7 +6144,7 @@
         <v>356</v>
       </c>
       <c r="H169">
-        <v>60070200001</v>
+        <v>70200001</v>
       </c>
       <c r="I169" t="s">
         <v>357</v>
@@ -6167,7 +6167,7 @@
         <v>358</v>
       </c>
       <c r="H170">
-        <v>60070200002</v>
+        <v>70200002</v>
       </c>
       <c r="I170" t="s">
         <v>255</v>
@@ -6190,7 +6190,7 @@
         <v>359</v>
       </c>
       <c r="H171">
-        <v>60070300001</v>
+        <v>70300001</v>
       </c>
       <c r="I171" t="s">
         <v>360</v>
@@ -6213,7 +6213,7 @@
         <v>361</v>
       </c>
       <c r="H172">
-        <v>60070300002</v>
+        <v>70300002</v>
       </c>
       <c r="I172" t="s">
         <v>362</v>
@@ -6236,7 +6236,7 @@
         <v>363</v>
       </c>
       <c r="H173">
-        <v>60070300003</v>
+        <v>70300003</v>
       </c>
       <c r="I173" t="s">
         <v>364</v>
@@ -6259,7 +6259,7 @@
         <v>365</v>
       </c>
       <c r="H174">
-        <v>60070300004</v>
+        <v>70300004</v>
       </c>
       <c r="I174" t="s">
         <v>366</v>
@@ -6285,7 +6285,7 @@
         <v>368</v>
       </c>
       <c r="H175">
-        <v>60071000001</v>
+        <v>71000001</v>
       </c>
       <c r="I175" t="s">
         <v>369</v>
@@ -6311,7 +6311,7 @@
         <v>371</v>
       </c>
       <c r="H176">
-        <v>60071000002</v>
+        <v>71000002</v>
       </c>
       <c r="I176" t="s">
         <v>372</v>
@@ -6337,7 +6337,7 @@
         <v>374</v>
       </c>
       <c r="H177">
-        <v>60071000003</v>
+        <v>71000003</v>
       </c>
       <c r="I177" t="s">
         <v>375</v>
@@ -6360,7 +6360,7 @@
         <v>376</v>
       </c>
       <c r="H178">
-        <v>60071010001</v>
+        <v>71010001</v>
       </c>
       <c r="I178" t="s">
         <v>377</v>
@@ -6383,7 +6383,7 @@
         <v>378</v>
       </c>
       <c r="H179">
-        <v>60071010002</v>
+        <v>71010002</v>
       </c>
       <c r="I179" t="s">
         <v>379</v>
@@ -6406,7 +6406,7 @@
         <v>380</v>
       </c>
       <c r="H180">
-        <v>60071010003</v>
+        <v>71010003</v>
       </c>
       <c r="I180" t="s">
         <v>381</v>
@@ -6429,7 +6429,7 @@
         <v>382</v>
       </c>
       <c r="H181">
-        <v>60071010004</v>
+        <v>71010004</v>
       </c>
       <c r="I181" t="s">
         <v>383</v>
@@ -6452,7 +6452,7 @@
         <v>384</v>
       </c>
       <c r="H182">
-        <v>60071010005</v>
+        <v>71010005</v>
       </c>
       <c r="I182" t="s">
         <v>385</v>
@@ -6475,7 +6475,7 @@
         <v>386</v>
       </c>
       <c r="H183">
-        <v>60071010006</v>
+        <v>71010006</v>
       </c>
       <c r="I183" t="s">
         <v>387</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_items_info[道具信息].xlsx
@@ -2161,19 +2161,19 @@
   <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G154" sqref="G154"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="48.25" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="31.75" customWidth="1"/>
     <col min="7" max="7" width="93.875" customWidth="1"/>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1020001</v>
+        <v>1500001</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1020002</v>
+        <v>1500002</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1020003</v>
+        <v>1500003</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1020004</v>
+        <v>1500004</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -2371,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1100001</v>
+        <v>1510001</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1100002</v>
+        <v>1510002</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1100003</v>
+        <v>1510003</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1100004</v>
+        <v>1510004</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1120001</v>
+        <v>1520001</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1120002</v>
+        <v>1520002</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1120003</v>
+        <v>1520003</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1120004</v>
+        <v>1520004</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
